--- a/resampled NCHS.xlsx
+++ b/resampled NCHS.xlsx
@@ -555,7 +555,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C4">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D4">
         <v>0.1656226696495153</v>
@@ -573,7 +573,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I4">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J4">
         <v>4.653057419835943</v>
@@ -596,7 +596,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C5">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D5">
         <v>0.1656226696495153</v>
@@ -614,7 +614,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I5">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J5">
         <v>4.653057419835943</v>
@@ -637,7 +637,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C6">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D6">
         <v>0.1656226696495153</v>
@@ -655,7 +655,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I6">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J6">
         <v>4.653057419835943</v>
@@ -678,7 +678,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C7">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D7">
         <v>0.1656226696495153</v>
@@ -696,7 +696,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I7">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J7">
         <v>4.653057419835943</v>
@@ -719,7 +719,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C8">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D8">
         <v>0.1656226696495153</v>
@@ -737,7 +737,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I8">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J8">
         <v>4.653057419835943</v>
@@ -760,7 +760,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C9">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D9">
         <v>0.1656226696495153</v>
@@ -778,7 +778,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I9">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J9">
         <v>4.653057419835943</v>
@@ -801,7 +801,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C10">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D10">
         <v>0.1656226696495153</v>
@@ -819,7 +819,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I10">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J10">
         <v>4.653057419835943</v>
@@ -842,7 +842,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C11">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D11">
         <v>0.1656226696495153</v>
@@ -860,7 +860,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I11">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J11">
         <v>4.653057419835943</v>
@@ -883,7 +883,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C12">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D12">
         <v>0.1656226696495153</v>
@@ -901,7 +901,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I12">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J12">
         <v>4.653057419835943</v>
@@ -924,7 +924,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C13">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D13">
         <v>0.1656226696495153</v>
@@ -942,7 +942,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I13">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J13">
         <v>4.653057419835943</v>
@@ -965,7 +965,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C14">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D14">
         <v>0.1656226696495153</v>
@@ -983,7 +983,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I14">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J14">
         <v>4.653057419835943</v>
@@ -1006,7 +1006,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C15">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D15">
         <v>0.1656226696495153</v>
@@ -1024,7 +1024,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I15">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J15">
         <v>4.653057419835943</v>
@@ -1047,7 +1047,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C16">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D16">
         <v>0.1656226696495153</v>
@@ -1065,7 +1065,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I16">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J16">
         <v>4.653057419835943</v>
@@ -1088,7 +1088,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C17">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D17">
         <v>0.1656226696495153</v>
@@ -1106,7 +1106,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I17">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J17">
         <v>4.653057419835943</v>
@@ -1129,7 +1129,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C18">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D18">
         <v>0.1656226696495153</v>
@@ -1147,7 +1147,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I18">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J18">
         <v>4.653057419835943</v>
@@ -1170,7 +1170,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C19">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D19">
         <v>0.1656226696495153</v>
@@ -1188,7 +1188,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I19">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J19">
         <v>4.653057419835943</v>
@@ -1211,7 +1211,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C20">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D20">
         <v>0.1656226696495153</v>
@@ -1229,7 +1229,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I20">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J20">
         <v>4.653057419835943</v>
@@ -1252,7 +1252,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C21">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D21">
         <v>0.1656226696495153</v>
@@ -1270,7 +1270,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I21">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J21">
         <v>4.653057419835943</v>
@@ -1293,7 +1293,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C22">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D22">
         <v>0.1656226696495153</v>
@@ -1311,7 +1311,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I22">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J22">
         <v>4.653057419835943</v>
@@ -1334,7 +1334,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C23">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D23">
         <v>0.1656226696495153</v>
@@ -1352,7 +1352,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I23">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J23">
         <v>4.653057419835943</v>
@@ -1375,7 +1375,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C24">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D24">
         <v>0.1656226696495153</v>
@@ -1393,7 +1393,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I24">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J24">
         <v>4.653057419835943</v>
@@ -1416,7 +1416,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C25">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D25">
         <v>0.1656226696495153</v>
@@ -1434,7 +1434,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I25">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J25">
         <v>4.653057419835943</v>
@@ -1457,7 +1457,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C26">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D26">
         <v>0.1656226696495153</v>
@@ -1475,7 +1475,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I26">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J26">
         <v>4.653057419835943</v>
@@ -1498,7 +1498,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C27">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D27">
         <v>0.1656226696495153</v>
@@ -1516,7 +1516,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I27">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J27">
         <v>4.653057419835943</v>
@@ -1539,7 +1539,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C28">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D28">
         <v>0.1656226696495153</v>
@@ -1557,7 +1557,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I28">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J28">
         <v>4.653057419835943</v>
@@ -1580,7 +1580,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C29">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D29">
         <v>0.1656226696495153</v>
@@ -1598,7 +1598,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I29">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J29">
         <v>4.653057419835943</v>
@@ -1621,7 +1621,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C30">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D30">
         <v>0.1656226696495153</v>
@@ -1639,7 +1639,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I30">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J30">
         <v>4.653057419835943</v>
@@ -1662,7 +1662,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C31">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D31">
         <v>0.1656226696495153</v>
@@ -1680,7 +1680,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I31">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J31">
         <v>4.653057419835943</v>
@@ -1703,7 +1703,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C32">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D32">
         <v>0.1656226696495153</v>
@@ -1721,7 +1721,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I32">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J32">
         <v>4.653057419835943</v>
@@ -1744,7 +1744,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C33">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D33">
         <v>0.1656226696495153</v>
@@ -1762,7 +1762,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I33">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J33">
         <v>4.653057419835943</v>
@@ -1785,7 +1785,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C34">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D34">
         <v>0.1656226696495153</v>
@@ -1803,7 +1803,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I34">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J34">
         <v>4.653057419835943</v>
@@ -1826,7 +1826,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C35">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D35">
         <v>0.1656226696495153</v>
@@ -1844,7 +1844,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I35">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J35">
         <v>4.653057419835943</v>
@@ -1867,7 +1867,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C36">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D36">
         <v>0.1656226696495153</v>
@@ -1885,7 +1885,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I36">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J36">
         <v>4.653057419835943</v>
@@ -1908,7 +1908,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C37">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D37">
         <v>0.1656226696495153</v>
@@ -1926,7 +1926,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I37">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J37">
         <v>4.653057419835943</v>
@@ -1949,7 +1949,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C38">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D38">
         <v>0.1656226696495153</v>
@@ -1967,7 +1967,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I38">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J38">
         <v>4.653057419835943</v>
@@ -1990,7 +1990,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C39">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D39">
         <v>0.1656226696495153</v>
@@ -2008,7 +2008,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I39">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J39">
         <v>4.653057419835943</v>
@@ -2031,7 +2031,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C40">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D40">
         <v>0.1656226696495153</v>
@@ -2049,7 +2049,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I40">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J40">
         <v>4.653057419835943</v>
@@ -2072,7 +2072,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C41">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D41">
         <v>0.1656226696495153</v>
@@ -2090,7 +2090,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I41">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J41">
         <v>4.653057419835943</v>
@@ -2113,7 +2113,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C42">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D42">
         <v>0.1656226696495153</v>
@@ -2131,7 +2131,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I42">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J42">
         <v>4.653057419835943</v>
@@ -2154,7 +2154,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C43">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D43">
         <v>0.1656226696495153</v>
@@ -2172,7 +2172,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I43">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J43">
         <v>4.653057419835943</v>
@@ -2195,7 +2195,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C44">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D44">
         <v>0.1656226696495153</v>
@@ -2213,7 +2213,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I44">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J44">
         <v>4.653057419835943</v>
@@ -2236,7 +2236,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C45">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D45">
         <v>0.1656226696495153</v>
@@ -2254,7 +2254,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I45">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J45">
         <v>4.653057419835943</v>
@@ -2277,7 +2277,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C46">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D46">
         <v>0.1656226696495153</v>
@@ -2295,7 +2295,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I46">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J46">
         <v>4.653057419835943</v>
@@ -2318,7 +2318,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C47">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D47">
         <v>0.1656226696495153</v>
@@ -2336,7 +2336,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I47">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J47">
         <v>4.653057419835943</v>
@@ -2359,7 +2359,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C48">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D48">
         <v>0.1656226696495153</v>
@@ -2377,7 +2377,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I48">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J48">
         <v>4.653057419835943</v>
@@ -2400,7 +2400,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C49">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D49">
         <v>0.1656226696495153</v>
@@ -2418,7 +2418,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I49">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J49">
         <v>4.653057419835943</v>
@@ -2441,7 +2441,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C50">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D50">
         <v>0.1656226696495153</v>
@@ -2459,7 +2459,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I50">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J50">
         <v>4.653057419835943</v>
@@ -2482,7 +2482,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C51">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D51">
         <v>0.1656226696495153</v>
@@ -2500,7 +2500,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I51">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J51">
         <v>4.653057419835943</v>
@@ -2523,7 +2523,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C52">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D52">
         <v>0.1656226696495153</v>
@@ -2541,7 +2541,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I52">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J52">
         <v>4.653057419835943</v>
@@ -2564,7 +2564,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C53">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D53">
         <v>0.1656226696495153</v>
@@ -2582,7 +2582,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I53">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J53">
         <v>4.653057419835943</v>
@@ -2605,7 +2605,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C54">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D54">
         <v>0.1656226696495153</v>
@@ -2623,7 +2623,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I54">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J54">
         <v>4.653057419835943</v>
@@ -2646,7 +2646,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C55">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D55">
         <v>0.1656226696495153</v>
@@ -2664,7 +2664,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I55">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J55">
         <v>4.653057419835943</v>
@@ -2687,7 +2687,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C56">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D56">
         <v>0.1656226696495153</v>
@@ -2705,7 +2705,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I56">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J56">
         <v>4.653057419835943</v>
@@ -2728,7 +2728,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C57">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D57">
         <v>0.1656226696495153</v>
@@ -2746,7 +2746,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I57">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J57">
         <v>4.653057419835943</v>
@@ -2769,7 +2769,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C58">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D58">
         <v>0.1656226696495153</v>
@@ -2787,7 +2787,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I58">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J58">
         <v>4.653057419835943</v>
@@ -2810,7 +2810,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C59">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D59">
         <v>0.1656226696495153</v>
@@ -2828,7 +2828,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I59">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J59">
         <v>4.653057419835943</v>
@@ -2851,7 +2851,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C60">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D60">
         <v>0.1656226696495153</v>
@@ -2869,7 +2869,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I60">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J60">
         <v>4.653057419835943</v>
@@ -2892,7 +2892,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C61">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D61">
         <v>0.1656226696495153</v>
@@ -2910,7 +2910,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I61">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J61">
         <v>4.653057419835943</v>
@@ -2933,7 +2933,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C62">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D62">
         <v>0.1656226696495153</v>
@@ -2951,7 +2951,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I62">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J62">
         <v>4.653057419835943</v>
@@ -2974,7 +2974,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C63">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D63">
         <v>0.1656226696495153</v>
@@ -2992,7 +2992,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I63">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J63">
         <v>4.653057419835943</v>
@@ -3015,7 +3015,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C64">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D64">
         <v>0.1656226696495153</v>
@@ -3033,7 +3033,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I64">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J64">
         <v>4.653057419835943</v>
@@ -3056,7 +3056,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C65">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D65">
         <v>0.1656226696495153</v>
@@ -3074,7 +3074,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I65">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J65">
         <v>4.653057419835943</v>
@@ -3097,7 +3097,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C66">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D66">
         <v>0.1656226696495153</v>
@@ -3115,7 +3115,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I66">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J66">
         <v>4.653057419835943</v>
@@ -3138,7 +3138,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C67">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D67">
         <v>0.1656226696495153</v>
@@ -3156,7 +3156,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I67">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J67">
         <v>4.653057419835943</v>
@@ -3179,7 +3179,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C68">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D68">
         <v>0.1656226696495153</v>
@@ -3197,7 +3197,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I68">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J68">
         <v>4.653057419835943</v>
@@ -3220,7 +3220,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C69">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D69">
         <v>0.1656226696495153</v>
@@ -3238,7 +3238,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I69">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J69">
         <v>4.653057419835943</v>
@@ -3261,7 +3261,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C70">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D70">
         <v>0.1656226696495153</v>
@@ -3279,7 +3279,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I70">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J70">
         <v>4.653057419835943</v>
@@ -3302,7 +3302,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C71">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D71">
         <v>0.1656226696495153</v>
@@ -3320,7 +3320,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I71">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J71">
         <v>4.653057419835943</v>
@@ -3343,7 +3343,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C72">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D72">
         <v>0.1656226696495153</v>
@@ -3361,7 +3361,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I72">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J72">
         <v>4.653057419835943</v>
@@ -3384,7 +3384,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C73">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D73">
         <v>0.1656226696495153</v>
@@ -3402,7 +3402,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I73">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J73">
         <v>4.653057419835943</v>
@@ -3425,7 +3425,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C74">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D74">
         <v>0.1656226696495153</v>
@@ -3443,7 +3443,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I74">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J74">
         <v>4.653057419835943</v>
@@ -3466,7 +3466,7 @@
         <v>5.5</v>
       </c>
       <c r="C75">
-        <v>271.1666666666667</v>
+        <v>38.01429567642956</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>0.290576</v>
+        <v>0.02851507572815527</v>
       </c>
       <c r="J75">
         <v>6.666666666666667</v>
@@ -3507,7 +3507,7 @@
         <v>13</v>
       </c>
       <c r="C76">
-        <v>52.11111111111111</v>
+        <v>43.49651324965132</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>0.4172373333333333</v>
+        <v>0.09128875080906142</v>
       </c>
       <c r="J76">
         <v>3.333333333333333</v>
@@ -3548,7 +3548,7 @@
         <v>19.5</v>
       </c>
       <c r="C77">
-        <v>-35.5</v>
+        <v>33.40428870292887</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>0.2794</v>
+        <v>0.1148415378640776</v>
       </c>
       <c r="J77">
         <v>4.75</v>
@@ -3589,7 +3589,7 @@
         <v>23.5</v>
       </c>
       <c r="C78">
-        <v>-53.5</v>
+        <v>15.40428870292887</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>0.357632</v>
+        <v>0.1290990757281553</v>
       </c>
       <c r="J78">
         <v>2.5</v>
@@ -3630,7 +3630,7 @@
         <v>27.5</v>
       </c>
       <c r="C79">
-        <v>-54</v>
+        <v>14.90428870292887</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>0.2794</v>
+        <v>0.1148415378640776</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -3671,7 +3671,7 @@
         <v>31.5</v>
       </c>
       <c r="C80">
-        <v>-53.25</v>
+        <v>15.65428870292887</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>0.22352</v>
+        <v>0.02851507572815527</v>
       </c>
       <c r="J80">
         <v>2.75</v>
@@ -3712,7 +3712,7 @@
         <v>36</v>
       </c>
       <c r="C81">
-        <v>-41.6</v>
+        <v>13.5234309623431</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>41</v>
       </c>
       <c r="C82">
-        <v>-40.8</v>
+        <v>14.3234309623431</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>0.1430528</v>
+        <v>0.0650508302912621</v>
       </c>
       <c r="J82">
         <v>4.2</v>
@@ -3794,7 +3794,7 @@
         <v>45.5</v>
       </c>
       <c r="C83">
-        <v>-54.25</v>
+        <v>14.65428870292887</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -3835,7 +3835,7 @@
         <v>50</v>
       </c>
       <c r="C84">
-        <v>-31.6</v>
+        <v>23.5234309623431</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -3853,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>0.1162304</v>
+        <v>0.03822843029126211</v>
       </c>
       <c r="J84">
         <v>2.2</v>
@@ -3876,7 +3876,7 @@
         <v>55</v>
       </c>
       <c r="C85">
-        <v>27.2</v>
+        <v>29.64686192468619</v>
       </c>
       <c r="D85">
         <v>0.2</v>
@@ -3917,7 +3917,7 @@
         <v>60</v>
       </c>
       <c r="C86">
-        <v>63.6</v>
+        <v>39.04686192468619</v>
       </c>
       <c r="D86">
         <v>0.4</v>
@@ -3935,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>0.1430528</v>
+        <v>0.03822843029126211</v>
       </c>
       <c r="J86">
         <v>4.6</v>
@@ -3958,7 +3958,7 @@
         <v>65</v>
       </c>
       <c r="C87">
-        <v>60.2</v>
+        <v>38.97029288702929</v>
       </c>
       <c r="D87">
         <v>0.2</v>
@@ -3999,7 +3999,7 @@
         <v>69.5</v>
       </c>
       <c r="C88">
-        <v>-27.75</v>
+        <v>41.15428870292887</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -4017,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <v>0.22352</v>
+        <v>0.02851507572815527</v>
       </c>
       <c r="J88">
         <v>5</v>
@@ -4040,7 +4040,7 @@
         <v>74</v>
       </c>
       <c r="C89">
-        <v>-26</v>
+        <v>29.12343096234309</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>0.1698752</v>
+        <v>0.09187323029126211</v>
       </c>
       <c r="J89">
         <v>5.4</v>
@@ -4081,7 +4081,7 @@
         <v>79</v>
       </c>
       <c r="C90">
-        <v>-40.8</v>
+        <v>14.3234309623431</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>84</v>
       </c>
       <c r="C91">
-        <v>-40.6</v>
+        <v>14.5234309623431</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="I91">
-        <v>0.1430528</v>
+        <v>0.03822843029126211</v>
       </c>
       <c r="J91">
         <v>3.8</v>
@@ -4163,7 +4163,7 @@
         <v>89</v>
       </c>
       <c r="C92">
-        <v>-41</v>
+        <v>14.1234309623431</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -4245,7 +4245,7 @@
         <v>98</v>
       </c>
       <c r="C94">
-        <v>-41</v>
+        <v>14.1234309623431</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -4327,7 +4327,7 @@
         <v>107</v>
       </c>
       <c r="C96">
-        <v>-30.8</v>
+        <v>24.3234309623431</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -4368,7 +4368,7 @@
         <v>112</v>
       </c>
       <c r="C97">
-        <v>154.6</v>
+        <v>31.04686192468619</v>
       </c>
       <c r="D97">
         <v>0.8</v>
@@ -4409,7 +4409,7 @@
         <v>117</v>
       </c>
       <c r="C98">
-        <v>46.6</v>
+        <v>43.84686192468619</v>
       </c>
       <c r="D98">
         <v>0.2</v>
@@ -4450,7 +4450,7 @@
         <v>122</v>
       </c>
       <c r="C99">
-        <v>-8.4</v>
+        <v>46.72343096234309</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -4491,7 +4491,7 @@
         <v>126.5</v>
       </c>
       <c r="C100">
-        <v>-51</v>
+        <v>17.90428870292887</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -4532,7 +4532,7 @@
         <v>131</v>
       </c>
       <c r="C101">
-        <v>-20.8</v>
+        <v>34.3234309623431</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>0.508</v>
       </c>
       <c r="I101">
-        <v>0.1162304</v>
+        <v>0.03822843029126211</v>
       </c>
       <c r="J101">
         <v>4.6</v>
@@ -4573,7 +4573,7 @@
         <v>136</v>
       </c>
       <c r="C102">
-        <v>-40.6</v>
+        <v>14.5234309623431</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>140.5</v>
       </c>
       <c r="C103">
-        <v>-54</v>
+        <v>14.90428870292887</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -4655,7 +4655,7 @@
         <v>145</v>
       </c>
       <c r="C104">
-        <v>-40.4</v>
+        <v>14.7234309623431</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -4673,7 +4673,7 @@
         <v>2.032</v>
       </c>
       <c r="I104">
-        <v>0.1430528</v>
+        <v>0.03822843029126211</v>
       </c>
       <c r="J104">
         <v>3.6</v>
@@ -4696,7 +4696,7 @@
         <v>150</v>
       </c>
       <c r="C105">
-        <v>-40.8</v>
+        <v>14.3234309623431</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -4737,7 +4737,7 @@
         <v>155</v>
       </c>
       <c r="C106">
-        <v>-40.8</v>
+        <v>14.3234309623431</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -4819,7 +4819,7 @@
         <v>163.5</v>
       </c>
       <c r="C108">
-        <v>-54.5</v>
+        <v>14.40428870292887</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -4837,7 +4837,7 @@
         <v>1.905</v>
       </c>
       <c r="I108">
-        <v>0.11176</v>
+        <v>0.01425753786407763</v>
       </c>
       <c r="J108">
         <v>3</v>
@@ -5411,7 +5411,7 @@
         <v>19.05</v>
       </c>
       <c r="I122">
-        <v>0.22352</v>
+        <v>0.02851507572815527</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -5493,7 +5493,7 @@
         <v>19.05</v>
       </c>
       <c r="I124">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="J124">
         <v>3</v>
@@ -6518,7 +6518,7 @@
         <v>19.05</v>
       </c>
       <c r="I149">
-        <v>0.357632</v>
+        <v>0.1626270757281553</v>
       </c>
       <c r="J149">
         <v>6</v>
@@ -7115,7 +7115,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C164">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D164">
         <v>0.1656226696495153</v>
@@ -7133,7 +7133,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I164">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J164">
         <v>4.653057419835943</v>
@@ -7443,7 +7443,7 @@
         <v>256</v>
       </c>
       <c r="C172">
-        <v>-19</v>
+        <v>36.12343096234309</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -7461,7 +7461,7 @@
         <v>1.524</v>
       </c>
       <c r="I172">
-        <v>0.268224</v>
+        <v>0.02281206058252421</v>
       </c>
       <c r="J172">
         <v>4.6</v>
@@ -7484,7 +7484,7 @@
         <v>261</v>
       </c>
       <c r="C173">
-        <v>-25.8</v>
+        <v>29.32343096234309</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -7502,7 +7502,7 @@
         <v>1.524</v>
       </c>
       <c r="I173">
-        <v>0.2950464</v>
+        <v>0.04963446058252422</v>
       </c>
       <c r="J173">
         <v>3.8</v>
@@ -7525,7 +7525,7 @@
         <v>266</v>
       </c>
       <c r="C174">
-        <v>-31.8</v>
+        <v>23.3234309623431</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -7543,7 +7543,7 @@
         <v>1.524</v>
       </c>
       <c r="I174">
-        <v>0.2950464</v>
+        <v>0.06104049087378632</v>
       </c>
       <c r="J174">
         <v>3.6</v>
@@ -7566,7 +7566,7 @@
         <v>271</v>
       </c>
       <c r="C175">
-        <v>-32.2</v>
+        <v>22.9234309623431</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -7584,7 +7584,7 @@
         <v>1.524</v>
       </c>
       <c r="I175">
-        <v>0.1698752</v>
+        <v>0.03822843029126211</v>
       </c>
       <c r="J175">
         <v>2.4</v>
@@ -7607,7 +7607,7 @@
         <v>276</v>
       </c>
       <c r="C176">
-        <v>-32.2</v>
+        <v>22.9234309623431</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -7648,7 +7648,7 @@
         <v>281</v>
       </c>
       <c r="C177">
-        <v>-32.4</v>
+        <v>22.72343096234309</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -7689,7 +7689,7 @@
         <v>285.5</v>
       </c>
       <c r="C178">
-        <v>-43.5</v>
+        <v>25.40428870292887</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -7730,7 +7730,7 @@
         <v>290</v>
       </c>
       <c r="C179">
-        <v>-32.4</v>
+        <v>22.72343096234309</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -7771,7 +7771,7 @@
         <v>295</v>
       </c>
       <c r="C180">
-        <v>-32.4</v>
+        <v>22.72343096234309</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>300</v>
       </c>
       <c r="C181">
-        <v>-31</v>
+        <v>24.1234309623431</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -7853,7 +7853,7 @@
         <v>305</v>
       </c>
       <c r="C182">
-        <v>-31</v>
+        <v>24.1234309623431</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -7871,7 +7871,7 @@
         <v>10.16</v>
       </c>
       <c r="I182">
-        <v>0.1966976</v>
+        <v>0.09187323029126211</v>
       </c>
       <c r="J182">
         <v>6</v>
@@ -7912,7 +7912,7 @@
         <v>12.7</v>
       </c>
       <c r="I183">
-        <v>0.1490133333333333</v>
+        <v>0.01901005048543685</v>
       </c>
       <c r="J183">
         <v>4</v>
@@ -7976,7 +7976,7 @@
         <v>316.5</v>
       </c>
       <c r="C185">
-        <v>-31.5</v>
+        <v>37.40428870292887</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -8099,7 +8099,7 @@
         <v>328.5</v>
       </c>
       <c r="C188">
-        <v>-43.5</v>
+        <v>25.40428870292887</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -8140,7 +8140,7 @@
         <v>332.5</v>
       </c>
       <c r="C189">
-        <v>-43.25</v>
+        <v>25.65428870292887</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -8181,7 +8181,7 @@
         <v>337</v>
       </c>
       <c r="C190">
-        <v>-32.8</v>
+        <v>22.3234309623431</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -8222,7 +8222,7 @@
         <v>342</v>
       </c>
       <c r="C191">
-        <v>-32.8</v>
+        <v>22.3234309623431</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -8263,7 +8263,7 @@
         <v>347</v>
       </c>
       <c r="C192">
-        <v>-32.4</v>
+        <v>22.72343096234309</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -8304,7 +8304,7 @@
         <v>352</v>
       </c>
       <c r="C193">
-        <v>-24</v>
+        <v>31.12343096234309</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -8322,7 +8322,7 @@
         <v>18.796</v>
       </c>
       <c r="I193">
-        <v>0.1698752</v>
+        <v>0.0650508302912621</v>
       </c>
       <c r="J193">
         <v>4.2</v>
@@ -8345,7 +8345,7 @@
         <v>357</v>
       </c>
       <c r="C194">
-        <v>-7.8</v>
+        <v>47.3234309623431</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -8386,7 +8386,7 @@
         <v>362</v>
       </c>
       <c r="C195">
-        <v>-27.8</v>
+        <v>27.32343096234309</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -8404,7 +8404,7 @@
         <v>18.796</v>
       </c>
       <c r="I195">
-        <v>0.2056384</v>
+        <v>0.04963446058252422</v>
       </c>
       <c r="J195">
         <v>7</v>
@@ -8427,7 +8427,7 @@
         <v>367</v>
       </c>
       <c r="C196">
-        <v>-20.4</v>
+        <v>34.72343096234309</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -8468,7 +8468,7 @@
         <v>372</v>
       </c>
       <c r="C197">
-        <v>-15.6</v>
+        <v>39.52343096234309</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -8509,7 +8509,7 @@
         <v>377</v>
       </c>
       <c r="C198">
-        <v>-31.4</v>
+        <v>23.72343096234309</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>382</v>
       </c>
       <c r="C199">
-        <v>-32.6</v>
+        <v>22.5234309623431</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         <v>386.5</v>
       </c>
       <c r="C200">
-        <v>-43.25</v>
+        <v>25.65428870292887</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -8609,7 +8609,7 @@
         <v>35.56</v>
       </c>
       <c r="I200">
-        <v>0.257048</v>
+        <v>0.02851507572815527</v>
       </c>
       <c r="J200">
         <v>5</v>
@@ -8632,7 +8632,7 @@
         <v>390.5</v>
       </c>
       <c r="C201">
-        <v>-43.25</v>
+        <v>25.65428870292887</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -8673,7 +8673,7 @@
         <v>394.5</v>
       </c>
       <c r="C202">
-        <v>-43</v>
+        <v>25.90428870292887</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -8714,7 +8714,7 @@
         <v>398.5</v>
       </c>
       <c r="C203">
-        <v>-43.25</v>
+        <v>25.65428870292887</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -8796,7 +8796,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C205">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D205">
         <v>0.1656226696495153</v>
@@ -8814,7 +8814,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I205">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J205">
         <v>4.653057419835943</v>
@@ -8837,7 +8837,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C206">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D206">
         <v>0.1656226696495153</v>
@@ -8855,7 +8855,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I206">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J206">
         <v>4.653057419835943</v>
@@ -8878,7 +8878,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C207">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D207">
         <v>0.1656226696495153</v>
@@ -8896,7 +8896,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I207">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J207">
         <v>4.653057419835943</v>
@@ -8919,7 +8919,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C208">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D208">
         <v>0.1656226696495153</v>
@@ -8937,7 +8937,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I208">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J208">
         <v>4.653057419835943</v>
@@ -8960,7 +8960,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C209">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D209">
         <v>0.1656226696495153</v>
@@ -8978,7 +8978,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I209">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J209">
         <v>4.653057419835943</v>
@@ -9042,7 +9042,7 @@
         <v>404.5</v>
       </c>
       <c r="C211">
-        <v>-43.25</v>
+        <v>25.65428870292887</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I211">
-        <v>0.145288</v>
+        <v>0.04778553786407764</v>
       </c>
       <c r="J211">
         <v>4.25</v>
@@ -9083,7 +9083,7 @@
         <v>408.5</v>
       </c>
       <c r="C212">
-        <v>-44</v>
+        <v>24.90428870292887</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -9124,7 +9124,7 @@
         <v>412.5</v>
       </c>
       <c r="C213">
-        <v>-43.5</v>
+        <v>25.40428870292887</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -9165,7 +9165,7 @@
         <v>416.5</v>
       </c>
       <c r="C214">
-        <v>-44</v>
+        <v>24.90428870292887</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -9206,7 +9206,7 @@
         <v>420.5</v>
       </c>
       <c r="C215">
-        <v>-43.5</v>
+        <v>25.40428870292887</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -9247,7 +9247,7 @@
         <v>424.5</v>
       </c>
       <c r="C216">
-        <v>-43.75</v>
+        <v>25.15428870292887</v>
       </c>
       <c r="D216">
         <v>0</v>
@@ -9288,7 +9288,7 @@
         <v>428.5</v>
       </c>
       <c r="C217">
-        <v>-43.75</v>
+        <v>25.15428870292887</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -9329,7 +9329,7 @@
         <v>432.5</v>
       </c>
       <c r="C218">
-        <v>-42</v>
+        <v>26.90428870292887</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -9347,7 +9347,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I218">
-        <v>0.245872</v>
+        <v>0.1483695378640776</v>
       </c>
       <c r="J218">
         <v>1.5</v>
@@ -9370,7 +9370,7 @@
         <v>436.5</v>
       </c>
       <c r="C219">
-        <v>-40.5</v>
+        <v>28.40428870292887</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -9388,7 +9388,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I219">
-        <v>0.290576</v>
+        <v>0.02851507572815527</v>
       </c>
       <c r="J219">
         <v>4.5</v>
@@ -9411,7 +9411,7 @@
         <v>440.5</v>
       </c>
       <c r="C220">
-        <v>-39.5</v>
+        <v>29.40428870292887</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -9429,7 +9429,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I220">
-        <v>0.245872</v>
+        <v>0.1148415378640776</v>
       </c>
       <c r="J220">
         <v>4.25</v>
@@ -9452,7 +9452,7 @@
         <v>444.5</v>
       </c>
       <c r="C221">
-        <v>-39.5</v>
+        <v>29.40428870292887</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -9493,7 +9493,7 @@
         <v>448</v>
       </c>
       <c r="C222">
-        <v>-74.66666666666667</v>
+        <v>17.20571827057183</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -9534,7 +9534,7 @@
         <v>451.5</v>
       </c>
       <c r="C223">
-        <v>-43.25</v>
+        <v>25.65428870292887</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -9575,7 +9575,7 @@
         <v>455</v>
       </c>
       <c r="C224">
-        <v>-61.66666666666666</v>
+        <v>30.20571827057183</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -9616,7 +9616,7 @@
         <v>458.5</v>
       </c>
       <c r="C225">
-        <v>-43.25</v>
+        <v>25.65428870292887</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -10085,7 +10085,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I236">
-        <v>0.357632</v>
+        <v>0.1626270757281553</v>
       </c>
       <c r="J236">
         <v>5</v>
@@ -10413,7 +10413,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I244">
-        <v>0.1937173333333333</v>
+        <v>0.06371405048543685</v>
       </c>
       <c r="J244">
         <v>4.666666666666667</v>
@@ -10495,7 +10495,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I246">
-        <v>0.2384213333333333</v>
+        <v>0.1084180504854368</v>
       </c>
       <c r="J246">
         <v>2</v>
@@ -10864,7 +10864,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I255">
-        <v>0.2831253333333333</v>
+        <v>0.1084180504854368</v>
       </c>
       <c r="J255">
         <v>2</v>
@@ -10905,7 +10905,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I256">
-        <v>0.2384213333333333</v>
+        <v>0.1084180504854368</v>
       </c>
       <c r="J256">
         <v>4.666666666666667</v>
@@ -10946,7 +10946,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I257">
-        <v>0.6258560000000001</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="J257">
         <v>4.666666666666667</v>
@@ -10987,7 +10987,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I258">
-        <v>0.3874346666666666</v>
+        <v>0.0827241009708737</v>
       </c>
       <c r="J258">
         <v>7</v>
@@ -11069,7 +11069,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I260">
-        <v>0.4768426666666667</v>
+        <v>0.1274281009708737</v>
       </c>
       <c r="J260">
         <v>2.666666666666667</v>
@@ -11151,7 +11151,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I262">
-        <v>0.1937173333333333</v>
+        <v>0.06371405048543685</v>
       </c>
       <c r="J262">
         <v>4.333333333333333</v>
@@ -11233,7 +11233,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I264">
-        <v>0.1490133333333333</v>
+        <v>0.01901005048543685</v>
       </c>
       <c r="J264">
         <v>6.333333333333333</v>
@@ -11438,7 +11438,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I269">
-        <v>0.3427306666666667</v>
+        <v>0.0380201009708737</v>
       </c>
       <c r="J269">
         <v>3.666666666666667</v>
@@ -11479,7 +11479,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I270">
-        <v>0.3427306666666667</v>
+        <v>0.0380201009708737</v>
       </c>
       <c r="J270">
         <v>4.333333333333333</v>
@@ -11561,7 +11561,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I272">
-        <v>0.1937173333333333</v>
+        <v>0.01901005048543685</v>
       </c>
       <c r="J272">
         <v>4.666666666666667</v>
@@ -11602,7 +11602,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I273">
-        <v>0.1937173333333333</v>
+        <v>0.06371405048543685</v>
       </c>
       <c r="J273">
         <v>3.333333333333333</v>
@@ -11807,7 +11807,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I278">
-        <v>0.2384213333333333</v>
+        <v>0.1084180504854368</v>
       </c>
       <c r="J278">
         <v>3.333333333333333</v>
@@ -11930,7 +11930,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I281">
-        <v>0.2384213333333333</v>
+        <v>0.06371405048543685</v>
       </c>
       <c r="J281">
         <v>3.666666666666667</v>
@@ -11971,7 +11971,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I282">
-        <v>0.1937173333333333</v>
+        <v>0.06371405048543685</v>
       </c>
       <c r="J282">
         <v>4</v>
@@ -12240,7 +12240,7 @@
         <v>648.5</v>
       </c>
       <c r="C289">
-        <v>4.1</v>
+        <v>31.66171548117155</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -12281,7 +12281,7 @@
         <v>655.5</v>
       </c>
       <c r="C290">
-        <v>67.5</v>
+        <v>37.90428870292887</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -12322,7 +12322,7 @@
         <v>660</v>
       </c>
       <c r="C291">
-        <v>54.8</v>
+        <v>35.72343096234309</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -12340,7 +12340,7 @@
         <v>0</v>
       </c>
       <c r="I291">
-        <v>0.1430528</v>
+        <v>0.0650508302912621</v>
       </c>
       <c r="J291">
         <v>3.8</v>
@@ -12381,7 +12381,7 @@
         <v>0</v>
       </c>
       <c r="I292">
-        <v>0.089408</v>
+        <v>0.01140603029126211</v>
       </c>
       <c r="J292">
         <v>2.2</v>
@@ -12422,7 +12422,7 @@
         <v>0</v>
       </c>
       <c r="I293">
-        <v>0.402336</v>
+        <v>0.06104049087378632</v>
       </c>
       <c r="J293">
         <v>2</v>
@@ -12586,7 +12586,7 @@
         <v>0</v>
       </c>
       <c r="I297">
-        <v>0.1162304</v>
+        <v>0.03822843029126211</v>
       </c>
       <c r="J297">
         <v>5.4</v>
@@ -12773,7 +12773,7 @@
         <v>713</v>
       </c>
       <c r="C302">
-        <v>136.2</v>
+        <v>27.84686192468619</v>
       </c>
       <c r="D302">
         <v>0.4</v>
@@ -12832,7 +12832,7 @@
         <v>0</v>
       </c>
       <c r="I303">
-        <v>0.1430528</v>
+        <v>0.0650508302912621</v>
       </c>
       <c r="J303">
         <v>2.2</v>
@@ -12873,7 +12873,7 @@
         <v>0</v>
       </c>
       <c r="I304">
-        <v>0.22352</v>
+        <v>0.1455180302912621</v>
       </c>
       <c r="J304">
         <v>5.4</v>
@@ -12914,7 +12914,7 @@
         <v>0</v>
       </c>
       <c r="I305">
-        <v>0.1966976</v>
+        <v>0.1186956302912621</v>
       </c>
       <c r="J305">
         <v>5</v>
@@ -12955,7 +12955,7 @@
         <v>0</v>
       </c>
       <c r="I306">
-        <v>0.089408</v>
+        <v>0.01140603029126211</v>
       </c>
       <c r="J306">
         <v>5.2</v>
@@ -13224,7 +13224,7 @@
         <v>768</v>
       </c>
       <c r="C313">
-        <v>55.6</v>
+        <v>25.72343096234309</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -13242,7 +13242,7 @@
         <v>0</v>
       </c>
       <c r="I313">
-        <v>0.1162304</v>
+        <v>0.01140603029126211</v>
       </c>
       <c r="J313">
         <v>4</v>
@@ -13265,7 +13265,7 @@
         <v>772</v>
       </c>
       <c r="C314">
-        <v>230.3333333333333</v>
+        <v>26.07810320781032</v>
       </c>
       <c r="D314">
         <v>1</v>
@@ -13306,7 +13306,7 @@
         <v>776</v>
       </c>
       <c r="C315">
-        <v>138.2</v>
+        <v>59.92343096234309</v>
       </c>
       <c r="D315">
         <v>0.4</v>
@@ -13324,7 +13324,7 @@
         <v>0</v>
       </c>
       <c r="I315">
-        <v>0.312928</v>
+        <v>0.07645686058252422</v>
       </c>
       <c r="J315">
         <v>3</v>
@@ -13365,7 +13365,7 @@
         <v>0</v>
       </c>
       <c r="I316">
-        <v>0.290576</v>
+        <v>0.06204307572815528</v>
       </c>
       <c r="J316">
         <v>5.5</v>
@@ -13406,7 +13406,7 @@
         <v>0</v>
       </c>
       <c r="I317">
-        <v>0.1966976</v>
+        <v>0.09187323029126211</v>
       </c>
       <c r="J317">
         <v>5.4</v>
@@ -13447,7 +13447,7 @@
         <v>0</v>
       </c>
       <c r="I318">
-        <v>0.1966976</v>
+        <v>0.09187323029126211</v>
       </c>
       <c r="J318">
         <v>3.8</v>
@@ -13488,7 +13488,7 @@
         <v>0</v>
       </c>
       <c r="I319">
-        <v>0.1698752</v>
+        <v>0.09187323029126211</v>
       </c>
       <c r="J319">
         <v>4.8</v>
@@ -13611,7 +13611,7 @@
         <v>0</v>
       </c>
       <c r="I322">
-        <v>0.1430528</v>
+        <v>0.03822843029126211</v>
       </c>
       <c r="J322">
         <v>4.6</v>
@@ -13757,7 +13757,7 @@
         <v>827</v>
       </c>
       <c r="C326">
-        <v>161.2</v>
+        <v>30.44686192468619</v>
       </c>
       <c r="D326">
         <v>0.6</v>
@@ -13816,7 +13816,7 @@
         <v>0</v>
       </c>
       <c r="I327">
-        <v>0.1966976</v>
+        <v>0.1186956302912621</v>
       </c>
       <c r="J327">
         <v>5.8</v>
@@ -13857,7 +13857,7 @@
         <v>0</v>
       </c>
       <c r="I328">
-        <v>0.1698752</v>
+        <v>0.09187323029126211</v>
       </c>
       <c r="J328">
         <v>2.8</v>
@@ -13898,7 +13898,7 @@
         <v>0</v>
       </c>
       <c r="I329">
-        <v>0.2592832</v>
+        <v>0.07645686058252422</v>
       </c>
       <c r="J329">
         <v>3</v>
@@ -13939,7 +13939,7 @@
         <v>0</v>
       </c>
       <c r="I330">
-        <v>0.1698752</v>
+        <v>0.09187323029126211</v>
       </c>
       <c r="J330">
         <v>5</v>
@@ -13980,7 +13980,7 @@
         <v>0</v>
       </c>
       <c r="I331">
-        <v>0.2861056</v>
+        <v>0.1301016605825242</v>
       </c>
       <c r="J331">
         <v>3.2</v>
@@ -14021,7 +14021,7 @@
         <v>0</v>
       </c>
       <c r="I332">
-        <v>0.1966976</v>
+        <v>0.09187323029126211</v>
       </c>
       <c r="J332">
         <v>5.6</v>
@@ -14062,7 +14062,7 @@
         <v>0</v>
       </c>
       <c r="I333">
-        <v>0.312928</v>
+        <v>0.1818975378640776</v>
       </c>
       <c r="J333">
         <v>5.5</v>
@@ -14208,7 +14208,7 @@
         <v>881</v>
       </c>
       <c r="C337">
-        <v>55.8</v>
+        <v>25.72343096234309</v>
       </c>
       <c r="D337">
         <v>0</v>
@@ -14249,7 +14249,7 @@
         <v>885</v>
       </c>
       <c r="C338">
-        <v>64.66666666666667</v>
+        <v>28.20571827057183</v>
       </c>
       <c r="D338">
         <v>0</v>
@@ -14290,7 +14290,7 @@
         <v>888.5</v>
       </c>
       <c r="C339">
-        <v>80.5</v>
+        <v>32.15428870292887</v>
       </c>
       <c r="D339">
         <v>0.25</v>
@@ -14308,7 +14308,7 @@
         <v>0</v>
       </c>
       <c r="I339">
-        <v>0.245872</v>
+        <v>0.08131353786407763</v>
       </c>
       <c r="J339">
         <v>3.5</v>
@@ -14331,7 +14331,7 @@
         <v>892.5</v>
       </c>
       <c r="C340">
-        <v>86</v>
+        <v>37.65428870292887</v>
       </c>
       <c r="D340">
         <v>0.25</v>
@@ -14349,7 +14349,7 @@
         <v>0</v>
       </c>
       <c r="I340">
-        <v>0.324104</v>
+        <v>0.02851507572815527</v>
       </c>
       <c r="J340">
         <v>4</v>
@@ -14372,7 +14372,7 @@
         <v>896</v>
       </c>
       <c r="C341">
-        <v>83.33333333333333</v>
+        <v>18.87238493723849</v>
       </c>
       <c r="D341">
         <v>0.3333333333333333</v>
@@ -14390,7 +14390,7 @@
         <v>0</v>
       </c>
       <c r="I341">
-        <v>0.2384213333333333</v>
+        <v>0.1084180504854368</v>
       </c>
       <c r="J341">
         <v>2.666666666666667</v>
@@ -14413,7 +14413,7 @@
         <v>898.5</v>
       </c>
       <c r="C342">
-        <v>116</v>
+        <v>19.30857740585774</v>
       </c>
       <c r="D342">
         <v>0.5</v>
@@ -14454,7 +14454,7 @@
         <v>900.5</v>
       </c>
       <c r="C343">
-        <v>115</v>
+        <v>18.30857740585774</v>
       </c>
       <c r="D343">
         <v>0.5</v>
@@ -14495,7 +14495,7 @@
         <v>902.5</v>
       </c>
       <c r="C344">
-        <v>115.5</v>
+        <v>18.80857740585774</v>
       </c>
       <c r="D344">
         <v>0.5</v>
@@ -14536,7 +14536,7 @@
         <v>904.5</v>
       </c>
       <c r="C345">
-        <v>114.5</v>
+        <v>17.80857740585774</v>
       </c>
       <c r="D345">
         <v>0.5</v>
@@ -14577,7 +14577,7 @@
         <v>906.5</v>
       </c>
       <c r="C346">
-        <v>116</v>
+        <v>19.30857740585774</v>
       </c>
       <c r="D346">
         <v>0.5</v>
@@ -14618,7 +14618,7 @@
         <v>908.5</v>
       </c>
       <c r="C347">
-        <v>115</v>
+        <v>18.30857740585774</v>
       </c>
       <c r="D347">
         <v>0.5</v>
@@ -14659,7 +14659,7 @@
         <v>910.5</v>
       </c>
       <c r="C348">
-        <v>115</v>
+        <v>18.30857740585774</v>
       </c>
       <c r="D348">
         <v>0.5</v>
@@ -14677,7 +14677,7 @@
         <v>0</v>
       </c>
       <c r="I348">
-        <v>0.22352</v>
+        <v>0.02851507572815527</v>
       </c>
       <c r="J348">
         <v>5.5</v>
@@ -14700,7 +14700,7 @@
         <v>912.5</v>
       </c>
       <c r="C349">
-        <v>121.5</v>
+        <v>24.80857740585774</v>
       </c>
       <c r="D349">
         <v>0.5</v>
@@ -14741,7 +14741,7 @@
         <v>914.5</v>
       </c>
       <c r="C350">
-        <v>127.5</v>
+        <v>30.80857740585774</v>
       </c>
       <c r="D350">
         <v>0.5</v>
@@ -14759,7 +14759,7 @@
         <v>0</v>
       </c>
       <c r="I350">
-        <v>0.22352</v>
+        <v>0.02851507572815527</v>
       </c>
       <c r="J350">
         <v>2.5</v>
@@ -14782,7 +14782,7 @@
         <v>916.5</v>
       </c>
       <c r="C351">
-        <v>157</v>
+        <v>60.30857740585774</v>
       </c>
       <c r="D351">
         <v>0.5</v>
@@ -14800,7 +14800,7 @@
         <v>0</v>
       </c>
       <c r="I351">
-        <v>0.22352</v>
+        <v>0.02851507572815527</v>
       </c>
       <c r="J351">
         <v>4.5</v>
@@ -14823,7 +14823,7 @@
         <v>918.5</v>
       </c>
       <c r="C352">
-        <v>143.5</v>
+        <v>46.80857740585774</v>
       </c>
       <c r="D352">
         <v>0.5</v>
@@ -14841,7 +14841,7 @@
         <v>0</v>
       </c>
       <c r="I352">
-        <v>0.491744</v>
+        <v>0.1626270757281553</v>
       </c>
       <c r="J352">
         <v>3</v>
@@ -14864,7 +14864,7 @@
         <v>920.5</v>
       </c>
       <c r="C353">
-        <v>121.5</v>
+        <v>24.80857740585774</v>
       </c>
       <c r="D353">
         <v>0.5</v>
@@ -14905,7 +14905,7 @@
         <v>922.5</v>
       </c>
       <c r="C354">
-        <v>116</v>
+        <v>19.30857740585774</v>
       </c>
       <c r="D354">
         <v>0.5</v>
@@ -14946,7 +14946,7 @@
         <v>924.5</v>
       </c>
       <c r="C355">
-        <v>116</v>
+        <v>19.30857740585774</v>
       </c>
       <c r="D355">
         <v>0.5</v>
@@ -14987,7 +14987,7 @@
         <v>926.5</v>
       </c>
       <c r="C356">
-        <v>114.5</v>
+        <v>17.80857740585774</v>
       </c>
       <c r="D356">
         <v>0.5</v>
@@ -15028,7 +15028,7 @@
         <v>928.5</v>
       </c>
       <c r="C357">
-        <v>114.5</v>
+        <v>17.80857740585774</v>
       </c>
       <c r="D357">
         <v>0.5</v>
@@ -15069,7 +15069,7 @@
         <v>930.5</v>
       </c>
       <c r="C358">
-        <v>115.5</v>
+        <v>18.80857740585774</v>
       </c>
       <c r="D358">
         <v>0.5</v>
@@ -15087,7 +15087,7 @@
         <v>0</v>
       </c>
       <c r="I358">
-        <v>0.290576</v>
+        <v>0.02851507572815527</v>
       </c>
       <c r="J358">
         <v>5</v>
@@ -15110,7 +15110,7 @@
         <v>932.5</v>
       </c>
       <c r="C359">
-        <v>115</v>
+        <v>18.30857740585774</v>
       </c>
       <c r="D359">
         <v>0.5</v>
@@ -15128,7 +15128,7 @@
         <v>0</v>
       </c>
       <c r="I359">
-        <v>0.22352</v>
+        <v>0.02851507572815527</v>
       </c>
       <c r="J359">
         <v>5</v>
@@ -15151,7 +15151,7 @@
         <v>934.5</v>
       </c>
       <c r="C360">
-        <v>115.5</v>
+        <v>18.80857740585774</v>
       </c>
       <c r="D360">
         <v>0.5</v>
@@ -15169,7 +15169,7 @@
         <v>0</v>
       </c>
       <c r="I360">
-        <v>0.290576</v>
+        <v>0.02851507572815527</v>
       </c>
       <c r="J360">
         <v>5</v>
@@ -15192,7 +15192,7 @@
         <v>936.5</v>
       </c>
       <c r="C361">
-        <v>120.5</v>
+        <v>23.80857740585774</v>
       </c>
       <c r="D361">
         <v>0.5</v>
@@ -15210,7 +15210,7 @@
         <v>0</v>
       </c>
       <c r="I361">
-        <v>0.22352</v>
+        <v>0.02851507572815527</v>
       </c>
       <c r="J361">
         <v>4.5</v>
@@ -15233,7 +15233,7 @@
         <v>938.5</v>
       </c>
       <c r="C362">
-        <v>126.5</v>
+        <v>29.80857740585774</v>
       </c>
       <c r="D362">
         <v>0.5</v>
@@ -15274,7 +15274,7 @@
         <v>940.5</v>
       </c>
       <c r="C363">
-        <v>156.5</v>
+        <v>59.80857740585774</v>
       </c>
       <c r="D363">
         <v>0.5</v>
@@ -15292,7 +15292,7 @@
         <v>0</v>
       </c>
       <c r="I363">
-        <v>0.424688</v>
+        <v>0.1626270757281553</v>
       </c>
       <c r="J363">
         <v>5</v>
@@ -15315,7 +15315,7 @@
         <v>942.5</v>
       </c>
       <c r="C364">
-        <v>146</v>
+        <v>49.30857740585774</v>
       </c>
       <c r="D364">
         <v>0.5</v>
@@ -15333,7 +15333,7 @@
         <v>0</v>
       </c>
       <c r="I364">
-        <v>0.357632</v>
+        <v>0.09557107572815528</v>
       </c>
       <c r="J364">
         <v>5</v>
@@ -15356,7 +15356,7 @@
         <v>944.5</v>
       </c>
       <c r="C365">
-        <v>124</v>
+        <v>27.30857740585774</v>
       </c>
       <c r="D365">
         <v>0.5</v>
@@ -15397,7 +15397,7 @@
         <v>946.5</v>
       </c>
       <c r="C366">
-        <v>116.5</v>
+        <v>19.80857740585774</v>
       </c>
       <c r="D366">
         <v>0.5</v>
@@ -15438,7 +15438,7 @@
         <v>948.5</v>
       </c>
       <c r="C367">
-        <v>115</v>
+        <v>18.30857740585774</v>
       </c>
       <c r="D367">
         <v>0.5</v>
@@ -15479,7 +15479,7 @@
         <v>950.5</v>
       </c>
       <c r="C368">
-        <v>115.5</v>
+        <v>18.80857740585774</v>
       </c>
       <c r="D368">
         <v>0.5</v>
@@ -15497,7 +15497,7 @@
         <v>0</v>
       </c>
       <c r="I368">
-        <v>0.357632</v>
+        <v>0.02851507572815527</v>
       </c>
       <c r="J368">
         <v>3</v>
@@ -15520,7 +15520,7 @@
         <v>952.5</v>
       </c>
       <c r="C369">
-        <v>115.5</v>
+        <v>18.80857740585774</v>
       </c>
       <c r="D369">
         <v>0.5</v>
@@ -15561,7 +15561,7 @@
         <v>954.5</v>
       </c>
       <c r="C370">
-        <v>115</v>
+        <v>18.30857740585774</v>
       </c>
       <c r="D370">
         <v>0.5</v>
@@ -15602,7 +15602,7 @@
         <v>956.5</v>
       </c>
       <c r="C371">
-        <v>115.5</v>
+        <v>18.80857740585774</v>
       </c>
       <c r="D371">
         <v>0.5</v>
@@ -15643,7 +15643,7 @@
         <v>958.5</v>
       </c>
       <c r="C372">
-        <v>115.5</v>
+        <v>18.80857740585774</v>
       </c>
       <c r="D372">
         <v>0.5</v>
@@ -15684,7 +15684,7 @@
         <v>960.5</v>
       </c>
       <c r="C373">
-        <v>122.5</v>
+        <v>25.80857740585774</v>
       </c>
       <c r="D373">
         <v>0.5</v>
@@ -15702,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="I373">
-        <v>0.22352</v>
+        <v>0.02851507572815527</v>
       </c>
       <c r="J373">
         <v>5</v>
@@ -15725,7 +15725,7 @@
         <v>962.5</v>
       </c>
       <c r="C374">
-        <v>125</v>
+        <v>28.30857740585774</v>
       </c>
       <c r="D374">
         <v>0.5</v>
@@ -15766,7 +15766,7 @@
         <v>964.5</v>
       </c>
       <c r="C375">
-        <v>129</v>
+        <v>32.30857740585774</v>
       </c>
       <c r="D375">
         <v>0.5</v>
@@ -15784,7 +15784,7 @@
         <v>0</v>
       </c>
       <c r="I375">
-        <v>0.290576</v>
+        <v>0.09557107572815528</v>
       </c>
       <c r="J375">
         <v>5.5</v>
@@ -15807,7 +15807,7 @@
         <v>966.5</v>
       </c>
       <c r="C376">
-        <v>126</v>
+        <v>29.30857740585774</v>
       </c>
       <c r="D376">
         <v>0.5</v>
@@ -15848,7 +15848,7 @@
         <v>968.5</v>
       </c>
       <c r="C377">
-        <v>123</v>
+        <v>26.30857740585774</v>
       </c>
       <c r="D377">
         <v>0.5</v>
@@ -15866,7 +15866,7 @@
         <v>0</v>
       </c>
       <c r="I377">
-        <v>0.22352</v>
+        <v>0.02851507572815527</v>
       </c>
       <c r="J377">
         <v>5.5</v>
@@ -15889,7 +15889,7 @@
         <v>970.5</v>
       </c>
       <c r="C378">
-        <v>116</v>
+        <v>19.30857740585774</v>
       </c>
       <c r="D378">
         <v>0.5</v>
@@ -15907,7 +15907,7 @@
         <v>0</v>
       </c>
       <c r="I378">
-        <v>0.290576</v>
+        <v>0.02851507572815527</v>
       </c>
       <c r="J378">
         <v>5</v>
@@ -15930,7 +15930,7 @@
         <v>972.5</v>
       </c>
       <c r="C379">
-        <v>115</v>
+        <v>18.30857740585774</v>
       </c>
       <c r="D379">
         <v>0.5</v>
@@ -15948,7 +15948,7 @@
         <v>0</v>
       </c>
       <c r="I379">
-        <v>0.290576</v>
+        <v>0.02851507572815527</v>
       </c>
       <c r="J379">
         <v>5.5</v>
@@ -15971,7 +15971,7 @@
         <v>974.5</v>
       </c>
       <c r="C380">
-        <v>115.5</v>
+        <v>18.80857740585774</v>
       </c>
       <c r="D380">
         <v>0.5</v>
@@ -15989,7 +15989,7 @@
         <v>0</v>
       </c>
       <c r="I380">
-        <v>0.290576</v>
+        <v>0.02851507572815527</v>
       </c>
       <c r="J380">
         <v>4.5</v>
@@ -16012,7 +16012,7 @@
         <v>976.5</v>
       </c>
       <c r="C381">
-        <v>115.5</v>
+        <v>18.80857740585774</v>
       </c>
       <c r="D381">
         <v>0.5</v>
@@ -16030,7 +16030,7 @@
         <v>0</v>
       </c>
       <c r="I381">
-        <v>0.290576</v>
+        <v>0.02851507572815527</v>
       </c>
       <c r="J381">
         <v>0.5</v>
@@ -16053,7 +16053,7 @@
         <v>978.5</v>
       </c>
       <c r="C382">
-        <v>115</v>
+        <v>18.30857740585774</v>
       </c>
       <c r="D382">
         <v>0.5</v>
@@ -16094,7 +16094,7 @@
         <v>980.5</v>
       </c>
       <c r="C383">
-        <v>115</v>
+        <v>18.30857740585774</v>
       </c>
       <c r="D383">
         <v>0.5</v>
@@ -16135,7 +16135,7 @@
         <v>982.5</v>
       </c>
       <c r="C384">
-        <v>115</v>
+        <v>18.30857740585774</v>
       </c>
       <c r="D384">
         <v>0.5</v>
@@ -16153,7 +16153,7 @@
         <v>0</v>
       </c>
       <c r="I384">
-        <v>0.22352</v>
+        <v>0.02851507572815527</v>
       </c>
       <c r="J384">
         <v>5</v>
@@ -16176,7 +16176,7 @@
         <v>984.5</v>
       </c>
       <c r="C385">
-        <v>120</v>
+        <v>23.30857740585774</v>
       </c>
       <c r="D385">
         <v>0.5</v>
@@ -16217,7 +16217,7 @@
         <v>986.5</v>
       </c>
       <c r="C386">
-        <v>123.5</v>
+        <v>26.80857740585774</v>
       </c>
       <c r="D386">
         <v>0.5</v>
@@ -16258,7 +16258,7 @@
         <v>988.5</v>
       </c>
       <c r="C387">
-        <v>149</v>
+        <v>52.30857740585774</v>
       </c>
       <c r="D387">
         <v>0.5</v>
@@ -16299,7 +16299,7 @@
         <v>990.5</v>
       </c>
       <c r="C388">
-        <v>128</v>
+        <v>31.30857740585774</v>
       </c>
       <c r="D388">
         <v>0.5</v>
@@ -16317,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="I388">
-        <v>0.424688</v>
+        <v>0.1626270757281553</v>
       </c>
       <c r="J388">
         <v>4.5</v>
@@ -16340,7 +16340,7 @@
         <v>992.5</v>
       </c>
       <c r="C389">
-        <v>119.5</v>
+        <v>22.80857740585774</v>
       </c>
       <c r="D389">
         <v>0.5</v>
@@ -16381,7 +16381,7 @@
         <v>994.5</v>
       </c>
       <c r="C390">
-        <v>116</v>
+        <v>19.30857740585774</v>
       </c>
       <c r="D390">
         <v>0.5</v>
@@ -16399,7 +16399,7 @@
         <v>0</v>
       </c>
       <c r="I390">
-        <v>0.290576</v>
+        <v>0.02851507572815527</v>
       </c>
       <c r="J390">
         <v>5</v>
@@ -16422,7 +16422,7 @@
         <v>996</v>
       </c>
       <c r="C391">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D391">
         <v>1</v>
@@ -16463,7 +16463,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C392">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D392">
         <v>0.1656226696495153</v>
@@ -16481,7 +16481,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I392">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J392">
         <v>4.653057419835943</v>
@@ -16504,7 +16504,7 @@
         <v>997</v>
       </c>
       <c r="C393">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D393">
         <v>1</v>
@@ -16545,7 +16545,7 @@
         <v>998</v>
       </c>
       <c r="C394">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D394">
         <v>1</v>
@@ -16586,7 +16586,7 @@
         <v>999</v>
       </c>
       <c r="C395">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D395">
         <v>1</v>
@@ -16627,7 +16627,7 @@
         <v>1000</v>
       </c>
       <c r="C396">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D396">
         <v>1</v>
@@ -16668,7 +16668,7 @@
         <v>1001</v>
       </c>
       <c r="C397">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D397">
         <v>1</v>
@@ -16709,7 +16709,7 @@
         <v>1002</v>
       </c>
       <c r="C398">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D398">
         <v>1</v>
@@ -16750,7 +16750,7 @@
         <v>1003</v>
       </c>
       <c r="C399">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D399">
         <v>1</v>
@@ -16791,7 +16791,7 @@
         <v>1004</v>
       </c>
       <c r="C400">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D400">
         <v>1</v>
@@ -16832,7 +16832,7 @@
         <v>1005</v>
       </c>
       <c r="C401">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D401">
         <v>1</v>
@@ -16850,7 +16850,7 @@
         <v>0</v>
       </c>
       <c r="I401">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="J401">
         <v>5</v>
@@ -16873,7 +16873,7 @@
         <v>1006</v>
       </c>
       <c r="C402">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D402">
         <v>1</v>
@@ -16914,7 +16914,7 @@
         <v>1007</v>
       </c>
       <c r="C403">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D403">
         <v>1</v>
@@ -16955,7 +16955,7 @@
         <v>1008</v>
       </c>
       <c r="C404">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D404">
         <v>1</v>
@@ -16996,7 +16996,7 @@
         <v>1009</v>
       </c>
       <c r="C405">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D405">
         <v>1</v>
@@ -17037,7 +17037,7 @@
         <v>1010</v>
       </c>
       <c r="C406">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D406">
         <v>1</v>
@@ -17078,7 +17078,7 @@
         <v>1011</v>
       </c>
       <c r="C407">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D407">
         <v>1</v>
@@ -17119,7 +17119,7 @@
         <v>1012</v>
       </c>
       <c r="C408">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D408">
         <v>1</v>
@@ -17160,7 +17160,7 @@
         <v>1013</v>
       </c>
       <c r="C409">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D409">
         <v>1</v>
@@ -17201,7 +17201,7 @@
         <v>1014</v>
       </c>
       <c r="C410">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D410">
         <v>1</v>
@@ -17242,7 +17242,7 @@
         <v>1015</v>
       </c>
       <c r="C411">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D411">
         <v>1</v>
@@ -17283,7 +17283,7 @@
         <v>1016</v>
       </c>
       <c r="C412">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D412">
         <v>1</v>
@@ -17324,7 +17324,7 @@
         <v>1017</v>
       </c>
       <c r="C413">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D413">
         <v>1</v>
@@ -17365,7 +17365,7 @@
         <v>1018</v>
       </c>
       <c r="C414">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D414">
         <v>1</v>
@@ -17406,7 +17406,7 @@
         <v>1019</v>
       </c>
       <c r="C415">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D415">
         <v>1</v>
@@ -17447,7 +17447,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C416">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D416">
         <v>0.1656226696495153</v>
@@ -17465,7 +17465,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I416">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J416">
         <v>4.653057419835943</v>
@@ -17488,7 +17488,7 @@
         <v>1020</v>
       </c>
       <c r="C417">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D417">
         <v>1</v>
@@ -17529,7 +17529,7 @@
         <v>1021</v>
       </c>
       <c r="C418">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D418">
         <v>1</v>
@@ -17570,7 +17570,7 @@
         <v>1022</v>
       </c>
       <c r="C419">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D419">
         <v>1</v>
@@ -17611,7 +17611,7 @@
         <v>1023</v>
       </c>
       <c r="C420">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D420">
         <v>1</v>
@@ -17652,7 +17652,7 @@
         <v>1024</v>
       </c>
       <c r="C421">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D421">
         <v>1</v>
@@ -17693,7 +17693,7 @@
         <v>1025</v>
       </c>
       <c r="C422">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D422">
         <v>1</v>
@@ -17734,7 +17734,7 @@
         <v>1026</v>
       </c>
       <c r="C423">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D423">
         <v>1</v>
@@ -17775,7 +17775,7 @@
         <v>1027</v>
       </c>
       <c r="C424">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D424">
         <v>1</v>
@@ -17816,7 +17816,7 @@
         <v>1028</v>
       </c>
       <c r="C425">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D425">
         <v>1</v>
@@ -17857,7 +17857,7 @@
         <v>1029</v>
       </c>
       <c r="C426">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D426">
         <v>1</v>
@@ -17898,7 +17898,7 @@
         <v>1030</v>
       </c>
       <c r="C427">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D427">
         <v>1</v>
@@ -17939,7 +17939,7 @@
         <v>1031</v>
       </c>
       <c r="C428">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D428">
         <v>1</v>
@@ -17980,7 +17980,7 @@
         <v>1032</v>
       </c>
       <c r="C429">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D429">
         <v>1</v>
@@ -18021,7 +18021,7 @@
         <v>1033</v>
       </c>
       <c r="C430">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D430">
         <v>1</v>
@@ -18062,7 +18062,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C431">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D431">
         <v>0.1656226696495153</v>
@@ -18080,7 +18080,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I431">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J431">
         <v>4.653057419835943</v>
@@ -18103,7 +18103,7 @@
         <v>1034</v>
       </c>
       <c r="C432">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D432">
         <v>1</v>
@@ -18144,7 +18144,7 @@
         <v>1035</v>
       </c>
       <c r="C433">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D433">
         <v>1</v>
@@ -18185,7 +18185,7 @@
         <v>1036</v>
       </c>
       <c r="C434">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D434">
         <v>1</v>
@@ -18226,7 +18226,7 @@
         <v>1037</v>
       </c>
       <c r="C435">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D435">
         <v>1</v>
@@ -18267,7 +18267,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C436">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D436">
         <v>0.1656226696495153</v>
@@ -18285,7 +18285,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I436">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J436">
         <v>4.653057419835943</v>
@@ -18308,7 +18308,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C437">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D437">
         <v>0.1656226696495153</v>
@@ -18326,7 +18326,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I437">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J437">
         <v>4.653057419835943</v>
@@ -18349,7 +18349,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C438">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D438">
         <v>0.1656226696495153</v>
@@ -18367,7 +18367,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I438">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J438">
         <v>4.653057419835943</v>
@@ -18390,7 +18390,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C439">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D439">
         <v>0.1656226696495153</v>
@@ -18408,7 +18408,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I439">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J439">
         <v>4.653057419835943</v>
@@ -18431,7 +18431,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C440">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D440">
         <v>0.1656226696495153</v>
@@ -18449,7 +18449,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I440">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J440">
         <v>4.653057419835943</v>
@@ -18472,7 +18472,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C441">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D441">
         <v>0.1656226696495153</v>
@@ -18490,7 +18490,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I441">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J441">
         <v>4.653057419835943</v>
@@ -18513,7 +18513,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C442">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D442">
         <v>0.1656226696495153</v>
@@ -18531,7 +18531,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I442">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J442">
         <v>4.653057419835943</v>
@@ -18554,7 +18554,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C443">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D443">
         <v>0.1656226696495153</v>
@@ -18572,7 +18572,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I443">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J443">
         <v>4.653057419835943</v>
@@ -18595,7 +18595,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C444">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D444">
         <v>0.1656226696495153</v>
@@ -18613,7 +18613,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I444">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J444">
         <v>4.653057419835943</v>
@@ -18636,7 +18636,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C445">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D445">
         <v>0.1656226696495153</v>
@@ -18654,7 +18654,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I445">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J445">
         <v>4.653057419835943</v>
@@ -18677,7 +18677,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C446">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D446">
         <v>0.1656226696495153</v>
@@ -18695,7 +18695,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I446">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J446">
         <v>4.653057419835943</v>
@@ -18718,7 +18718,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C447">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D447">
         <v>0.1656226696495153</v>
@@ -18736,7 +18736,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I447">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J447">
         <v>4.653057419835943</v>
@@ -18759,7 +18759,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C448">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D448">
         <v>0.1656226696495153</v>
@@ -18777,7 +18777,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I448">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J448">
         <v>4.653057419835943</v>
@@ -18800,7 +18800,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C449">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D449">
         <v>0.1656226696495153</v>
@@ -18818,7 +18818,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I449">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J449">
         <v>4.653057419835943</v>
@@ -18841,7 +18841,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C450">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D450">
         <v>0.1656226696495153</v>
@@ -18859,7 +18859,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I450">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J450">
         <v>4.653057419835943</v>
@@ -18882,7 +18882,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C451">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D451">
         <v>0.1656226696495153</v>
@@ -18900,7 +18900,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I451">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J451">
         <v>4.653057419835943</v>
@@ -18923,7 +18923,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C452">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D452">
         <v>0.1656226696495153</v>
@@ -18941,7 +18941,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I452">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J452">
         <v>4.653057419835943</v>
@@ -18964,7 +18964,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C453">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D453">
         <v>0.1656226696495153</v>
@@ -18982,7 +18982,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I453">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J453">
         <v>4.653057419835943</v>
@@ -19005,7 +19005,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C454">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D454">
         <v>0.1656226696495153</v>
@@ -19023,7 +19023,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I454">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J454">
         <v>4.653057419835943</v>
@@ -19046,7 +19046,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C455">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D455">
         <v>0.1656226696495153</v>
@@ -19064,7 +19064,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I455">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J455">
         <v>4.653057419835943</v>
@@ -19087,7 +19087,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C456">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D456">
         <v>0.1656226696495153</v>
@@ -19105,7 +19105,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I456">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J456">
         <v>4.653057419835943</v>
@@ -19128,7 +19128,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C457">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D457">
         <v>0.1656226696495153</v>
@@ -19146,7 +19146,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I457">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J457">
         <v>4.653057419835943</v>
@@ -19169,7 +19169,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C458">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D458">
         <v>0.1656226696495153</v>
@@ -19187,7 +19187,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I458">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J458">
         <v>4.653057419835943</v>
@@ -19210,7 +19210,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C459">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D459">
         <v>0.1656226696495153</v>
@@ -19228,7 +19228,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I459">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J459">
         <v>4.653057419835943</v>
@@ -19251,7 +19251,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C460">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D460">
         <v>0.1656226696495153</v>
@@ -19269,7 +19269,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I460">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J460">
         <v>4.653057419835943</v>
@@ -19292,7 +19292,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C461">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D461">
         <v>0.1656226696495153</v>
@@ -19310,7 +19310,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I461">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J461">
         <v>4.653057419835943</v>
@@ -19333,7 +19333,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C462">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D462">
         <v>0.1656226696495153</v>
@@ -19351,7 +19351,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I462">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J462">
         <v>4.653057419835943</v>
@@ -19374,7 +19374,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C463">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D463">
         <v>0.1656226696495153</v>
@@ -19392,7 +19392,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I463">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J463">
         <v>4.653057419835943</v>
@@ -19415,7 +19415,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C464">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D464">
         <v>0.1656226696495153</v>
@@ -19433,7 +19433,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I464">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J464">
         <v>4.653057419835943</v>
@@ -19456,7 +19456,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C465">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D465">
         <v>0.1656226696495153</v>
@@ -19474,7 +19474,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I465">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J465">
         <v>4.653057419835943</v>
@@ -19497,7 +19497,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C466">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D466">
         <v>0.1656226696495153</v>
@@ -19515,7 +19515,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I466">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J466">
         <v>4.653057419835943</v>
@@ -19538,7 +19538,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C467">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D467">
         <v>0.1656226696495153</v>
@@ -19556,7 +19556,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I467">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J467">
         <v>4.653057419835943</v>
@@ -19579,7 +19579,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C468">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D468">
         <v>0.1656226696495153</v>
@@ -19597,7 +19597,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I468">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J468">
         <v>4.653057419835943</v>
@@ -19620,7 +19620,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C469">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D469">
         <v>0.1656226696495153</v>
@@ -19638,7 +19638,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I469">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J469">
         <v>4.653057419835943</v>
@@ -19661,7 +19661,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C470">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D470">
         <v>0.1656226696495153</v>
@@ -19679,7 +19679,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I470">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J470">
         <v>4.653057419835943</v>
@@ -19702,7 +19702,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C471">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D471">
         <v>0.1656226696495153</v>
@@ -19720,7 +19720,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I471">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J471">
         <v>4.653057419835943</v>
@@ -19743,7 +19743,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C472">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D472">
         <v>0.1656226696495153</v>
@@ -19761,7 +19761,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I472">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J472">
         <v>4.653057419835943</v>
@@ -19784,7 +19784,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C473">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D473">
         <v>0.1656226696495153</v>
@@ -19802,7 +19802,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I473">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J473">
         <v>4.653057419835943</v>
@@ -19825,7 +19825,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C474">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D474">
         <v>0.1656226696495153</v>
@@ -19843,7 +19843,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I474">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J474">
         <v>4.653057419835943</v>
@@ -19866,7 +19866,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C475">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D475">
         <v>0.1656226696495153</v>
@@ -19884,7 +19884,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I475">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J475">
         <v>4.653057419835943</v>
@@ -19907,7 +19907,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C476">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D476">
         <v>0.1656226696495153</v>
@@ -19925,7 +19925,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I476">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J476">
         <v>4.653057419835943</v>
@@ -19948,7 +19948,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C477">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D477">
         <v>0.1656226696495153</v>
@@ -19966,7 +19966,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I477">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J477">
         <v>4.653057419835943</v>
@@ -19989,7 +19989,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C478">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D478">
         <v>0.1656226696495153</v>
@@ -20007,7 +20007,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I478">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J478">
         <v>4.653057419835943</v>
@@ -20030,7 +20030,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C479">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D479">
         <v>0.1656226696495153</v>
@@ -20048,7 +20048,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I479">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J479">
         <v>4.653057419835943</v>
@@ -20071,7 +20071,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C480">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D480">
         <v>0.1656226696495153</v>
@@ -20089,7 +20089,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I480">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J480">
         <v>4.653057419835943</v>
@@ -20112,7 +20112,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C481">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D481">
         <v>0.1656226696495153</v>
@@ -20130,7 +20130,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I481">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J481">
         <v>4.653057419835943</v>
@@ -20153,7 +20153,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C482">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D482">
         <v>0.1656226696495153</v>
@@ -20171,7 +20171,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I482">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J482">
         <v>4.653057419835943</v>
@@ -20194,7 +20194,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C483">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D483">
         <v>0.1656226696495153</v>
@@ -20212,7 +20212,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I483">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J483">
         <v>4.653057419835943</v>
@@ -20235,7 +20235,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C484">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D484">
         <v>0.1656226696495153</v>
@@ -20253,7 +20253,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I484">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J484">
         <v>4.653057419835943</v>
@@ -20276,7 +20276,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C485">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D485">
         <v>0.1656226696495153</v>
@@ -20294,7 +20294,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I485">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J485">
         <v>4.653057419835943</v>
@@ -20317,7 +20317,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C486">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D486">
         <v>0.1656226696495153</v>
@@ -20335,7 +20335,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I486">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J486">
         <v>4.653057419835943</v>
@@ -20358,7 +20358,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C487">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D487">
         <v>0.1656226696495153</v>
@@ -20376,7 +20376,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I487">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J487">
         <v>4.653057419835943</v>
@@ -20399,7 +20399,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C488">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D488">
         <v>0.1656226696495153</v>
@@ -20417,7 +20417,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I488">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J488">
         <v>4.653057419835943</v>
@@ -20440,7 +20440,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C489">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D489">
         <v>0.1656226696495153</v>
@@ -20458,7 +20458,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I489">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J489">
         <v>4.653057419835943</v>
@@ -20481,7 +20481,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C490">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D490">
         <v>0.1656226696495153</v>
@@ -20499,7 +20499,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I490">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J490">
         <v>4.653057419835943</v>
@@ -20522,7 +20522,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C491">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D491">
         <v>0.1656226696495153</v>
@@ -20540,7 +20540,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I491">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J491">
         <v>4.653057419835943</v>
@@ -20563,7 +20563,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C492">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D492">
         <v>0.1656226696495153</v>
@@ -20581,7 +20581,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I492">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J492">
         <v>4.653057419835943</v>
@@ -20604,7 +20604,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C493">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D493">
         <v>0.1656226696495153</v>
@@ -20622,7 +20622,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I493">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J493">
         <v>4.653057419835943</v>
@@ -20645,7 +20645,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C494">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D494">
         <v>0.1656226696495153</v>
@@ -20663,7 +20663,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I494">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J494">
         <v>4.653057419835943</v>
@@ -20686,7 +20686,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C495">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D495">
         <v>0.1656226696495153</v>
@@ -20704,7 +20704,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I495">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J495">
         <v>4.653057419835943</v>
@@ -20727,7 +20727,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C496">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D496">
         <v>0.1656226696495153</v>
@@ -20745,7 +20745,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I496">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J496">
         <v>4.653057419835943</v>
@@ -20768,7 +20768,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C497">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D497">
         <v>0.1656226696495153</v>
@@ -20786,7 +20786,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I497">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J497">
         <v>4.653057419835943</v>
@@ -20809,7 +20809,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C498">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D498">
         <v>0.1656226696495153</v>
@@ -20827,7 +20827,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I498">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J498">
         <v>4.653057419835943</v>
@@ -20850,7 +20850,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C499">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D499">
         <v>0.1656226696495153</v>
@@ -20868,7 +20868,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I499">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J499">
         <v>4.653057419835943</v>
@@ -20891,7 +20891,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C500">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D500">
         <v>0.1656226696495153</v>
@@ -20909,7 +20909,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I500">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J500">
         <v>4.653057419835943</v>
@@ -20932,7 +20932,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C501">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D501">
         <v>0.1656226696495153</v>
@@ -20950,7 +20950,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I501">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J501">
         <v>4.653057419835943</v>
@@ -20973,7 +20973,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C502">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D502">
         <v>0.1656226696495153</v>
@@ -20991,7 +20991,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I502">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J502">
         <v>4.653057419835943</v>
@@ -21014,7 +21014,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C503">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D503">
         <v>0.1656226696495153</v>
@@ -21032,7 +21032,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I503">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J503">
         <v>4.653057419835943</v>
@@ -21055,7 +21055,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C504">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D504">
         <v>0.1656226696495153</v>
@@ -21073,7 +21073,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I504">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J504">
         <v>4.653057419835943</v>
@@ -21096,7 +21096,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C505">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D505">
         <v>0.1656226696495153</v>
@@ -21114,7 +21114,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I505">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J505">
         <v>4.653057419835943</v>
@@ -21137,7 +21137,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C506">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D506">
         <v>0.1656226696495153</v>
@@ -21155,7 +21155,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I506">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J506">
         <v>4.653057419835943</v>
@@ -21178,7 +21178,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C507">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D507">
         <v>0.1656226696495153</v>
@@ -21196,7 +21196,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I507">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J507">
         <v>4.653057419835943</v>
@@ -21219,7 +21219,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C508">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D508">
         <v>0.1656226696495153</v>
@@ -21237,7 +21237,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I508">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J508">
         <v>4.653057419835943</v>
@@ -21260,7 +21260,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C509">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D509">
         <v>0.1656226696495153</v>
@@ -21278,7 +21278,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I509">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J509">
         <v>4.653057419835943</v>
@@ -21301,7 +21301,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C510">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D510">
         <v>0.1656226696495153</v>
@@ -21319,7 +21319,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I510">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J510">
         <v>4.653057419835943</v>
@@ -21342,7 +21342,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C511">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D511">
         <v>0.1656226696495153</v>
@@ -21360,7 +21360,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I511">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J511">
         <v>4.653057419835943</v>
@@ -21383,7 +21383,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C512">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D512">
         <v>0.1656226696495153</v>
@@ -21401,7 +21401,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I512">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J512">
         <v>4.653057419835943</v>
@@ -21424,7 +21424,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C513">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D513">
         <v>0.1656226696495153</v>
@@ -21442,7 +21442,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I513">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J513">
         <v>4.653057419835943</v>
@@ -21465,7 +21465,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C514">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D514">
         <v>0.1656226696495153</v>
@@ -21483,7 +21483,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I514">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J514">
         <v>4.653057419835943</v>
@@ -21506,7 +21506,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C515">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D515">
         <v>0.1656226696495153</v>
@@ -21524,7 +21524,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I515">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J515">
         <v>4.653057419835943</v>
@@ -21547,7 +21547,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C516">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D516">
         <v>0.1656226696495153</v>
@@ -21565,7 +21565,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I516">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J516">
         <v>4.653057419835943</v>
@@ -21588,7 +21588,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C517">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D517">
         <v>0.1656226696495153</v>
@@ -21606,7 +21606,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I517">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J517">
         <v>4.653057419835943</v>
@@ -21629,7 +21629,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C518">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D518">
         <v>0.1656226696495153</v>
@@ -21647,7 +21647,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I518">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J518">
         <v>4.653057419835943</v>
@@ -21670,7 +21670,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C519">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D519">
         <v>0.1656226696495153</v>
@@ -21688,7 +21688,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I519">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J519">
         <v>4.653057419835943</v>
@@ -21711,7 +21711,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C520">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D520">
         <v>0.1656226696495153</v>
@@ -21729,7 +21729,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I520">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J520">
         <v>4.653057419835943</v>
@@ -21752,7 +21752,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C521">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D521">
         <v>0.1656226696495153</v>
@@ -21770,7 +21770,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I521">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J521">
         <v>4.653057419835943</v>
@@ -21793,7 +21793,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C522">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D522">
         <v>0.1656226696495153</v>
@@ -21811,7 +21811,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I522">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J522">
         <v>4.653057419835943</v>
@@ -21834,7 +21834,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C523">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D523">
         <v>0.1656226696495153</v>
@@ -21852,7 +21852,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I523">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J523">
         <v>4.653057419835943</v>
@@ -21875,7 +21875,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C524">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D524">
         <v>0.1656226696495153</v>
@@ -21893,7 +21893,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I524">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J524">
         <v>4.653057419835943</v>
@@ -21916,7 +21916,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C525">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D525">
         <v>0.1656226696495153</v>
@@ -21934,7 +21934,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I525">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J525">
         <v>4.653057419835943</v>
@@ -21957,7 +21957,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C526">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D526">
         <v>0.1656226696495153</v>
@@ -21975,7 +21975,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I526">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J526">
         <v>4.653057419835943</v>
@@ -21998,7 +21998,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C527">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D527">
         <v>0.1656226696495153</v>
@@ -22016,7 +22016,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I527">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J527">
         <v>4.653057419835943</v>
@@ -22039,7 +22039,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C528">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D528">
         <v>0.1656226696495153</v>
@@ -22057,7 +22057,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I528">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J528">
         <v>4.653057419835943</v>
@@ -22080,7 +22080,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C529">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D529">
         <v>0.1656226696495153</v>
@@ -22098,7 +22098,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I529">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J529">
         <v>4.653057419835943</v>
@@ -22121,7 +22121,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C530">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D530">
         <v>0.1656226696495153</v>
@@ -22139,7 +22139,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I530">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J530">
         <v>4.653057419835943</v>
@@ -22162,7 +22162,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C531">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D531">
         <v>0.1656226696495153</v>
@@ -22180,7 +22180,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I531">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J531">
         <v>4.653057419835943</v>
@@ -22203,7 +22203,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C532">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D532">
         <v>0.1656226696495153</v>
@@ -22221,7 +22221,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I532">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J532">
         <v>4.653057419835943</v>
@@ -22244,7 +22244,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C533">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D533">
         <v>0.1656226696495153</v>
@@ -22262,7 +22262,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I533">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J533">
         <v>4.653057419835943</v>
@@ -22285,7 +22285,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C534">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D534">
         <v>0.1656226696495153</v>
@@ -22303,7 +22303,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I534">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J534">
         <v>4.653057419835943</v>
@@ -22326,7 +22326,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C535">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D535">
         <v>0.1656226696495153</v>
@@ -22344,7 +22344,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I535">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J535">
         <v>4.653057419835943</v>
@@ -22367,7 +22367,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C536">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D536">
         <v>0.1656226696495153</v>
@@ -22385,7 +22385,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I536">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J536">
         <v>4.653057419835943</v>
@@ -22408,7 +22408,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C537">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D537">
         <v>0.1656226696495153</v>
@@ -22426,7 +22426,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I537">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J537">
         <v>4.653057419835943</v>
@@ -22449,7 +22449,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C538">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D538">
         <v>0.1656226696495153</v>
@@ -22467,7 +22467,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I538">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J538">
         <v>4.653057419835943</v>
@@ -22490,7 +22490,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C539">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D539">
         <v>0.1656226696495153</v>
@@ -22508,7 +22508,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I539">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J539">
         <v>4.653057419835943</v>
@@ -22531,7 +22531,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C540">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D540">
         <v>0.1656226696495153</v>
@@ -22549,7 +22549,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I540">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J540">
         <v>4.653057419835943</v>
@@ -22572,7 +22572,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C541">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D541">
         <v>0.1656226696495153</v>
@@ -22590,7 +22590,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I541">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J541">
         <v>4.653057419835943</v>
@@ -22613,7 +22613,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C542">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D542">
         <v>0.1656226696495153</v>
@@ -22631,7 +22631,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I542">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J542">
         <v>4.653057419835943</v>
@@ -22654,7 +22654,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C543">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D543">
         <v>0.1656226696495153</v>
@@ -22672,7 +22672,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I543">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J543">
         <v>4.653057419835943</v>
@@ -22695,7 +22695,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C544">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D544">
         <v>0.1656226696495153</v>
@@ -22713,7 +22713,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I544">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J544">
         <v>4.653057419835943</v>
@@ -22736,7 +22736,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C545">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D545">
         <v>0.1656226696495153</v>
@@ -22754,7 +22754,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I545">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J545">
         <v>4.653057419835943</v>
@@ -22777,7 +22777,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C546">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D546">
         <v>0.1656226696495153</v>
@@ -22795,7 +22795,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I546">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J546">
         <v>4.653057419835943</v>
@@ -22818,7 +22818,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C547">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D547">
         <v>0.1656226696495153</v>
@@ -22836,7 +22836,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I547">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J547">
         <v>4.653057419835943</v>
@@ -22859,7 +22859,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C548">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D548">
         <v>0.1656226696495153</v>
@@ -22877,7 +22877,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I548">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J548">
         <v>4.653057419835943</v>
@@ -22900,7 +22900,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C549">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D549">
         <v>0.1656226696495153</v>
@@ -22918,7 +22918,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I549">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J549">
         <v>4.653057419835943</v>
@@ -22941,7 +22941,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C550">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D550">
         <v>0.1656226696495153</v>
@@ -22959,7 +22959,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I550">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J550">
         <v>4.653057419835943</v>
@@ -22982,7 +22982,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C551">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D551">
         <v>0.1656226696495153</v>
@@ -23000,7 +23000,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I551">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J551">
         <v>4.653057419835943</v>
@@ -23023,7 +23023,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C552">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D552">
         <v>0.1656226696495153</v>
@@ -23041,7 +23041,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I552">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J552">
         <v>4.653057419835943</v>
@@ -23064,7 +23064,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C553">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D553">
         <v>0.1656226696495153</v>
@@ -23082,7 +23082,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I553">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J553">
         <v>4.653057419835943</v>
@@ -23105,7 +23105,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C554">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D554">
         <v>0.1656226696495153</v>
@@ -23123,7 +23123,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I554">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J554">
         <v>4.653057419835943</v>
@@ -23146,7 +23146,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C555">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D555">
         <v>0.1656226696495153</v>
@@ -23164,7 +23164,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I555">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J555">
         <v>4.653057419835943</v>
@@ -23187,7 +23187,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C556">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D556">
         <v>0.1656226696495153</v>
@@ -23205,7 +23205,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I556">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J556">
         <v>4.653057419835943</v>
@@ -23228,7 +23228,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C557">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D557">
         <v>0.1656226696495153</v>
@@ -23246,7 +23246,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I557">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J557">
         <v>4.653057419835943</v>
@@ -23269,7 +23269,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C558">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D558">
         <v>0.1656226696495153</v>
@@ -23287,7 +23287,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I558">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J558">
         <v>4.653057419835943</v>
@@ -23310,7 +23310,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C559">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D559">
         <v>0.1656226696495153</v>
@@ -23328,7 +23328,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I559">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J559">
         <v>4.653057419835943</v>
@@ -23351,7 +23351,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C560">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D560">
         <v>0.1656226696495153</v>
@@ -23369,7 +23369,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I560">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J560">
         <v>4.653057419835943</v>
@@ -23392,7 +23392,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C561">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D561">
         <v>0.1656226696495153</v>
@@ -23410,7 +23410,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I561">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J561">
         <v>4.653057419835943</v>
@@ -23433,7 +23433,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C562">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D562">
         <v>0.1656226696495153</v>
@@ -23451,7 +23451,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I562">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J562">
         <v>4.653057419835943</v>
@@ -23474,7 +23474,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C563">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D563">
         <v>0.1656226696495153</v>
@@ -23492,7 +23492,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I563">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J563">
         <v>4.653057419835943</v>
@@ -23515,7 +23515,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C564">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D564">
         <v>0.1656226696495153</v>
@@ -23533,7 +23533,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I564">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J564">
         <v>4.653057419835943</v>
@@ -23556,7 +23556,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C565">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D565">
         <v>0.1656226696495153</v>
@@ -23574,7 +23574,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I565">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J565">
         <v>4.653057419835943</v>
@@ -23597,7 +23597,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C566">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D566">
         <v>0.1656226696495153</v>
@@ -23615,7 +23615,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I566">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J566">
         <v>4.653057419835943</v>
@@ -23638,7 +23638,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C567">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D567">
         <v>0.1656226696495153</v>
@@ -23656,7 +23656,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I567">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J567">
         <v>4.653057419835943</v>
@@ -23679,7 +23679,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C568">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D568">
         <v>0.1656226696495153</v>
@@ -23697,7 +23697,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I568">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J568">
         <v>4.653057419835943</v>
@@ -23720,7 +23720,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C569">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D569">
         <v>0.1656226696495153</v>
@@ -23738,7 +23738,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I569">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J569">
         <v>4.653057419835943</v>
@@ -23761,7 +23761,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C570">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D570">
         <v>0.1656226696495153</v>
@@ -23779,7 +23779,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I570">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J570">
         <v>4.653057419835943</v>
@@ -23802,7 +23802,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C571">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D571">
         <v>0.1656226696495153</v>
@@ -23820,7 +23820,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I571">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J571">
         <v>4.653057419835943</v>
@@ -23843,7 +23843,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C572">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D572">
         <v>0.1656226696495153</v>
@@ -23861,7 +23861,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I572">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J572">
         <v>4.653057419835943</v>
@@ -23884,7 +23884,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C573">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D573">
         <v>0.1656226696495153</v>
@@ -23902,7 +23902,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I573">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J573">
         <v>4.653057419835943</v>
@@ -23925,7 +23925,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C574">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D574">
         <v>0.1656226696495153</v>
@@ -23943,7 +23943,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I574">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J574">
         <v>4.653057419835943</v>
@@ -23966,7 +23966,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C575">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D575">
         <v>0.1656226696495153</v>
@@ -23984,7 +23984,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I575">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J575">
         <v>4.653057419835943</v>
@@ -24007,7 +24007,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C576">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D576">
         <v>0.1656226696495153</v>
@@ -24025,7 +24025,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I576">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J576">
         <v>4.653057419835943</v>
@@ -24048,7 +24048,7 @@
         <v>1038.5</v>
       </c>
       <c r="C577">
-        <v>118.5</v>
+        <v>38.80857740585774</v>
       </c>
       <c r="D577">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C584">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D584">
         <v>0.1656226696495153</v>
@@ -24353,7 +24353,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I584">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J584">
         <v>4.653057419835943</v>
@@ -24376,7 +24376,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C585">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D585">
         <v>0.1656226696495153</v>
@@ -24394,7 +24394,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I585">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J585">
         <v>4.653057419835943</v>
@@ -24581,7 +24581,7 @@
         <v>1054</v>
       </c>
       <c r="C590">
-        <v>195</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D590">
         <v>1</v>
@@ -24663,7 +24663,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C592">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D592">
         <v>0.1656226696495153</v>
@@ -24681,7 +24681,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I592">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J592">
         <v>4.653057419835943</v>
@@ -24704,7 +24704,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C593">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D593">
         <v>0.1656226696495153</v>
@@ -24722,7 +24722,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I593">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J593">
         <v>4.653057419835943</v>
@@ -24745,7 +24745,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C594">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D594">
         <v>0.1656226696495153</v>
@@ -24763,7 +24763,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I594">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J594">
         <v>4.653057419835943</v>
@@ -25073,7 +25073,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C602">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D602">
         <v>0.1656226696495153</v>
@@ -25091,7 +25091,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I602">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J602">
         <v>4.653057419835943</v>
@@ -25319,7 +25319,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C608">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D608">
         <v>0.1656226696495153</v>
@@ -25337,7 +25337,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I608">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J608">
         <v>4.653057419835943</v>
@@ -25565,7 +25565,7 @@
         <v>1083.5</v>
       </c>
       <c r="C614">
-        <v>128.5</v>
+        <v>39.80857740585774</v>
       </c>
       <c r="D614">
         <v>0.5</v>
@@ -25624,7 +25624,7 @@
         <v>0</v>
       </c>
       <c r="I615">
-        <v>0.2384213333333333</v>
+        <v>0.06371405048543685</v>
       </c>
       <c r="J615">
         <v>5.333333333333333</v>
@@ -25647,7 +25647,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C616">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D616">
         <v>0.1656226696495153</v>
@@ -25665,7 +25665,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I616">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J616">
         <v>4.653057419835943</v>
@@ -25729,7 +25729,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C618">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D618">
         <v>0.1656226696495153</v>
@@ -25747,7 +25747,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I618">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J618">
         <v>4.653057419835943</v>
@@ -25770,7 +25770,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C619">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D619">
         <v>0.1656226696495153</v>
@@ -25788,7 +25788,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I619">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J619">
         <v>4.653057419835943</v>
@@ -25829,7 +25829,7 @@
         <v>0</v>
       </c>
       <c r="I620">
-        <v>0.290576</v>
+        <v>0.02851507572815527</v>
       </c>
       <c r="J620">
         <v>6</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="I621">
-        <v>0.8344746666666666</v>
+        <v>0.0380201009708737</v>
       </c>
       <c r="J621">
         <v>5.666666666666667</v>
@@ -26016,7 +26016,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C625">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D625">
         <v>0.1656226696495153</v>
@@ -26034,7 +26034,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I625">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J625">
         <v>4.653057419835943</v>
@@ -26139,7 +26139,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C628">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D628">
         <v>0.1656226696495153</v>
@@ -26157,7 +26157,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I628">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J628">
         <v>4.653057419835943</v>
@@ -26303,7 +26303,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C632">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D632">
         <v>0.1656226696495153</v>
@@ -26321,7 +26321,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I632">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J632">
         <v>4.653057419835943</v>
@@ -26426,7 +26426,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C635">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D635">
         <v>0.1656226696495153</v>
@@ -26444,7 +26444,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I635">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J635">
         <v>4.653057419835943</v>
@@ -26508,7 +26508,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C637">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D637">
         <v>0.1656226696495153</v>
@@ -26526,7 +26526,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I637">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J637">
         <v>4.653057419835943</v>
@@ -26549,7 +26549,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C638">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D638">
         <v>0.1656226696495153</v>
@@ -26567,7 +26567,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I638">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J638">
         <v>4.653057419835943</v>
@@ -26590,7 +26590,7 @@
         <v>1113</v>
       </c>
       <c r="C639">
-        <v>183</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D639">
         <v>0</v>
@@ -26608,7 +26608,7 @@
         <v>2.54</v>
       </c>
       <c r="I639">
-        <v>0.715264</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="J639">
         <v>4</v>
@@ -26672,7 +26672,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C641">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D641">
         <v>0.1656226696495153</v>
@@ -26690,7 +26690,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I641">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J641">
         <v>4.653057419835943</v>
@@ -26795,7 +26795,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C644">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D644">
         <v>0.1656226696495153</v>
@@ -26813,7 +26813,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I644">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J644">
         <v>4.653057419835943</v>
@@ -27000,7 +27000,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C649">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D649">
         <v>0.1656226696495153</v>
@@ -27018,7 +27018,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I649">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J649">
         <v>4.653057419835943</v>
@@ -27082,7 +27082,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C651">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D651">
         <v>0.1656226696495153</v>
@@ -27100,7 +27100,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I651">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J651">
         <v>4.653057419835943</v>
@@ -27123,7 +27123,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C652">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D652">
         <v>0.1656226696495153</v>
@@ -27141,7 +27141,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I652">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J652">
         <v>4.653057419835943</v>
@@ -27246,7 +27246,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C655">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D655">
         <v>0.1656226696495153</v>
@@ -27264,7 +27264,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I655">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J655">
         <v>4.653057419835943</v>
@@ -27328,7 +27328,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C657">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D657">
         <v>0.1656226696495153</v>
@@ -27346,7 +27346,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I657">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J657">
         <v>4.653057419835943</v>
@@ -27369,7 +27369,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C658">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D658">
         <v>0.1656226696495153</v>
@@ -27387,7 +27387,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I658">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J658">
         <v>4.653057419835943</v>
@@ -27492,7 +27492,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C661">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D661">
         <v>0.1656226696495153</v>
@@ -27510,7 +27510,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I661">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J661">
         <v>4.653057419835943</v>
@@ -27533,7 +27533,7 @@
         <v>1127</v>
       </c>
       <c r="C662">
-        <v>124</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D662">
         <v>0</v>
@@ -27574,7 +27574,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C663">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D663">
         <v>0.1656226696495153</v>
@@ -27592,7 +27592,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I663">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J663">
         <v>4.653057419835943</v>
@@ -27615,7 +27615,7 @@
         <v>1128</v>
       </c>
       <c r="C664">
-        <v>122</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D664">
         <v>0</v>
@@ -27697,7 +27697,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C666">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D666">
         <v>0.1656226696495153</v>
@@ -27715,7 +27715,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I666">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J666">
         <v>4.653057419835943</v>
@@ -27820,7 +27820,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C669">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D669">
         <v>0.1656226696495153</v>
@@ -27838,7 +27838,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I669">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J669">
         <v>4.653057419835943</v>
@@ -27943,7 +27943,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C672">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D672">
         <v>0.1656226696495153</v>
@@ -27961,7 +27961,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I672">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J672">
         <v>4.653057419835943</v>
@@ -28148,7 +28148,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C677">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D677">
         <v>0.1656226696495153</v>
@@ -28166,7 +28166,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I677">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J677">
         <v>4.653057419835943</v>
@@ -28230,7 +28230,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C679">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D679">
         <v>0.1656226696495153</v>
@@ -28248,7 +28248,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I679">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J679">
         <v>4.653057419835943</v>
@@ -28271,7 +28271,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C680">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D680">
         <v>0.1656226696495153</v>
@@ -28289,7 +28289,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I680">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J680">
         <v>4.653057419835943</v>
@@ -28394,7 +28394,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C683">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D683">
         <v>0.1656226696495153</v>
@@ -28412,7 +28412,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I683">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J683">
         <v>4.653057419835943</v>
@@ -28517,7 +28517,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C686">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D686">
         <v>0.1656226696495153</v>
@@ -28535,7 +28535,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I686">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J686">
         <v>4.653057419835943</v>
@@ -28558,7 +28558,7 @@
         <v>1143</v>
       </c>
       <c r="C687">
-        <v>154</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D687">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C691">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D691">
         <v>0.1656226696495153</v>
@@ -28740,7 +28740,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I691">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J691">
         <v>4.653057419835943</v>
@@ -28845,7 +28845,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C694">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D694">
         <v>0.1656226696495153</v>
@@ -28863,7 +28863,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I694">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J694">
         <v>4.653057419835943</v>
@@ -28927,7 +28927,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C696">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D696">
         <v>0.1656226696495153</v>
@@ -28945,7 +28945,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I696">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J696">
         <v>4.653057419835943</v>
@@ -28968,7 +28968,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C697">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D697">
         <v>0.1656226696495153</v>
@@ -28986,7 +28986,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I697">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J697">
         <v>4.653057419835943</v>
@@ -29009,7 +29009,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C698">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D698">
         <v>0.1656226696495153</v>
@@ -29027,7 +29027,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I698">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J698">
         <v>4.653057419835943</v>
@@ -29091,7 +29091,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C700">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D700">
         <v>0.1656226696495153</v>
@@ -29109,7 +29109,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I700">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J700">
         <v>4.653057419835943</v>
@@ -29214,7 +29214,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C703">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D703">
         <v>0.1656226696495153</v>
@@ -29232,7 +29232,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I703">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J703">
         <v>4.653057419835943</v>
@@ -29296,7 +29296,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C705">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D705">
         <v>0.1656226696495153</v>
@@ -29314,7 +29314,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I705">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J705">
         <v>4.653057419835943</v>
@@ -29337,7 +29337,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C706">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D706">
         <v>0.1656226696495153</v>
@@ -29355,7 +29355,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I706">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J706">
         <v>4.653057419835943</v>
@@ -29419,7 +29419,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C708">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D708">
         <v>0.1656226696495153</v>
@@ -29437,7 +29437,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I708">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J708">
         <v>4.653057419835943</v>
@@ -29460,7 +29460,7 @@
         <v>1155</v>
       </c>
       <c r="C709">
-        <v>131</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D709">
         <v>0</v>
@@ -29501,7 +29501,7 @@
         <v>1156</v>
       </c>
       <c r="C710">
-        <v>189</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D710">
         <v>0</v>
@@ -29542,7 +29542,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C711">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D711">
         <v>0.1656226696495153</v>
@@ -29560,7 +29560,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I711">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J711">
         <v>4.653057419835943</v>
@@ -29583,7 +29583,7 @@
         <v>1157</v>
       </c>
       <c r="C712">
-        <v>120</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="D712">
         <v>0</v>
@@ -29624,7 +29624,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C713">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D713">
         <v>0.1656226696495153</v>
@@ -29642,7 +29642,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I713">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J713">
         <v>4.653057419835943</v>
@@ -29665,7 +29665,7 @@
         <v>675.3590604026846</v>
       </c>
       <c r="C714">
-        <v>50.00062142679593</v>
+        <v>25.22895336646928</v>
       </c>
       <c r="D714">
         <v>0.1656226696495153</v>
@@ -29683,7 +29683,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I714">
-        <v>0.09401674571215531</v>
+        <v>0.05069735504036257</v>
       </c>
       <c r="J714">
         <v>4.653057419835943</v>

--- a/resampled NCHS.xlsx
+++ b/resampled NCHS.xlsx
@@ -479,7 +479,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>643.7</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F2">
         <v>26.7</v>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>560.5</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F3">
         <v>28.84111776447103</v>
@@ -561,7 +561,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E4">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F4">
         <v>28.90603758428948</v>
@@ -573,7 +573,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I4">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J4">
         <v>4.653057419835943</v>
@@ -602,7 +602,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E5">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F5">
         <v>28.90603758428948</v>
@@ -614,7 +614,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I5">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J5">
         <v>4.653057419835943</v>
@@ -643,7 +643,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E6">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F6">
         <v>28.90603758428948</v>
@@ -655,7 +655,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I6">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J6">
         <v>4.653057419835943</v>
@@ -684,7 +684,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E7">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F7">
         <v>28.90603758428948</v>
@@ -696,7 +696,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I7">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J7">
         <v>4.653057419835943</v>
@@ -725,7 +725,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E8">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F8">
         <v>28.90603758428948</v>
@@ -737,7 +737,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I8">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J8">
         <v>4.653057419835943</v>
@@ -766,7 +766,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E9">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F9">
         <v>28.90603758428948</v>
@@ -778,7 +778,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I9">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J9">
         <v>4.653057419835943</v>
@@ -807,7 +807,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E10">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F10">
         <v>28.90603758428948</v>
@@ -819,7 +819,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I10">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J10">
         <v>4.653057419835943</v>
@@ -848,7 +848,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E11">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F11">
         <v>28.90603758428948</v>
@@ -860,7 +860,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I11">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J11">
         <v>4.653057419835943</v>
@@ -889,7 +889,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E12">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F12">
         <v>28.90603758428948</v>
@@ -901,7 +901,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I12">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J12">
         <v>4.653057419835943</v>
@@ -930,7 +930,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E13">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F13">
         <v>28.90603758428948</v>
@@ -942,7 +942,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I13">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J13">
         <v>4.653057419835943</v>
@@ -971,7 +971,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E14">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F14">
         <v>28.90603758428948</v>
@@ -983,7 +983,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I14">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J14">
         <v>4.653057419835943</v>
@@ -1012,7 +1012,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E15">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F15">
         <v>28.90603758428948</v>
@@ -1024,7 +1024,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I15">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J15">
         <v>4.653057419835943</v>
@@ -1053,7 +1053,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E16">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F16">
         <v>28.90603758428948</v>
@@ -1065,7 +1065,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I16">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J16">
         <v>4.653057419835943</v>
@@ -1094,7 +1094,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E17">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F17">
         <v>28.90603758428948</v>
@@ -1106,7 +1106,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I17">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J17">
         <v>4.653057419835943</v>
@@ -1135,7 +1135,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E18">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F18">
         <v>28.90603758428948</v>
@@ -1147,7 +1147,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I18">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J18">
         <v>4.653057419835943</v>
@@ -1176,7 +1176,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E19">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F19">
         <v>28.90603758428948</v>
@@ -1188,7 +1188,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I19">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J19">
         <v>4.653057419835943</v>
@@ -1217,7 +1217,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E20">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F20">
         <v>28.90603758428948</v>
@@ -1229,7 +1229,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I20">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J20">
         <v>4.653057419835943</v>
@@ -1258,7 +1258,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E21">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F21">
         <v>28.90603758428948</v>
@@ -1270,7 +1270,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I21">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J21">
         <v>4.653057419835943</v>
@@ -1299,7 +1299,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E22">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F22">
         <v>28.90603758428948</v>
@@ -1311,7 +1311,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I22">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J22">
         <v>4.653057419835943</v>
@@ -1340,7 +1340,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E23">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F23">
         <v>28.90603758428948</v>
@@ -1352,7 +1352,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I23">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J23">
         <v>4.653057419835943</v>
@@ -1381,7 +1381,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E24">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F24">
         <v>28.90603758428948</v>
@@ -1393,7 +1393,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I24">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J24">
         <v>4.653057419835943</v>
@@ -1422,7 +1422,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E25">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F25">
         <v>28.90603758428948</v>
@@ -1434,7 +1434,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I25">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J25">
         <v>4.653057419835943</v>
@@ -1463,7 +1463,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E26">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F26">
         <v>28.90603758428948</v>
@@ -1475,7 +1475,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I26">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J26">
         <v>4.653057419835943</v>
@@ -1504,7 +1504,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E27">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F27">
         <v>28.90603758428948</v>
@@ -1516,7 +1516,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I27">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J27">
         <v>4.653057419835943</v>
@@ -1545,7 +1545,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E28">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F28">
         <v>28.90603758428948</v>
@@ -1557,7 +1557,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I28">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J28">
         <v>4.653057419835943</v>
@@ -1586,7 +1586,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E29">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F29">
         <v>28.90603758428948</v>
@@ -1598,7 +1598,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I29">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J29">
         <v>4.653057419835943</v>
@@ -1627,7 +1627,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E30">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F30">
         <v>28.90603758428948</v>
@@ -1639,7 +1639,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I30">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J30">
         <v>4.653057419835943</v>
@@ -1668,7 +1668,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E31">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F31">
         <v>28.90603758428948</v>
@@ -1680,7 +1680,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I31">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J31">
         <v>4.653057419835943</v>
@@ -1709,7 +1709,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E32">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F32">
         <v>28.90603758428948</v>
@@ -1721,7 +1721,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I32">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J32">
         <v>4.653057419835943</v>
@@ -1750,7 +1750,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E33">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F33">
         <v>28.90603758428948</v>
@@ -1762,7 +1762,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I33">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J33">
         <v>4.653057419835943</v>
@@ -1791,7 +1791,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E34">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F34">
         <v>28.90603758428948</v>
@@ -1803,7 +1803,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I34">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J34">
         <v>4.653057419835943</v>
@@ -1832,7 +1832,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E35">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F35">
         <v>28.90603758428948</v>
@@ -1844,7 +1844,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I35">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J35">
         <v>4.653057419835943</v>
@@ -1873,7 +1873,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E36">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F36">
         <v>28.90603758428948</v>
@@ -1885,7 +1885,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I36">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J36">
         <v>4.653057419835943</v>
@@ -1914,7 +1914,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E37">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F37">
         <v>28.90603758428948</v>
@@ -1926,7 +1926,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I37">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J37">
         <v>4.653057419835943</v>
@@ -1955,7 +1955,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E38">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F38">
         <v>28.90603758428948</v>
@@ -1967,7 +1967,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I38">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J38">
         <v>4.653057419835943</v>
@@ -1996,7 +1996,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E39">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F39">
         <v>28.90603758428948</v>
@@ -2008,7 +2008,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I39">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J39">
         <v>4.653057419835943</v>
@@ -2037,7 +2037,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E40">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F40">
         <v>28.90603758428948</v>
@@ -2049,7 +2049,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I40">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J40">
         <v>4.653057419835943</v>
@@ -2078,7 +2078,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E41">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F41">
         <v>28.90603758428948</v>
@@ -2090,7 +2090,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I41">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J41">
         <v>4.653057419835943</v>
@@ -2119,7 +2119,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E42">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F42">
         <v>28.90603758428948</v>
@@ -2131,7 +2131,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I42">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J42">
         <v>4.653057419835943</v>
@@ -2160,7 +2160,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E43">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F43">
         <v>28.90603758428948</v>
@@ -2172,7 +2172,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I43">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J43">
         <v>4.653057419835943</v>
@@ -2201,7 +2201,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E44">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F44">
         <v>28.90603758428948</v>
@@ -2213,7 +2213,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I44">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J44">
         <v>4.653057419835943</v>
@@ -2242,7 +2242,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E45">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F45">
         <v>28.90603758428948</v>
@@ -2254,7 +2254,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I45">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J45">
         <v>4.653057419835943</v>
@@ -2283,7 +2283,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E46">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F46">
         <v>28.90603758428948</v>
@@ -2295,7 +2295,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I46">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J46">
         <v>4.653057419835943</v>
@@ -2324,7 +2324,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E47">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F47">
         <v>28.90603758428948</v>
@@ -2336,7 +2336,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I47">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J47">
         <v>4.653057419835943</v>
@@ -2365,7 +2365,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E48">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F48">
         <v>28.90603758428948</v>
@@ -2377,7 +2377,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I48">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J48">
         <v>4.653057419835943</v>
@@ -2406,7 +2406,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E49">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F49">
         <v>28.90603758428948</v>
@@ -2418,7 +2418,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I49">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J49">
         <v>4.653057419835943</v>
@@ -2447,7 +2447,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E50">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F50">
         <v>28.90603758428948</v>
@@ -2459,7 +2459,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I50">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J50">
         <v>4.653057419835943</v>
@@ -2488,7 +2488,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E51">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F51">
         <v>28.90603758428948</v>
@@ -2500,7 +2500,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I51">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J51">
         <v>4.653057419835943</v>
@@ -2529,7 +2529,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E52">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F52">
         <v>28.90603758428948</v>
@@ -2541,7 +2541,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I52">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J52">
         <v>4.653057419835943</v>
@@ -2570,7 +2570,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E53">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F53">
         <v>28.90603758428948</v>
@@ -2582,7 +2582,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I53">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J53">
         <v>4.653057419835943</v>
@@ -2611,7 +2611,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E54">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F54">
         <v>28.90603758428948</v>
@@ -2623,7 +2623,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I54">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J54">
         <v>4.653057419835943</v>
@@ -2652,7 +2652,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E55">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F55">
         <v>28.90603758428948</v>
@@ -2664,7 +2664,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I55">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J55">
         <v>4.653057419835943</v>
@@ -2693,7 +2693,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E56">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F56">
         <v>28.90603758428948</v>
@@ -2705,7 +2705,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I56">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J56">
         <v>4.653057419835943</v>
@@ -2734,7 +2734,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E57">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F57">
         <v>28.90603758428948</v>
@@ -2746,7 +2746,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I57">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J57">
         <v>4.653057419835943</v>
@@ -2775,7 +2775,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E58">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F58">
         <v>28.90603758428948</v>
@@ -2787,7 +2787,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I58">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J58">
         <v>4.653057419835943</v>
@@ -2816,7 +2816,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E59">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F59">
         <v>28.90603758428948</v>
@@ -2828,7 +2828,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I59">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J59">
         <v>4.653057419835943</v>
@@ -2857,7 +2857,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E60">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F60">
         <v>28.90603758428948</v>
@@ -2869,7 +2869,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I60">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J60">
         <v>4.653057419835943</v>
@@ -2898,7 +2898,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E61">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F61">
         <v>28.90603758428948</v>
@@ -2910,7 +2910,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I61">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J61">
         <v>4.653057419835943</v>
@@ -2939,7 +2939,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E62">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F62">
         <v>28.90603758428948</v>
@@ -2951,7 +2951,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I62">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J62">
         <v>4.653057419835943</v>
@@ -2980,7 +2980,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E63">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F63">
         <v>28.90603758428948</v>
@@ -2992,7 +2992,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I63">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J63">
         <v>4.653057419835943</v>
@@ -3021,7 +3021,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E64">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F64">
         <v>28.90603758428948</v>
@@ -3033,7 +3033,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I64">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J64">
         <v>4.653057419835943</v>
@@ -3062,7 +3062,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E65">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F65">
         <v>28.90603758428948</v>
@@ -3074,7 +3074,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I65">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J65">
         <v>4.653057419835943</v>
@@ -3103,7 +3103,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E66">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F66">
         <v>28.90603758428948</v>
@@ -3115,7 +3115,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I66">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J66">
         <v>4.653057419835943</v>
@@ -3144,7 +3144,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E67">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F67">
         <v>28.90603758428948</v>
@@ -3156,7 +3156,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I67">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J67">
         <v>4.653057419835943</v>
@@ -3185,7 +3185,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E68">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F68">
         <v>28.90603758428948</v>
@@ -3197,7 +3197,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I68">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J68">
         <v>4.653057419835943</v>
@@ -3226,7 +3226,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E69">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F69">
         <v>28.90603758428948</v>
@@ -3238,7 +3238,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I69">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J69">
         <v>4.653057419835943</v>
@@ -3267,7 +3267,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E70">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F70">
         <v>28.90603758428948</v>
@@ -3279,7 +3279,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I70">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J70">
         <v>4.653057419835943</v>
@@ -3308,7 +3308,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E71">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F71">
         <v>28.90603758428948</v>
@@ -3320,7 +3320,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I71">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J71">
         <v>4.653057419835943</v>
@@ -3349,7 +3349,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E72">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F72">
         <v>28.90603758428948</v>
@@ -3361,7 +3361,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I72">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J72">
         <v>4.653057419835943</v>
@@ -3390,7 +3390,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E73">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F73">
         <v>28.90603758428948</v>
@@ -3402,7 +3402,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I73">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J73">
         <v>4.653057419835943</v>
@@ -3431,7 +3431,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E74">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F74">
         <v>28.90603758428948</v>
@@ -3443,7 +3443,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I74">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J74">
         <v>4.653057419835943</v>
@@ -3472,7 +3472,7 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>625.5</v>
+        <v>278.2081053698074</v>
       </c>
       <c r="F75">
         <v>33.23037258815701</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>0.02851507572815527</v>
+        <v>0.290576</v>
       </c>
       <c r="J75">
         <v>6.666666666666667</v>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>431.4</v>
+        <v>308.0720702465382</v>
       </c>
       <c r="F76">
         <v>31.85160789532046</v>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>0.09128875080906142</v>
+        <v>0.4172373333333333</v>
       </c>
       <c r="J76">
         <v>3.333333333333333</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>458.075</v>
+        <v>283.0798632218844</v>
       </c>
       <c r="F77">
         <v>31.78527944111776</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>0.1148415378640776</v>
+        <v>0.2794</v>
       </c>
       <c r="J77">
         <v>4.75</v>
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>447.425</v>
+        <v>287.3548632218844</v>
       </c>
       <c r="F78">
         <v>30.8</v>
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>0.1290990757281553</v>
+        <v>0.357632</v>
       </c>
       <c r="J78">
         <v>2.5</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>430.575</v>
+        <v>279.5298632218844</v>
       </c>
       <c r="F79">
         <v>29.375</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>0.1148415378640776</v>
+        <v>0.2794</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -3677,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>443.525</v>
+        <v>284.8298632218844</v>
       </c>
       <c r="F80">
         <v>29.1</v>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>0.02851507572815527</v>
+        <v>0.22352</v>
       </c>
       <c r="J80">
         <v>2.75</v>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>479.9</v>
+        <v>319.0458358662613</v>
       </c>
       <c r="F81">
         <v>28.62</v>
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>474.58</v>
+        <v>293.0658358662613</v>
       </c>
       <c r="F82">
         <v>28.28</v>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>0.0650508302912621</v>
+        <v>0.1430528</v>
       </c>
       <c r="J82">
         <v>4.2</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>436.725</v>
+        <v>287.8298632218844</v>
       </c>
       <c r="F83">
         <v>28.2</v>
@@ -3841,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>461.54</v>
+        <v>285.3858358662613</v>
       </c>
       <c r="F84">
         <v>28.22</v>
@@ -3853,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>0.03822843029126211</v>
+        <v>0.1162304</v>
       </c>
       <c r="J84">
         <v>2.2</v>
@@ -3882,7 +3882,7 @@
         <v>0.2</v>
       </c>
       <c r="E85">
-        <v>466.22</v>
+        <v>298.6658358662613</v>
       </c>
       <c r="F85">
         <v>31.54</v>
@@ -3923,7 +3923,7 @@
         <v>0.4</v>
       </c>
       <c r="E86">
-        <v>455.68</v>
+        <v>285.2058358662613</v>
       </c>
       <c r="F86">
         <v>31.97644710578841</v>
@@ -3935,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>0.03822843029126211</v>
+        <v>0.1430528</v>
       </c>
       <c r="J86">
         <v>4.6</v>
@@ -3964,7 +3964,7 @@
         <v>0.2</v>
       </c>
       <c r="E87">
-        <v>438.16</v>
+        <v>280.9658358662613</v>
       </c>
       <c r="F87">
         <v>28.84111776447103</v>
@@ -4005,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>449.775</v>
+        <v>277.7298632218844</v>
       </c>
       <c r="F88">
         <v>32.81027944111776</v>
@@ -4017,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <v>0.02851507572815527</v>
+        <v>0.22352</v>
       </c>
       <c r="J88">
         <v>5</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>453.7400000000001</v>
+        <v>286.6258358662613</v>
       </c>
       <c r="F89">
         <v>30.98822355289421</v>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>0.09187323029126211</v>
+        <v>0.1698752</v>
       </c>
       <c r="J89">
         <v>5.4</v>
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>469.08</v>
+        <v>292.5258358662613</v>
       </c>
       <c r="F90">
         <v>28.3</v>
@@ -4128,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>471.08</v>
+        <v>288.9658358662613</v>
       </c>
       <c r="F91">
         <v>28.44</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="I91">
-        <v>0.03822843029126211</v>
+        <v>0.1430528</v>
       </c>
       <c r="J91">
         <v>3.8</v>
@@ -4169,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>469</v>
+        <v>277.9877811550151</v>
       </c>
       <c r="F92">
         <v>28.54</v>
@@ -4210,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>528.725</v>
+        <v>319.1072948328266</v>
       </c>
       <c r="F93">
         <v>28.3</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <v>465.7</v>
+        <v>297.7058358662613</v>
       </c>
       <c r="F94">
         <v>28.12</v>
@@ -4292,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <v>582.8</v>
+        <v>317.9822948328266</v>
       </c>
       <c r="F95">
         <v>27.25</v>
@@ -4333,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>514.6800000000001</v>
+        <v>293.827781155015</v>
       </c>
       <c r="F96">
         <v>27.44</v>
@@ -4374,7 +4374,7 @@
         <v>0.8</v>
       </c>
       <c r="E97">
-        <v>492.4400000000001</v>
+        <v>281.9877811550151</v>
       </c>
       <c r="F97">
         <v>30.3682235528942</v>
@@ -4415,7 +4415,7 @@
         <v>0.2</v>
       </c>
       <c r="E98">
-        <v>453</v>
+        <v>284.2258358662613</v>
       </c>
       <c r="F98">
         <v>30.78467065868261</v>
@@ -4456,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>440.4</v>
+        <v>282.9658358662613</v>
       </c>
       <c r="F99">
         <v>32.33644710578841</v>
@@ -4497,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="E100">
-        <v>445.95</v>
+        <v>290.3548632218844</v>
       </c>
       <c r="F100">
         <v>29.525</v>
@@ -4538,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="E101">
-        <v>464.86</v>
+        <v>295.2258358662613</v>
       </c>
       <c r="F101">
         <v>28.92</v>
@@ -4550,7 +4550,7 @@
         <v>0.508</v>
       </c>
       <c r="I101">
-        <v>0.03822843029126211</v>
+        <v>0.1162304</v>
       </c>
       <c r="J101">
         <v>4.6</v>
@@ -4579,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <v>495</v>
+        <v>300.5458358662613</v>
       </c>
       <c r="F102">
         <v>28.8</v>
@@ -4620,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>457</v>
+        <v>301.6298632218844</v>
       </c>
       <c r="F103">
         <v>27.825</v>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>480.9</v>
+        <v>293.4858358662613</v>
       </c>
       <c r="F104">
         <v>26.86</v>
@@ -4673,7 +4673,7 @@
         <v>2.032</v>
       </c>
       <c r="I104">
-        <v>0.03822843029126211</v>
+        <v>0.1430528</v>
       </c>
       <c r="J104">
         <v>3.6</v>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <v>490.96</v>
+        <v>283.747781155015</v>
       </c>
       <c r="F105">
         <v>27.06</v>
@@ -4743,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <v>481.64</v>
+        <v>303.5658358662613</v>
       </c>
       <c r="F106">
         <v>27.12</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="E107">
-        <v>566.675</v>
+        <v>321.1822948328266</v>
       </c>
       <c r="F107">
         <v>25.725</v>
@@ -4825,7 +4825,7 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>464.725</v>
+        <v>323.7048632218844</v>
       </c>
       <c r="F108">
         <v>25.225</v>
@@ -4837,7 +4837,7 @@
         <v>1.905</v>
       </c>
       <c r="I108">
-        <v>0.01425753786407763</v>
+        <v>0.11176</v>
       </c>
       <c r="J108">
         <v>3</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>533.5333333333333</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F109">
         <v>25.86666666666666</v>
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>513.3000000000001</v>
+        <v>313.6064842958459</v>
       </c>
       <c r="F110">
         <v>26.76666666666667</v>
@@ -4948,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>562.6999999999999</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F111">
         <v>28.3</v>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>552.0333333333334</v>
+        <v>325.4398176291792</v>
       </c>
       <c r="F112">
         <v>31.36666666666666</v>
@@ -5030,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="E113">
-        <v>633.75</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F113">
         <v>29.55</v>
@@ -5071,7 +5071,7 @@
         <v>0</v>
       </c>
       <c r="E114">
-        <v>613.75</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F114">
         <v>27.9</v>
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>625.2</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F115">
         <v>27.25</v>
@@ -5153,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="E116">
-        <v>628.3</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F116">
         <v>26.8</v>
@@ -5194,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="E117">
-        <v>649.8</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F117">
         <v>26.3</v>
@@ -5235,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="E118">
-        <v>614.95</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F118">
         <v>26.5</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="E119">
-        <v>595.65</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F119">
         <v>26.65</v>
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="E120">
-        <v>639.4000000000001</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F120">
         <v>26.5</v>
@@ -5358,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="E121">
-        <v>589.65</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F121">
         <v>26.2</v>
@@ -5399,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="E122">
-        <v>577.3</v>
+        <v>349.4048632218844</v>
       </c>
       <c r="F122">
         <v>30.15</v>
@@ -5411,7 +5411,7 @@
         <v>19.05</v>
       </c>
       <c r="I122">
-        <v>0.02851507572815527</v>
+        <v>0.22352</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="E123">
-        <v>608.4</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F123">
         <v>33.85</v>
@@ -5481,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="E124">
-        <v>373.1</v>
+        <v>147.4048632218844</v>
       </c>
       <c r="F124">
         <v>31.82055888223551</v>
@@ -5493,7 +5493,7 @@
         <v>19.05</v>
       </c>
       <c r="I124">
-        <v>0.05703015145631054</v>
+        <v>0.44704</v>
       </c>
       <c r="J124">
         <v>3</v>
@@ -5522,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="E125">
-        <v>737.9</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F125">
         <v>31.7</v>
@@ -5563,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="E126">
-        <v>765.7</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F126">
         <v>29.2</v>
@@ -5604,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="E127">
-        <v>501.95</v>
+        <v>270.0548632218844</v>
       </c>
       <c r="F127">
         <v>28.65</v>
@@ -5645,7 +5645,7 @@
         <v>0</v>
       </c>
       <c r="E128">
-        <v>802.1</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F128">
         <v>27.9</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="E129">
-        <v>764.8</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F129">
         <v>27.2</v>
@@ -5727,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="E130">
-        <v>752.2</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F130">
         <v>27</v>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>770.4</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F131">
         <v>27.3</v>
@@ -5809,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="E132">
-        <v>530.3</v>
+        <v>282.1548632218844</v>
       </c>
       <c r="F132">
         <v>27.5</v>
@@ -5850,7 +5850,7 @@
         <v>0</v>
       </c>
       <c r="E133">
-        <v>706.4</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F133">
         <v>32.4</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="E134">
-        <v>763</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F134">
         <v>32.1</v>
@@ -5932,7 +5932,7 @@
         <v>0</v>
       </c>
       <c r="E135">
-        <v>736.5</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F135">
         <v>33.1</v>
@@ -5973,7 +5973,7 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <v>784.9</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F136">
         <v>29.9</v>
@@ -6014,7 +6014,7 @@
         <v>0</v>
       </c>
       <c r="E137">
-        <v>515.95</v>
+        <v>276.0048632218844</v>
       </c>
       <c r="F137">
         <v>31.05</v>
@@ -6055,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="E138">
-        <v>782.8</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F138">
         <v>26.8</v>
@@ -6096,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="E139">
-        <v>824.6</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F139">
         <v>27.5</v>
@@ -6137,7 +6137,7 @@
         <v>0</v>
       </c>
       <c r="E140">
-        <v>814.8</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F140">
         <v>27.2</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="E141">
-        <v>832.4</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F141">
         <v>27</v>
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="E142">
-        <v>768.8</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F142">
         <v>26.6</v>
@@ -6260,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="E143">
-        <v>502.55</v>
+        <v>277.9548632218844</v>
       </c>
       <c r="F143">
         <v>27.3</v>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="E144">
-        <v>753.9</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F144">
         <v>27</v>
@@ -6342,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="E145">
-        <v>808.9</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F145">
         <v>32.6</v>
@@ -6383,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="E146">
-        <v>737.5</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F146">
         <v>35.7</v>
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="E147">
-        <v>770.7</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F147">
         <v>35.6</v>
@@ -6465,7 +6465,7 @@
         <v>0</v>
       </c>
       <c r="E148">
-        <v>798.9</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F148">
         <v>33.3</v>
@@ -6506,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="E149">
-        <v>523.05</v>
+        <v>273.5548632218844</v>
       </c>
       <c r="F149">
         <v>30.45</v>
@@ -6518,7 +6518,7 @@
         <v>19.05</v>
       </c>
       <c r="I149">
-        <v>0.1626270757281553</v>
+        <v>0.357632</v>
       </c>
       <c r="J149">
         <v>6</v>
@@ -6547,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="E150">
-        <v>834.3</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F150">
         <v>29.4</v>
@@ -6588,7 +6588,7 @@
         <v>0</v>
       </c>
       <c r="E151">
-        <v>774.7</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F151">
         <v>28.7</v>
@@ -6629,7 +6629,7 @@
         <v>0</v>
       </c>
       <c r="E152">
-        <v>788</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F152">
         <v>28.5</v>
@@ -6670,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="E153">
-        <v>739</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F153">
         <v>28.1</v>
@@ -6711,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="E154">
-        <v>779.4</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F154">
         <v>27.7</v>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="E155">
-        <v>786.1</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F155">
         <v>27.9</v>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="E156">
-        <v>805.9</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F156">
         <v>27.5</v>
@@ -6834,7 +6834,7 @@
         <v>0</v>
       </c>
       <c r="E157">
-        <v>781.3</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F157">
         <v>35.8</v>
@@ -6875,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="E158">
-        <v>782.6</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F158">
         <v>28.84111776447103</v>
@@ -6916,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="E159">
-        <v>779.1</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F159">
         <v>28.84111776447103</v>
@@ -6957,7 +6957,7 @@
         <v>0</v>
       </c>
       <c r="E160">
-        <v>769.1</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F160">
         <v>35.1</v>
@@ -6998,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="E161">
-        <v>762.5</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F161">
         <v>33.8</v>
@@ -7039,7 +7039,7 @@
         <v>0</v>
       </c>
       <c r="E162">
-        <v>780.9</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F162">
         <v>30.3</v>
@@ -7080,7 +7080,7 @@
         <v>0</v>
       </c>
       <c r="E163">
-        <v>512.05</v>
+        <v>270.1548632218844</v>
       </c>
       <c r="F163">
         <v>29.8</v>
@@ -7121,7 +7121,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E164">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F164">
         <v>28.90603758428948</v>
@@ -7133,7 +7133,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I164">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J164">
         <v>4.653057419835943</v>
@@ -7162,7 +7162,7 @@
         <v>0</v>
       </c>
       <c r="E165">
-        <v>760.8</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F165">
         <v>29.3</v>
@@ -7203,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="E166">
-        <v>708.7</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F166">
         <v>29</v>
@@ -7244,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="E167">
-        <v>749</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F167">
         <v>28.3</v>
@@ -7285,7 +7285,7 @@
         <v>0</v>
       </c>
       <c r="E168">
-        <v>803.7</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F168">
         <v>28.3</v>
@@ -7326,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="E169">
-        <v>776</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F169">
         <v>28.84111776447103</v>
@@ -7367,7 +7367,7 @@
         <v>0</v>
       </c>
       <c r="E170">
-        <v>795.8</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F170">
         <v>28.84111776447103</v>
@@ -7408,7 +7408,7 @@
         <v>0</v>
       </c>
       <c r="E171">
-        <v>755.3</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F171">
         <v>28.84111776447103</v>
@@ -7449,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="E172">
-        <v>407.54</v>
+        <v>297.3858358662613</v>
       </c>
       <c r="F172">
         <v>31.60467065868262</v>
@@ -7461,7 +7461,7 @@
         <v>1.524</v>
       </c>
       <c r="I172">
-        <v>0.02281206058252421</v>
+        <v>0.268224</v>
       </c>
       <c r="J172">
         <v>4.6</v>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="E173">
-        <v>438.76</v>
+        <v>280.9658358662613</v>
       </c>
       <c r="F173">
         <v>33.2</v>
@@ -7502,7 +7502,7 @@
         <v>1.524</v>
       </c>
       <c r="I173">
-        <v>0.04963446058252422</v>
+        <v>0.2950464</v>
       </c>
       <c r="J173">
         <v>3.8</v>
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="E174">
-        <v>447.38</v>
+        <v>275.4458358662613</v>
       </c>
       <c r="F174">
         <v>30.32</v>
@@ -7543,7 +7543,7 @@
         <v>1.524</v>
       </c>
       <c r="I174">
-        <v>0.06104049087378632</v>
+        <v>0.2950464</v>
       </c>
       <c r="J174">
         <v>3.6</v>
@@ -7572,7 +7572,7 @@
         <v>0</v>
       </c>
       <c r="E175">
-        <v>474.52</v>
+        <v>288.3458358662613</v>
       </c>
       <c r="F175">
         <v>27.94</v>
@@ -7584,7 +7584,7 @@
         <v>1.524</v>
       </c>
       <c r="I175">
-        <v>0.03822843029126211</v>
+        <v>0.1698752</v>
       </c>
       <c r="J175">
         <v>2.4</v>
@@ -7613,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="E176">
-        <v>498.4799999999999</v>
+        <v>302.1258358662613</v>
       </c>
       <c r="F176">
         <v>25.74</v>
@@ -7654,7 +7654,7 @@
         <v>0</v>
       </c>
       <c r="E177">
-        <v>518.2</v>
+        <v>287.347781155015</v>
       </c>
       <c r="F177">
         <v>26.36</v>
@@ -7695,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="E178">
-        <v>468.375</v>
+        <v>318.9548632218844</v>
       </c>
       <c r="F178">
         <v>26.675</v>
@@ -7736,7 +7736,7 @@
         <v>0</v>
       </c>
       <c r="E179">
-        <v>513.6799999999999</v>
+        <v>312.4258358662613</v>
       </c>
       <c r="F179">
         <v>26.7</v>
@@ -7777,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="E180">
-        <v>534.46</v>
+        <v>318.3858358662613</v>
       </c>
       <c r="F180">
         <v>26.5</v>
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="E181">
-        <v>499.7</v>
+        <v>284.707781155015</v>
       </c>
       <c r="F181">
         <v>25.8</v>
@@ -7859,7 +7859,7 @@
         <v>0</v>
       </c>
       <c r="E182">
-        <v>511.82</v>
+        <v>291.827781155015</v>
       </c>
       <c r="F182">
         <v>25.56</v>
@@ -7871,7 +7871,7 @@
         <v>10.16</v>
       </c>
       <c r="I182">
-        <v>0.09187323029126211</v>
+        <v>0.1966976</v>
       </c>
       <c r="J182">
         <v>6</v>
@@ -7900,7 +7900,7 @@
         <v>0</v>
       </c>
       <c r="E183">
-        <v>601.8333333333334</v>
+        <v>327.0398176291792</v>
       </c>
       <c r="F183">
         <v>25.16666666666667</v>
@@ -7912,7 +7912,7 @@
         <v>12.7</v>
       </c>
       <c r="I183">
-        <v>0.01901005048543685</v>
+        <v>0.1490133333333333</v>
       </c>
       <c r="J183">
         <v>4</v>
@@ -7941,7 +7941,7 @@
         <v>0</v>
       </c>
       <c r="E184">
-        <v>528.25</v>
+        <v>309.4072948328266</v>
       </c>
       <c r="F184">
         <v>26.55</v>
@@ -7982,7 +7982,7 @@
         <v>0</v>
       </c>
       <c r="E185">
-        <v>451.35</v>
+        <v>262.5072948328266</v>
       </c>
       <c r="F185">
         <v>30.525</v>
@@ -8023,7 +8023,7 @@
         <v>0</v>
       </c>
       <c r="E186">
-        <v>524.325</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F186">
         <v>27.725</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="E187">
-        <v>525.925</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F187">
         <v>26.375</v>
@@ -8105,7 +8105,7 @@
         <v>0</v>
       </c>
       <c r="E188">
-        <v>464.25</v>
+        <v>296.1048632218844</v>
       </c>
       <c r="F188">
         <v>26.575</v>
@@ -8146,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="E189">
-        <v>465.675</v>
+        <v>294.8548632218844</v>
       </c>
       <c r="F189">
         <v>26.85</v>
@@ -8187,7 +8187,7 @@
         <v>0</v>
       </c>
       <c r="E190">
-        <v>457.3</v>
+        <v>292.2858358662613</v>
       </c>
       <c r="F190">
         <v>26.7</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="E191">
-        <v>454.54</v>
+        <v>289.9858358662613</v>
       </c>
       <c r="F191">
         <v>26.58</v>
@@ -8269,7 +8269,7 @@
         <v>0</v>
       </c>
       <c r="E192">
-        <v>486.58</v>
+        <v>303.6058358662613</v>
       </c>
       <c r="F192">
         <v>26.26</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="E193">
-        <v>469.66</v>
+        <v>273.187781155015</v>
       </c>
       <c r="F193">
         <v>27.86</v>
@@ -8322,7 +8322,7 @@
         <v>18.796</v>
       </c>
       <c r="I193">
-        <v>0.0650508302912621</v>
+        <v>0.1698752</v>
       </c>
       <c r="J193">
         <v>4.2</v>
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="E194">
-        <v>451.54</v>
+        <v>283.3058358662612</v>
       </c>
       <c r="F194">
         <v>30.17644710578841</v>
@@ -8392,7 +8392,7 @@
         <v>0</v>
       </c>
       <c r="E195">
-        <v>455.22</v>
+        <v>289.2258358662613</v>
       </c>
       <c r="F195">
         <v>31.2</v>
@@ -8404,7 +8404,7 @@
         <v>18.796</v>
       </c>
       <c r="I195">
-        <v>0.04963446058252422</v>
+        <v>0.2056384</v>
       </c>
       <c r="J195">
         <v>7</v>
@@ -8433,7 +8433,7 @@
         <v>0</v>
       </c>
       <c r="E196">
-        <v>451.4</v>
+        <v>294.2458358662612</v>
       </c>
       <c r="F196">
         <v>28.38</v>
@@ -8474,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="E197">
-        <v>446.34</v>
+        <v>286.9058358662613</v>
       </c>
       <c r="F197">
         <v>29.17644710578841</v>
@@ -8515,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="E198">
-        <v>379.92</v>
+        <v>263.5038905775075</v>
       </c>
       <c r="F198">
         <v>26.2</v>
@@ -8556,7 +8556,7 @@
         <v>0</v>
       </c>
       <c r="E199">
-        <v>357.68</v>
+        <v>241.3838905775075</v>
       </c>
       <c r="F199">
         <v>26.0682235528942</v>
@@ -8597,7 +8597,7 @@
         <v>0</v>
       </c>
       <c r="E200">
-        <v>449.05</v>
+        <v>308.4798632218844</v>
       </c>
       <c r="F200">
         <v>25.225</v>
@@ -8609,7 +8609,7 @@
         <v>35.56</v>
       </c>
       <c r="I200">
-        <v>0.02851507572815527</v>
+        <v>0.257048</v>
       </c>
       <c r="J200">
         <v>5</v>
@@ -8638,7 +8638,7 @@
         <v>0</v>
       </c>
       <c r="E201">
-        <v>445.9</v>
+        <v>290.5048632218844</v>
       </c>
       <c r="F201">
         <v>25.25</v>
@@ -8679,7 +8679,7 @@
         <v>0</v>
       </c>
       <c r="E202">
-        <v>479.9</v>
+        <v>317.8298632218844</v>
       </c>
       <c r="F202">
         <v>25.225</v>
@@ -8720,7 +8720,7 @@
         <v>0</v>
       </c>
       <c r="E203">
-        <v>475.075</v>
+        <v>289.3572948328266</v>
       </c>
       <c r="F203">
         <v>25.025</v>
@@ -8802,7 +8802,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E205">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F205">
         <v>28.90603758428948</v>
@@ -8814,7 +8814,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I205">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J205">
         <v>4.653057419835943</v>
@@ -8843,7 +8843,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E206">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F206">
         <v>28.90603758428948</v>
@@ -8855,7 +8855,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I206">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J206">
         <v>4.653057419835943</v>
@@ -8884,7 +8884,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E207">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F207">
         <v>28.90603758428948</v>
@@ -8896,7 +8896,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I207">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J207">
         <v>4.653057419835943</v>
@@ -8925,7 +8925,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E208">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F208">
         <v>28.90603758428948</v>
@@ -8937,7 +8937,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I208">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J208">
         <v>4.653057419835943</v>
@@ -8966,7 +8966,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E209">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F209">
         <v>28.90603758428948</v>
@@ -8978,7 +8978,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I209">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J209">
         <v>4.653057419835943</v>
@@ -9007,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="E210">
-        <v>753.6</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F210">
         <v>24.1</v>
@@ -9048,7 +9048,7 @@
         <v>0</v>
       </c>
       <c r="E211">
-        <v>469.65</v>
+        <v>314.1048632218844</v>
       </c>
       <c r="F211">
         <v>24.5</v>
@@ -9060,7 +9060,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I211">
-        <v>0.04778553786407764</v>
+        <v>0.145288</v>
       </c>
       <c r="J211">
         <v>4.25</v>
@@ -9089,7 +9089,7 @@
         <v>0</v>
       </c>
       <c r="E212">
-        <v>457.325</v>
+        <v>312.5548632218844</v>
       </c>
       <c r="F212">
         <v>24.65</v>
@@ -9130,7 +9130,7 @@
         <v>0</v>
       </c>
       <c r="E213">
-        <v>463.6</v>
+        <v>303.7798632218844</v>
       </c>
       <c r="F213">
         <v>24.9</v>
@@ -9171,7 +9171,7 @@
         <v>0</v>
       </c>
       <c r="E214">
-        <v>477.15</v>
+        <v>322.7048632218844</v>
       </c>
       <c r="F214">
         <v>24.95</v>
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="E215">
-        <v>471.775</v>
+        <v>287.6572948328266</v>
       </c>
       <c r="F215">
         <v>25.225</v>
@@ -9253,7 +9253,7 @@
         <v>0</v>
       </c>
       <c r="E216">
-        <v>476.975</v>
+        <v>313.1048632218844</v>
       </c>
       <c r="F216">
         <v>25.45</v>
@@ -9294,7 +9294,7 @@
         <v>0</v>
       </c>
       <c r="E217">
-        <v>453.375</v>
+        <v>316.8048632218844</v>
       </c>
       <c r="F217">
         <v>23.525</v>
@@ -9335,7 +9335,7 @@
         <v>0</v>
       </c>
       <c r="E218">
-        <v>448.125</v>
+        <v>327.0798632218844</v>
       </c>
       <c r="F218">
         <v>23.425</v>
@@ -9347,7 +9347,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I218">
-        <v>0.1483695378640776</v>
+        <v>0.245872</v>
       </c>
       <c r="J218">
         <v>1.5</v>
@@ -9376,7 +9376,7 @@
         <v>0</v>
       </c>
       <c r="E219">
-        <v>473.575</v>
+        <v>314.5298632218844</v>
       </c>
       <c r="F219">
         <v>24.725</v>
@@ -9388,7 +9388,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I219">
-        <v>0.02851507572815527</v>
+        <v>0.290576</v>
       </c>
       <c r="J219">
         <v>4.5</v>
@@ -9417,7 +9417,7 @@
         <v>0</v>
       </c>
       <c r="E220">
-        <v>454.4</v>
+        <v>304.1548632218844</v>
       </c>
       <c r="F220">
         <v>24.825</v>
@@ -9429,7 +9429,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I220">
-        <v>0.1148415378640776</v>
+        <v>0.245872</v>
       </c>
       <c r="J220">
         <v>4.25</v>
@@ -9458,7 +9458,7 @@
         <v>0</v>
       </c>
       <c r="E221">
-        <v>469.675</v>
+        <v>304.5548632218844</v>
       </c>
       <c r="F221">
         <v>25.4</v>
@@ -9499,7 +9499,7 @@
         <v>0</v>
       </c>
       <c r="E222">
-        <v>480.7</v>
+        <v>274.0398176291792</v>
       </c>
       <c r="F222">
         <v>25.43333333333333</v>
@@ -9540,7 +9540,7 @@
         <v>0</v>
       </c>
       <c r="E223">
-        <v>474.675</v>
+        <v>279.2322948328266</v>
       </c>
       <c r="F223">
         <v>25.025</v>
@@ -9581,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="E224">
-        <v>404.7666666666667</v>
+        <v>352.1032421479229</v>
       </c>
       <c r="F224">
         <v>25.3</v>
@@ -9622,7 +9622,7 @@
         <v>0</v>
       </c>
       <c r="E225">
-        <v>393.325</v>
+        <v>239.5798632218844</v>
       </c>
       <c r="F225">
         <v>26.08527944111776</v>
@@ -9663,7 +9663,7 @@
         <v>0</v>
       </c>
       <c r="E226">
-        <v>519.2666666666667</v>
+        <v>322.8731509625125</v>
       </c>
       <c r="F226">
         <v>25.73333333333333</v>
@@ -9704,7 +9704,7 @@
         <v>0</v>
       </c>
       <c r="E227">
-        <v>524.6</v>
+        <v>321.7398176291792</v>
       </c>
       <c r="F227">
         <v>24.93333333333333</v>
@@ -9745,7 +9745,7 @@
         <v>0</v>
       </c>
       <c r="E228">
-        <v>562.8000000000001</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F228">
         <v>24.73333333333333</v>
@@ -9786,7 +9786,7 @@
         <v>0</v>
       </c>
       <c r="E229">
-        <v>577.5</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F229">
         <v>25.16666666666667</v>
@@ -9827,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="E230">
-        <v>663.7</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F230">
         <v>27.3</v>
@@ -9868,7 +9868,7 @@
         <v>0</v>
       </c>
       <c r="E231">
-        <v>534.3333333333334</v>
+        <v>333.0398176291792</v>
       </c>
       <c r="F231">
         <v>29.93333333333333</v>
@@ -9909,7 +9909,7 @@
         <v>0</v>
       </c>
       <c r="E232">
-        <v>573.1999999999999</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F232">
         <v>29.8</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="E233">
-        <v>530.9333333333333</v>
+        <v>319.1731509625125</v>
       </c>
       <c r="F233">
         <v>28.96666666666667</v>
@@ -9991,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="E234">
-        <v>577.4333333333334</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F234">
         <v>27.7</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="E235">
-        <v>550.4333333333333</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F235">
         <v>26.93333333333333</v>
@@ -10073,7 +10073,7 @@
         <v>0</v>
       </c>
       <c r="E236">
-        <v>597.2</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F236">
         <v>26.45</v>
@@ -10085,7 +10085,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I236">
-        <v>0.1626270757281553</v>
+        <v>0.357632</v>
       </c>
       <c r="J236">
         <v>5</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="E237">
-        <v>528.4</v>
+        <v>313.6064842958459</v>
       </c>
       <c r="F237">
         <v>25.66666666666667</v>
@@ -10155,7 +10155,7 @@
         <v>0</v>
       </c>
       <c r="E238">
-        <v>631.65</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F238">
         <v>25.75</v>
@@ -10196,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="E239">
-        <v>572.4666666666667</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F239">
         <v>25.76666666666667</v>
@@ -10237,7 +10237,7 @@
         <v>0</v>
       </c>
       <c r="E240">
-        <v>554.6</v>
+        <v>333.2731509625125</v>
       </c>
       <c r="F240">
         <v>25.4</v>
@@ -10278,7 +10278,7 @@
         <v>0</v>
       </c>
       <c r="E241">
-        <v>597.1333333333333</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F241">
         <v>28.16666666666667</v>
@@ -10319,7 +10319,7 @@
         <v>0</v>
       </c>
       <c r="E242">
-        <v>539</v>
+        <v>319.0064842958458</v>
       </c>
       <c r="F242">
         <v>30.31370592149034</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="E243">
-        <v>564.4666666666667</v>
+        <v>326.5398176291792</v>
       </c>
       <c r="F243">
         <v>30.62741184298069</v>
@@ -10401,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="E244">
-        <v>534.2666666666667</v>
+        <v>312.9731509625125</v>
       </c>
       <c r="F244">
         <v>28.84111776447103</v>
@@ -10413,7 +10413,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I244">
-        <v>0.06371405048543685</v>
+        <v>0.1937173333333333</v>
       </c>
       <c r="J244">
         <v>4.666666666666667</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="E245">
-        <v>560.6666666666666</v>
+        <v>321.3064842958458</v>
       </c>
       <c r="F245">
         <v>33.23333333333333</v>
@@ -10483,7 +10483,7 @@
         <v>0</v>
       </c>
       <c r="E246">
-        <v>561.0666666666666</v>
+        <v>333.1731509625125</v>
       </c>
       <c r="F246">
         <v>31.23333333333333</v>
@@ -10495,7 +10495,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I246">
-        <v>0.1084180504854368</v>
+        <v>0.2384213333333333</v>
       </c>
       <c r="J246">
         <v>2</v>
@@ -10524,7 +10524,7 @@
         <v>0</v>
       </c>
       <c r="E247">
-        <v>555.6666666666666</v>
+        <v>326.7398176291792</v>
       </c>
       <c r="F247">
         <v>29.13333333333334</v>
@@ -10565,7 +10565,7 @@
         <v>0</v>
       </c>
       <c r="E248">
-        <v>645.75</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F248">
         <v>28.65</v>
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="E249">
-        <v>531.5</v>
+        <v>318.4398176291792</v>
       </c>
       <c r="F249">
         <v>28.2</v>
@@ -10647,7 +10647,7 @@
         <v>0</v>
       </c>
       <c r="E250">
-        <v>506.8333333333333</v>
+        <v>308.2398176291792</v>
       </c>
       <c r="F250">
         <v>28.03333333333333</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="E251">
-        <v>544.4333333333333</v>
+        <v>330.5064842958458</v>
       </c>
       <c r="F251">
         <v>28.06666666666667</v>
@@ -10729,7 +10729,7 @@
         <v>0</v>
       </c>
       <c r="E252">
-        <v>519.8333333333334</v>
+        <v>319.5398176291792</v>
       </c>
       <c r="F252">
         <v>27.76666666666667</v>
@@ -10770,7 +10770,7 @@
         <v>0</v>
       </c>
       <c r="E253">
-        <v>546.2333333333333</v>
+        <v>334.1731509625125</v>
       </c>
       <c r="F253">
         <v>29.36666666666666</v>
@@ -10811,7 +10811,7 @@
         <v>0</v>
       </c>
       <c r="E254">
-        <v>542.0333333333333</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F254">
         <v>31.86666666666666</v>
@@ -10852,7 +10852,7 @@
         <v>0</v>
       </c>
       <c r="E255">
-        <v>547.9</v>
+        <v>333.5731509625126</v>
       </c>
       <c r="F255">
         <v>32.68037258815701</v>
@@ -10864,7 +10864,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I255">
-        <v>0.1084180504854368</v>
+        <v>0.2831253333333333</v>
       </c>
       <c r="J255">
         <v>2</v>
@@ -10893,7 +10893,7 @@
         <v>0</v>
       </c>
       <c r="E256">
-        <v>572.8000000000001</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F256">
         <v>30.76074517631402</v>
@@ -10905,7 +10905,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I256">
-        <v>0.1084180504854368</v>
+        <v>0.2384213333333333</v>
       </c>
       <c r="J256">
         <v>4.666666666666667</v>
@@ -10934,7 +10934,7 @@
         <v>0</v>
       </c>
       <c r="E257">
-        <v>549.6666666666666</v>
+        <v>328.9731509625125</v>
       </c>
       <c r="F257">
         <v>32.53333333333333</v>
@@ -10946,7 +10946,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I257">
-        <v>0.05703015145631054</v>
+        <v>0.6258560000000001</v>
       </c>
       <c r="J257">
         <v>4.666666666666667</v>
@@ -10975,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="E258">
-        <v>545.8333333333334</v>
+        <v>315.8731509625125</v>
       </c>
       <c r="F258">
         <v>30.7</v>
@@ -10987,7 +10987,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I258">
-        <v>0.0827241009708737</v>
+        <v>0.3874346666666666</v>
       </c>
       <c r="J258">
         <v>7</v>
@@ -11016,7 +11016,7 @@
         <v>0</v>
       </c>
       <c r="E259">
-        <v>550.9</v>
+        <v>334.0398176291792</v>
       </c>
       <c r="F259">
         <v>29.43333333333333</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="E260">
-        <v>532.6999999999999</v>
+        <v>312.9398176291792</v>
       </c>
       <c r="F260">
         <v>28.86666666666666</v>
@@ -11069,7 +11069,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I260">
-        <v>0.1274281009708737</v>
+        <v>0.4768426666666667</v>
       </c>
       <c r="J260">
         <v>2.666666666666667</v>
@@ -11098,7 +11098,7 @@
         <v>0</v>
       </c>
       <c r="E261">
-        <v>545.6999999999999</v>
+        <v>321.0064842958458</v>
       </c>
       <c r="F261">
         <v>28.5</v>
@@ -11139,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="E262">
-        <v>541</v>
+        <v>317.9398176291792</v>
       </c>
       <c r="F262">
         <v>28.23333333333333</v>
@@ -11151,7 +11151,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I262">
-        <v>0.06371405048543685</v>
+        <v>0.1937173333333333</v>
       </c>
       <c r="J262">
         <v>4.333333333333333</v>
@@ -11180,7 +11180,7 @@
         <v>0</v>
       </c>
       <c r="E263">
-        <v>532.2666666666667</v>
+        <v>321.6064842958459</v>
       </c>
       <c r="F263">
         <v>27.8</v>
@@ -11221,7 +11221,7 @@
         <v>0</v>
       </c>
       <c r="E264">
-        <v>516.9333333333333</v>
+        <v>322.5064842958458</v>
       </c>
       <c r="F264">
         <v>27.5</v>
@@ -11233,7 +11233,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I264">
-        <v>0.01901005048543685</v>
+        <v>0.1490133333333333</v>
       </c>
       <c r="J264">
         <v>6.333333333333333</v>
@@ -11262,7 +11262,7 @@
         <v>0</v>
       </c>
       <c r="E265">
-        <v>544.9</v>
+        <v>323.8398176291792</v>
       </c>
       <c r="F265">
         <v>28.44703925482368</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="E266">
-        <v>554.6333333333333</v>
+        <v>329.9398176291792</v>
       </c>
       <c r="F266">
         <v>30.68037258815701</v>
@@ -11344,7 +11344,7 @@
         <v>0</v>
       </c>
       <c r="E267">
-        <v>551.2333333333333</v>
+        <v>324.8064842958458</v>
       </c>
       <c r="F267">
         <v>30.62741184298069</v>
@@ -11385,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="E268">
-        <v>549.6333333333333</v>
+        <v>323.4064842958459</v>
       </c>
       <c r="F268">
         <v>28.84111776447103</v>
@@ -11426,7 +11426,7 @@
         <v>0</v>
       </c>
       <c r="E269">
-        <v>535.8333333333334</v>
+        <v>321.5064842958458</v>
       </c>
       <c r="F269">
         <v>34.46666666666667</v>
@@ -11438,7 +11438,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I269">
-        <v>0.0380201009708737</v>
+        <v>0.3427306666666667</v>
       </c>
       <c r="J269">
         <v>3.666666666666667</v>
@@ -11467,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="E270">
-        <v>537.5</v>
+        <v>312.0398176291792</v>
       </c>
       <c r="F270">
         <v>31</v>
@@ -11479,7 +11479,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I270">
-        <v>0.0380201009708737</v>
+        <v>0.3427306666666667</v>
       </c>
       <c r="J270">
         <v>4.333333333333333</v>
@@ -11508,7 +11508,7 @@
         <v>0</v>
       </c>
       <c r="E271">
-        <v>569.1333333333333</v>
+        <v>326.5398176291792</v>
       </c>
       <c r="F271">
         <v>29.7</v>
@@ -11549,7 +11549,7 @@
         <v>0</v>
       </c>
       <c r="E272">
-        <v>534.6999999999999</v>
+        <v>319.9064842958459</v>
       </c>
       <c r="F272">
         <v>29.06666666666667</v>
@@ -11561,7 +11561,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I272">
-        <v>0.01901005048543685</v>
+        <v>0.1937173333333333</v>
       </c>
       <c r="J272">
         <v>4.666666666666667</v>
@@ -11590,7 +11590,7 @@
         <v>0</v>
       </c>
       <c r="E273">
-        <v>545.8333333333334</v>
+        <v>331.3064842958458</v>
       </c>
       <c r="F273">
         <v>28.8</v>
@@ -11602,7 +11602,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I273">
-        <v>0.06371405048543685</v>
+        <v>0.1937173333333333</v>
       </c>
       <c r="J273">
         <v>3.333333333333333</v>
@@ -11631,7 +11631,7 @@
         <v>0</v>
       </c>
       <c r="E274">
-        <v>626.95</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F274">
         <v>28.35</v>
@@ -11672,7 +11672,7 @@
         <v>0</v>
       </c>
       <c r="E275">
-        <v>517.1</v>
+        <v>314.1064842958459</v>
       </c>
       <c r="F275">
         <v>28.1</v>
@@ -11713,7 +11713,7 @@
         <v>0</v>
       </c>
       <c r="E276">
-        <v>534.5333333333333</v>
+        <v>320.6398176291792</v>
       </c>
       <c r="F276">
         <v>27.9</v>
@@ -11754,7 +11754,7 @@
         <v>0</v>
       </c>
       <c r="E277">
-        <v>545.9</v>
+        <v>333.4398176291792</v>
       </c>
       <c r="F277">
         <v>28.78037258815701</v>
@@ -11795,7 +11795,7 @@
         <v>0</v>
       </c>
       <c r="E278">
-        <v>534.6666666666666</v>
+        <v>312.4398176291792</v>
       </c>
       <c r="F278">
         <v>31.21370592149034</v>
@@ -11807,7 +11807,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I278">
-        <v>0.1084180504854368</v>
+        <v>0.2384213333333333</v>
       </c>
       <c r="J278">
         <v>3.333333333333333</v>
@@ -11836,7 +11836,7 @@
         <v>0</v>
       </c>
       <c r="E279">
-        <v>534.6</v>
+        <v>316.8731509625125</v>
       </c>
       <c r="F279">
         <v>32.51370592149035</v>
@@ -11877,7 +11877,7 @@
         <v>0</v>
       </c>
       <c r="E280">
-        <v>522.1666666666666</v>
+        <v>305.5731509625126</v>
       </c>
       <c r="F280">
         <v>33.31370592149035</v>
@@ -11918,7 +11918,7 @@
         <v>0</v>
       </c>
       <c r="E281">
-        <v>541.0666666666666</v>
+        <v>327.1064842958459</v>
       </c>
       <c r="F281">
         <v>33.86666666666667</v>
@@ -11930,7 +11930,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I281">
-        <v>0.06371405048543685</v>
+        <v>0.2384213333333333</v>
       </c>
       <c r="J281">
         <v>3.666666666666667</v>
@@ -11959,7 +11959,7 @@
         <v>0</v>
       </c>
       <c r="E282">
-        <v>519.5666666666667</v>
+        <v>306.4064842958459</v>
       </c>
       <c r="F282">
         <v>31.3</v>
@@ -11971,7 +11971,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="I282">
-        <v>0.06371405048543685</v>
+        <v>0.1937173333333333</v>
       </c>
       <c r="J282">
         <v>4</v>
@@ -12000,7 +12000,7 @@
         <v>0</v>
       </c>
       <c r="E283">
-        <v>576.8</v>
+        <v>331.2048632218844</v>
       </c>
       <c r="F283">
         <v>30</v>
@@ -12041,7 +12041,7 @@
         <v>0</v>
       </c>
       <c r="E284">
-        <v>521</v>
+        <v>310.0064842958458</v>
       </c>
       <c r="F284">
         <v>29.5</v>
@@ -12082,7 +12082,7 @@
         <v>0</v>
       </c>
       <c r="E285">
-        <v>540.1999999999999</v>
+        <v>328.4064842958459</v>
       </c>
       <c r="F285">
         <v>28.96666666666667</v>
@@ -12123,7 +12123,7 @@
         <v>0</v>
       </c>
       <c r="E286">
-        <v>533.8333333333334</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F286">
         <v>28.5</v>
@@ -12164,7 +12164,7 @@
         <v>0</v>
       </c>
       <c r="E287">
-        <v>540.1333333333333</v>
+        <v>327.9064842958459</v>
       </c>
       <c r="F287">
         <v>28.3</v>
@@ -12205,7 +12205,7 @@
         <v>0</v>
       </c>
       <c r="E288">
-        <v>548.8000000000001</v>
+        <v>327.1398176291792</v>
       </c>
       <c r="F288">
         <v>28.13333333333334</v>
@@ -12246,7 +12246,7 @@
         <v>0</v>
       </c>
       <c r="E289">
-        <v>467.22</v>
+        <v>315.6968085106382</v>
       </c>
       <c r="F289">
         <v>30.7</v>
@@ -12287,7 +12287,7 @@
         <v>0</v>
       </c>
       <c r="E290">
-        <v>452.975</v>
+        <v>265.1822948328266</v>
       </c>
       <c r="F290">
         <v>32.51027944111776</v>
@@ -12328,7 +12328,7 @@
         <v>0</v>
       </c>
       <c r="E291">
-        <v>444.92</v>
+        <v>276.5258358662613</v>
       </c>
       <c r="F291">
         <v>32.33644710578841</v>
@@ -12340,7 +12340,7 @@
         <v>0</v>
       </c>
       <c r="I291">
-        <v>0.0650508302912621</v>
+        <v>0.1430528</v>
       </c>
       <c r="J291">
         <v>3.8</v>
@@ -12369,7 +12369,7 @@
         <v>0</v>
       </c>
       <c r="E292">
-        <v>434.76</v>
+        <v>273.8858358662613</v>
       </c>
       <c r="F292">
         <v>31.66</v>
@@ -12381,7 +12381,7 @@
         <v>0</v>
       </c>
       <c r="I292">
-        <v>0.01140603029126211</v>
+        <v>0.089408</v>
       </c>
       <c r="J292">
         <v>2.2</v>
@@ -12410,7 +12410,7 @@
         <v>0</v>
       </c>
       <c r="E293">
-        <v>459.42</v>
+        <v>294.4058358662613</v>
       </c>
       <c r="F293">
         <v>30.5</v>
@@ -12422,7 +12422,7 @@
         <v>0</v>
       </c>
       <c r="I293">
-        <v>0.06104049087378632</v>
+        <v>0.402336</v>
       </c>
       <c r="J293">
         <v>2</v>
@@ -12451,7 +12451,7 @@
         <v>0</v>
       </c>
       <c r="E294">
-        <v>467.58</v>
+        <v>291.5658358662613</v>
       </c>
       <c r="F294">
         <v>28.86</v>
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="E295">
-        <v>470.64</v>
+        <v>281.6658358662613</v>
       </c>
       <c r="F295">
         <v>28.5</v>
@@ -12533,7 +12533,7 @@
         <v>0</v>
       </c>
       <c r="E296">
-        <v>475.4</v>
+        <v>296.7058358662613</v>
       </c>
       <c r="F296">
         <v>28.6</v>
@@ -12574,7 +12574,7 @@
         <v>0</v>
       </c>
       <c r="E297">
-        <v>498.78</v>
+        <v>302.0058358662612</v>
       </c>
       <c r="F297">
         <v>27.78</v>
@@ -12586,7 +12586,7 @@
         <v>0</v>
       </c>
       <c r="I297">
-        <v>0.03822843029126211</v>
+        <v>0.1162304</v>
       </c>
       <c r="J297">
         <v>5.4</v>
@@ -12615,7 +12615,7 @@
         <v>0</v>
       </c>
       <c r="E298">
-        <v>495.4399999999999</v>
+        <v>282.0477811550151</v>
       </c>
       <c r="F298">
         <v>27.76</v>
@@ -12656,7 +12656,7 @@
         <v>0</v>
       </c>
       <c r="E299">
-        <v>497.54</v>
+        <v>302.1258358662613</v>
       </c>
       <c r="F299">
         <v>27.82</v>
@@ -12697,7 +12697,7 @@
         <v>0</v>
       </c>
       <c r="E300">
-        <v>485.9200000000001</v>
+        <v>301.1658358662613</v>
       </c>
       <c r="F300">
         <v>27.9</v>
@@ -12738,7 +12738,7 @@
         <v>0</v>
       </c>
       <c r="E301">
-        <v>346.9</v>
+        <v>259.5731509625126</v>
       </c>
       <c r="F301">
         <v>30.96666666666667</v>
@@ -12779,7 +12779,7 @@
         <v>0.4</v>
       </c>
       <c r="E302">
-        <v>439.9399999999999</v>
+        <v>276.4058358662613</v>
       </c>
       <c r="F302">
         <v>30.70467065868262</v>
@@ -12820,7 +12820,7 @@
         <v>0</v>
       </c>
       <c r="E303">
-        <v>454.48</v>
+        <v>282.2058358662613</v>
       </c>
       <c r="F303">
         <v>28.84111776447103</v>
@@ -12832,7 +12832,7 @@
         <v>0</v>
       </c>
       <c r="I303">
-        <v>0.0650508302912621</v>
+        <v>0.1430528</v>
       </c>
       <c r="J303">
         <v>2.2</v>
@@ -12861,7 +12861,7 @@
         <v>0</v>
       </c>
       <c r="E304">
-        <v>450.7</v>
+        <v>286.3258358662613</v>
       </c>
       <c r="F304">
         <v>28.84111776447103</v>
@@ -12873,7 +12873,7 @@
         <v>0</v>
       </c>
       <c r="I304">
-        <v>0.1455180302912621</v>
+        <v>0.22352</v>
       </c>
       <c r="J304">
         <v>5.4</v>
@@ -12902,7 +12902,7 @@
         <v>0</v>
       </c>
       <c r="E305">
-        <v>448.5600000000001</v>
+        <v>283.3258358662613</v>
       </c>
       <c r="F305">
         <v>32.15644710578842</v>
@@ -12914,7 +12914,7 @@
         <v>0</v>
       </c>
       <c r="I305">
-        <v>0.1186956302912621</v>
+        <v>0.1966976</v>
       </c>
       <c r="J305">
         <v>5</v>
@@ -12943,7 +12943,7 @@
         <v>0</v>
       </c>
       <c r="E306">
-        <v>443.98</v>
+        <v>275.7058358662613</v>
       </c>
       <c r="F306">
         <v>31.82</v>
@@ -12955,7 +12955,7 @@
         <v>0</v>
       </c>
       <c r="I306">
-        <v>0.01140603029126211</v>
+        <v>0.089408</v>
       </c>
       <c r="J306">
         <v>5.2</v>
@@ -12984,7 +12984,7 @@
         <v>0</v>
       </c>
       <c r="E307">
-        <v>460.96</v>
+        <v>270.687781155015</v>
       </c>
       <c r="F307">
         <v>29.84</v>
@@ -13025,7 +13025,7 @@
         <v>0</v>
       </c>
       <c r="E308">
-        <v>447.46</v>
+        <v>286.6458358662613</v>
       </c>
       <c r="F308">
         <v>29.38</v>
@@ -13066,7 +13066,7 @@
         <v>0</v>
       </c>
       <c r="E309">
-        <v>470.5</v>
+        <v>290.3258358662613</v>
       </c>
       <c r="F309">
         <v>28.78</v>
@@ -13107,7 +13107,7 @@
         <v>0</v>
       </c>
       <c r="E310">
-        <v>462.92</v>
+        <v>287.0058358662612</v>
       </c>
       <c r="F310">
         <v>28.44</v>
@@ -13148,7 +13148,7 @@
         <v>0</v>
       </c>
       <c r="E311">
-        <v>474.78</v>
+        <v>278.167781155015</v>
       </c>
       <c r="F311">
         <v>28.14</v>
@@ -13189,7 +13189,7 @@
         <v>0</v>
       </c>
       <c r="E312">
-        <v>493.32</v>
+        <v>280.507781155015</v>
       </c>
       <c r="F312">
         <v>28.08</v>
@@ -13230,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="E313">
-        <v>472.34</v>
+        <v>267.867781155015</v>
       </c>
       <c r="F313">
         <v>30.58822355289421</v>
@@ -13242,7 +13242,7 @@
         <v>0</v>
       </c>
       <c r="I313">
-        <v>0.01140603029126211</v>
+        <v>0.1162304</v>
       </c>
       <c r="J313">
         <v>4</v>
@@ -13271,7 +13271,7 @@
         <v>1</v>
       </c>
       <c r="E314">
-        <v>417.0333333333333</v>
+        <v>261.2365754812563</v>
       </c>
       <c r="F314">
         <v>30.79407850964735</v>
@@ -13312,7 +13312,7 @@
         <v>0.4</v>
       </c>
       <c r="E315">
-        <v>434.08</v>
+        <v>267.6658358662613</v>
       </c>
       <c r="F315">
         <v>28.84111776447103</v>
@@ -13324,7 +13324,7 @@
         <v>0</v>
       </c>
       <c r="I315">
-        <v>0.07645686058252422</v>
+        <v>0.312928</v>
       </c>
       <c r="J315">
         <v>3</v>
@@ -13353,7 +13353,7 @@
         <v>0</v>
       </c>
       <c r="E316">
-        <v>449.5</v>
+        <v>292.3048632218844</v>
       </c>
       <c r="F316">
         <v>33.41027944111776</v>
@@ -13365,7 +13365,7 @@
         <v>0</v>
       </c>
       <c r="I316">
-        <v>0.06204307572815528</v>
+        <v>0.290576</v>
       </c>
       <c r="J316">
         <v>5.5</v>
@@ -13394,7 +13394,7 @@
         <v>0</v>
       </c>
       <c r="E317">
-        <v>467.2</v>
+        <v>283.4458358662613</v>
       </c>
       <c r="F317">
         <v>31.85644710578841</v>
@@ -13406,7 +13406,7 @@
         <v>0</v>
       </c>
       <c r="I317">
-        <v>0.09187323029126211</v>
+        <v>0.1966976</v>
       </c>
       <c r="J317">
         <v>5.4</v>
@@ -13435,7 +13435,7 @@
         <v>0</v>
       </c>
       <c r="E318">
-        <v>446.4399999999999</v>
+        <v>274.9658358662613</v>
       </c>
       <c r="F318">
         <v>31.1</v>
@@ -13447,7 +13447,7 @@
         <v>0</v>
       </c>
       <c r="I318">
-        <v>0.09187323029126211</v>
+        <v>0.1966976</v>
       </c>
       <c r="J318">
         <v>3.8</v>
@@ -13476,7 +13476,7 @@
         <v>0</v>
       </c>
       <c r="E319">
-        <v>448.5</v>
+        <v>275.9258358662613</v>
       </c>
       <c r="F319">
         <v>29.72</v>
@@ -13488,7 +13488,7 @@
         <v>0</v>
       </c>
       <c r="I319">
-        <v>0.09187323029126211</v>
+        <v>0.1698752</v>
       </c>
       <c r="J319">
         <v>4.8</v>
@@ -13517,7 +13517,7 @@
         <v>0</v>
       </c>
       <c r="E320">
-        <v>457.55</v>
+        <v>290.1798632218844</v>
       </c>
       <c r="F320">
         <v>29.325</v>
@@ -13558,7 +13558,7 @@
         <v>0</v>
       </c>
       <c r="E321">
-        <v>431.85</v>
+        <v>280.1798632218844</v>
       </c>
       <c r="F321">
         <v>28.975</v>
@@ -13599,7 +13599,7 @@
         <v>0</v>
       </c>
       <c r="E322">
-        <v>452.98</v>
+        <v>287.3458358662613</v>
       </c>
       <c r="F322">
         <v>28.56</v>
@@ -13611,7 +13611,7 @@
         <v>0</v>
       </c>
       <c r="I322">
-        <v>0.03822843029126211</v>
+        <v>0.1430528</v>
       </c>
       <c r="J322">
         <v>4.6</v>
@@ -13640,7 +13640,7 @@
         <v>0</v>
       </c>
       <c r="E323">
-        <v>463.85</v>
+        <v>268.0322948328266</v>
       </c>
       <c r="F323">
         <v>28.225</v>
@@ -13681,7 +13681,7 @@
         <v>0</v>
       </c>
       <c r="E324">
-        <v>477.98</v>
+        <v>282.5658358662613</v>
       </c>
       <c r="F324">
         <v>27.84</v>
@@ -13722,7 +13722,7 @@
         <v>0</v>
       </c>
       <c r="E325">
-        <v>461.72</v>
+        <v>297.6458358662613</v>
       </c>
       <c r="F325">
         <v>31.04</v>
@@ -13763,7 +13763,7 @@
         <v>0.6</v>
       </c>
       <c r="E326">
-        <v>453.74</v>
+        <v>287.9258358662613</v>
       </c>
       <c r="F326">
         <v>31.04467065868262</v>
@@ -13804,7 +13804,7 @@
         <v>0</v>
       </c>
       <c r="E327">
-        <v>438</v>
+        <v>279.8658358662613</v>
       </c>
       <c r="F327">
         <v>28.84111776447103</v>
@@ -13816,7 +13816,7 @@
         <v>0</v>
       </c>
       <c r="I327">
-        <v>0.1186956302912621</v>
+        <v>0.1966976</v>
       </c>
       <c r="J327">
         <v>5.8</v>
@@ -13845,7 +13845,7 @@
         <v>0</v>
       </c>
       <c r="E328">
-        <v>459.2799999999999</v>
+        <v>285.1458358662613</v>
       </c>
       <c r="F328">
         <v>28.84111776447103</v>
@@ -13857,7 +13857,7 @@
         <v>0</v>
       </c>
       <c r="I328">
-        <v>0.09187323029126211</v>
+        <v>0.1698752</v>
       </c>
       <c r="J328">
         <v>2.8</v>
@@ -13886,7 +13886,7 @@
         <v>0</v>
       </c>
       <c r="E329">
-        <v>441.9</v>
+        <v>280.3458358662613</v>
       </c>
       <c r="F329">
         <v>31.99644710578841</v>
@@ -13898,7 +13898,7 @@
         <v>0</v>
       </c>
       <c r="I329">
-        <v>0.07645686058252422</v>
+        <v>0.2592832</v>
       </c>
       <c r="J329">
         <v>3</v>
@@ -13927,7 +13927,7 @@
         <v>0</v>
       </c>
       <c r="E330">
-        <v>443.0600000000001</v>
+        <v>280.8858358662613</v>
       </c>
       <c r="F330">
         <v>32.16</v>
@@ -13939,7 +13939,7 @@
         <v>0</v>
       </c>
       <c r="I330">
-        <v>0.09187323029126211</v>
+        <v>0.1698752</v>
       </c>
       <c r="J330">
         <v>5</v>
@@ -13968,7 +13968,7 @@
         <v>0</v>
       </c>
       <c r="E331">
-        <v>468.42</v>
+        <v>273.187781155015</v>
       </c>
       <c r="F331">
         <v>30.16</v>
@@ -13980,7 +13980,7 @@
         <v>0</v>
       </c>
       <c r="I331">
-        <v>0.1301016605825242</v>
+        <v>0.2861056</v>
       </c>
       <c r="J331">
         <v>3.2</v>
@@ -14009,7 +14009,7 @@
         <v>0</v>
       </c>
       <c r="E332">
-        <v>449.4399999999999</v>
+        <v>282.4658358662613</v>
       </c>
       <c r="F332">
         <v>29.52</v>
@@ -14021,7 +14021,7 @@
         <v>0</v>
       </c>
       <c r="I332">
-        <v>0.09187323029126211</v>
+        <v>0.1966976</v>
       </c>
       <c r="J332">
         <v>5.6</v>
@@ -14050,7 +14050,7 @@
         <v>0</v>
       </c>
       <c r="E333">
-        <v>460.8</v>
+        <v>294.9298632218844</v>
       </c>
       <c r="F333">
         <v>29.025</v>
@@ -14062,7 +14062,7 @@
         <v>0</v>
       </c>
       <c r="I333">
-        <v>0.1818975378640776</v>
+        <v>0.312928</v>
       </c>
       <c r="J333">
         <v>5.5</v>
@@ -14091,7 +14091,7 @@
         <v>0</v>
       </c>
       <c r="E334">
-        <v>467.32</v>
+        <v>285.3458358662613</v>
       </c>
       <c r="F334">
         <v>28.62</v>
@@ -14132,7 +14132,7 @@
         <v>0</v>
       </c>
       <c r="E335">
-        <v>458.98</v>
+        <v>275.5458358662613</v>
       </c>
       <c r="F335">
         <v>28.46</v>
@@ -14173,7 +14173,7 @@
         <v>0</v>
       </c>
       <c r="E336">
-        <v>475.68</v>
+        <v>299.1858358662613</v>
       </c>
       <c r="F336">
         <v>28.34</v>
@@ -14214,7 +14214,7 @@
         <v>0</v>
       </c>
       <c r="E337">
-        <v>373.76</v>
+        <v>241.9038905775075</v>
       </c>
       <c r="F337">
         <v>30.26822355289421</v>
@@ -14255,7 +14255,7 @@
         <v>0</v>
       </c>
       <c r="E338">
-        <v>357.2333333333333</v>
+        <v>248.7731509625125</v>
       </c>
       <c r="F338">
         <v>32.51370592149035</v>
@@ -14296,7 +14296,7 @@
         <v>0.25</v>
       </c>
       <c r="E339">
-        <v>451.75</v>
+        <v>272.3298632218844</v>
       </c>
       <c r="F339">
         <v>28.84111776447103</v>
@@ -14308,7 +14308,7 @@
         <v>0</v>
       </c>
       <c r="I339">
-        <v>0.08131353786407763</v>
+        <v>0.245872</v>
       </c>
       <c r="J339">
         <v>3.5</v>
@@ -14337,7 +14337,7 @@
         <v>0.25</v>
       </c>
       <c r="E340">
-        <v>468</v>
+        <v>305.0548632218844</v>
       </c>
       <c r="F340">
         <v>28.84111776447103</v>
@@ -14349,7 +14349,7 @@
         <v>0</v>
       </c>
       <c r="I340">
-        <v>0.02851507572815527</v>
+        <v>0.324104</v>
       </c>
       <c r="J340">
         <v>4</v>
@@ -14378,7 +14378,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E341">
-        <v>423.7333333333333</v>
+        <v>196.5398176291792</v>
       </c>
       <c r="F341">
         <v>31.21370592149034</v>
@@ -14390,7 +14390,7 @@
         <v>0</v>
       </c>
       <c r="I341">
-        <v>0.1084180504854368</v>
+        <v>0.2384213333333333</v>
       </c>
       <c r="J341">
         <v>2.666666666666667</v>
@@ -14419,7 +14419,7 @@
         <v>0.5</v>
       </c>
       <c r="E342">
-        <v>642.65</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F342">
         <v>29</v>
@@ -14460,7 +14460,7 @@
         <v>0.5</v>
       </c>
       <c r="E343">
-        <v>622.7</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F343">
         <v>26.55</v>
@@ -14501,7 +14501,7 @@
         <v>0.5</v>
       </c>
       <c r="E344">
-        <v>607.4</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F344">
         <v>26.65</v>
@@ -14542,7 +14542,7 @@
         <v>0.5</v>
       </c>
       <c r="E345">
-        <v>608.8</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F345">
         <v>27.25</v>
@@ -14583,7 +14583,7 @@
         <v>0.5</v>
       </c>
       <c r="E346">
-        <v>607.6500000000001</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F346">
         <v>27.5</v>
@@ -14624,7 +14624,7 @@
         <v>0.5</v>
       </c>
       <c r="E347">
-        <v>622.8</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F347">
         <v>27.85</v>
@@ -14665,7 +14665,7 @@
         <v>0.5</v>
       </c>
       <c r="E348">
-        <v>608.5999999999999</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F348">
         <v>27.65</v>
@@ -14677,7 +14677,7 @@
         <v>0</v>
       </c>
       <c r="I348">
-        <v>0.02851507572815527</v>
+        <v>0.22352</v>
       </c>
       <c r="J348">
         <v>5.5</v>
@@ -14706,7 +14706,7 @@
         <v>0.5</v>
       </c>
       <c r="E349">
-        <v>594.65</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F349">
         <v>29.8</v>
@@ -14747,7 +14747,7 @@
         <v>0.5</v>
       </c>
       <c r="E350">
-        <v>604.1</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F350">
         <v>30.32055888223552</v>
@@ -14759,7 +14759,7 @@
         <v>0</v>
       </c>
       <c r="I350">
-        <v>0.02851507572815527</v>
+        <v>0.22352</v>
       </c>
       <c r="J350">
         <v>2.5</v>
@@ -14788,7 +14788,7 @@
         <v>0.5</v>
       </c>
       <c r="E351">
-        <v>611.45</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F351">
         <v>28.84111776447103</v>
@@ -14800,7 +14800,7 @@
         <v>0</v>
       </c>
       <c r="I351">
-        <v>0.02851507572815527</v>
+        <v>0.22352</v>
       </c>
       <c r="J351">
         <v>4.5</v>
@@ -14829,7 +14829,7 @@
         <v>0.5</v>
       </c>
       <c r="E352">
-        <v>628.6</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F352">
         <v>28.84111776447103</v>
@@ -14841,7 +14841,7 @@
         <v>0</v>
       </c>
       <c r="I352">
-        <v>0.1626270757281553</v>
+        <v>0.491744</v>
       </c>
       <c r="J352">
         <v>3</v>
@@ -14870,7 +14870,7 @@
         <v>0.5</v>
       </c>
       <c r="E353">
-        <v>655.95</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F353">
         <v>34.05</v>
@@ -14911,7 +14911,7 @@
         <v>0.5</v>
       </c>
       <c r="E354">
-        <v>626.85</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F354">
         <v>31.05</v>
@@ -14952,7 +14952,7 @@
         <v>0.5</v>
       </c>
       <c r="E355">
-        <v>615.4</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F355">
         <v>29.7</v>
@@ -14993,7 +14993,7 @@
         <v>0.5</v>
       </c>
       <c r="E356">
-        <v>603.2</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F356">
         <v>29.65</v>
@@ -15034,7 +15034,7 @@
         <v>0.5</v>
       </c>
       <c r="E357">
-        <v>603.25</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F357">
         <v>29.2</v>
@@ -15075,7 +15075,7 @@
         <v>0.5</v>
       </c>
       <c r="E358">
-        <v>611.4</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F358">
         <v>28.6</v>
@@ -15087,7 +15087,7 @@
         <v>0</v>
       </c>
       <c r="I358">
-        <v>0.02851507572815527</v>
+        <v>0.290576</v>
       </c>
       <c r="J358">
         <v>5</v>
@@ -15116,7 +15116,7 @@
         <v>0.5</v>
       </c>
       <c r="E359">
-        <v>620.65</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F359">
         <v>28.25</v>
@@ -15128,7 +15128,7 @@
         <v>0</v>
       </c>
       <c r="I359">
-        <v>0.02851507572815527</v>
+        <v>0.22352</v>
       </c>
       <c r="J359">
         <v>5</v>
@@ -15157,7 +15157,7 @@
         <v>0.5</v>
       </c>
       <c r="E360">
-        <v>613.5</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F360">
         <v>28.15</v>
@@ -15169,7 +15169,7 @@
         <v>0</v>
       </c>
       <c r="I360">
-        <v>0.02851507572815527</v>
+        <v>0.290576</v>
       </c>
       <c r="J360">
         <v>5</v>
@@ -15198,7 +15198,7 @@
         <v>0.5</v>
       </c>
       <c r="E361">
-        <v>632.4</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F361">
         <v>29.32055888223552</v>
@@ -15210,7 +15210,7 @@
         <v>0</v>
       </c>
       <c r="I361">
-        <v>0.02851507572815527</v>
+        <v>0.22352</v>
       </c>
       <c r="J361">
         <v>4.5</v>
@@ -15239,7 +15239,7 @@
         <v>0.5</v>
       </c>
       <c r="E362">
-        <v>621.75</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F362">
         <v>30.82055888223551</v>
@@ -15280,7 +15280,7 @@
         <v>0.5</v>
       </c>
       <c r="E363">
-        <v>633.85</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F363">
         <v>28.84111776447103</v>
@@ -15292,7 +15292,7 @@
         <v>0</v>
       </c>
       <c r="I363">
-        <v>0.1626270757281553</v>
+        <v>0.424688</v>
       </c>
       <c r="J363">
         <v>5</v>
@@ -15321,7 +15321,7 @@
         <v>0.5</v>
       </c>
       <c r="E364">
-        <v>621.25</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F364">
         <v>28.84111776447103</v>
@@ -15333,7 +15333,7 @@
         <v>0</v>
       </c>
       <c r="I364">
-        <v>0.09557107572815528</v>
+        <v>0.357632</v>
       </c>
       <c r="J364">
         <v>5</v>
@@ -15362,7 +15362,7 @@
         <v>0.5</v>
       </c>
       <c r="E365">
-        <v>623.15</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F365">
         <v>34.1</v>
@@ -15403,7 +15403,7 @@
         <v>0.5</v>
       </c>
       <c r="E366">
-        <v>623.05</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F366">
         <v>31.85</v>
@@ -15444,7 +15444,7 @@
         <v>0.5</v>
       </c>
       <c r="E367">
-        <v>620</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F367">
         <v>30.35</v>
@@ -15485,7 +15485,7 @@
         <v>0.5</v>
       </c>
       <c r="E368">
-        <v>613.9000000000001</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F368">
         <v>29.75</v>
@@ -15497,7 +15497,7 @@
         <v>0</v>
       </c>
       <c r="I368">
-        <v>0.02851507572815527</v>
+        <v>0.357632</v>
       </c>
       <c r="J368">
         <v>3</v>
@@ -15526,7 +15526,7 @@
         <v>0.5</v>
       </c>
       <c r="E369">
-        <v>607.05</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F369">
         <v>29.45</v>
@@ -15567,7 +15567,7 @@
         <v>0.5</v>
       </c>
       <c r="E370">
-        <v>614.65</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F370">
         <v>28.9</v>
@@ -15608,7 +15608,7 @@
         <v>0.5</v>
       </c>
       <c r="E371">
-        <v>631.3</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F371">
         <v>28.6</v>
@@ -15649,7 +15649,7 @@
         <v>0.5</v>
       </c>
       <c r="E372">
-        <v>608.95</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F372">
         <v>28.55</v>
@@ -15690,7 +15690,7 @@
         <v>0.5</v>
       </c>
       <c r="E373">
-        <v>617</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F373">
         <v>29.42055888223551</v>
@@ -15702,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="I373">
-        <v>0.02851507572815527</v>
+        <v>0.22352</v>
       </c>
       <c r="J373">
         <v>5</v>
@@ -15731,7 +15731,7 @@
         <v>0.5</v>
       </c>
       <c r="E374">
-        <v>606.05</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F374">
         <v>30.92055888223551</v>
@@ -15772,7 +15772,7 @@
         <v>0.5</v>
       </c>
       <c r="E375">
-        <v>606.95</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F375">
         <v>31.92055888223551</v>
@@ -15784,7 +15784,7 @@
         <v>0</v>
       </c>
       <c r="I375">
-        <v>0.09557107572815528</v>
+        <v>0.290576</v>
       </c>
       <c r="J375">
         <v>5.5</v>
@@ -15813,7 +15813,7 @@
         <v>0.5</v>
       </c>
       <c r="E376">
-        <v>615.45</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F376">
         <v>28.84111776447103</v>
@@ -15854,7 +15854,7 @@
         <v>0.5</v>
       </c>
       <c r="E377">
-        <v>630.55</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F377">
         <v>33.59999999999999</v>
@@ -15866,7 +15866,7 @@
         <v>0</v>
       </c>
       <c r="I377">
-        <v>0.02851507572815527</v>
+        <v>0.22352</v>
       </c>
       <c r="J377">
         <v>5.5</v>
@@ -15895,7 +15895,7 @@
         <v>0.5</v>
       </c>
       <c r="E378">
-        <v>596.35</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F378">
         <v>31.15</v>
@@ -15907,7 +15907,7 @@
         <v>0</v>
       </c>
       <c r="I378">
-        <v>0.02851507572815527</v>
+        <v>0.290576</v>
       </c>
       <c r="J378">
         <v>5</v>
@@ -15936,7 +15936,7 @@
         <v>0.5</v>
       </c>
       <c r="E379">
-        <v>610.3</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F379">
         <v>29.75</v>
@@ -15948,7 +15948,7 @@
         <v>0</v>
       </c>
       <c r="I379">
-        <v>0.02851507572815527</v>
+        <v>0.290576</v>
       </c>
       <c r="J379">
         <v>5.5</v>
@@ -15977,7 +15977,7 @@
         <v>0.5</v>
       </c>
       <c r="E380">
-        <v>597.45</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F380">
         <v>29.35</v>
@@ -15989,7 +15989,7 @@
         <v>0</v>
       </c>
       <c r="I380">
-        <v>0.02851507572815527</v>
+        <v>0.290576</v>
       </c>
       <c r="J380">
         <v>4.5</v>
@@ -16018,7 +16018,7 @@
         <v>0.5</v>
       </c>
       <c r="E381">
-        <v>599.65</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F381">
         <v>29</v>
@@ -16030,7 +16030,7 @@
         <v>0</v>
       </c>
       <c r="I381">
-        <v>0.02851507572815527</v>
+        <v>0.290576</v>
       </c>
       <c r="J381">
         <v>0.5</v>
@@ -16059,7 +16059,7 @@
         <v>0.5</v>
       </c>
       <c r="E382">
-        <v>593.2</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F382">
         <v>28.7</v>
@@ -16100,7 +16100,7 @@
         <v>0.5</v>
       </c>
       <c r="E383">
-        <v>619.9</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F383">
         <v>28.55</v>
@@ -16141,7 +16141,7 @@
         <v>0.5</v>
       </c>
       <c r="E384">
-        <v>640.2</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F384">
         <v>28.3</v>
@@ -16153,7 +16153,7 @@
         <v>0</v>
       </c>
       <c r="I384">
-        <v>0.02851507572815527</v>
+        <v>0.22352</v>
       </c>
       <c r="J384">
         <v>5</v>
@@ -16182,7 +16182,7 @@
         <v>0.5</v>
       </c>
       <c r="E385">
-        <v>606.45</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F385">
         <v>29.32055888223552</v>
@@ -16223,7 +16223,7 @@
         <v>0.5</v>
       </c>
       <c r="E386">
-        <v>642.75</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F386">
         <v>31.07055888223551</v>
@@ -16264,7 +16264,7 @@
         <v>0.5</v>
       </c>
       <c r="E387">
-        <v>672.9</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F387">
         <v>32.37055888223551</v>
@@ -16305,7 +16305,7 @@
         <v>0.5</v>
       </c>
       <c r="E388">
-        <v>609.4</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F388">
         <v>32.42055888223551</v>
@@ -16317,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="I388">
-        <v>0.1626270757281553</v>
+        <v>0.424688</v>
       </c>
       <c r="J388">
         <v>4.5</v>
@@ -16346,7 +16346,7 @@
         <v>0.5</v>
       </c>
       <c r="E389">
-        <v>642.3</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F389">
         <v>31.8</v>
@@ -16387,7 +16387,7 @@
         <v>0.5</v>
       </c>
       <c r="E390">
-        <v>617.4000000000001</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F390">
         <v>30.9</v>
@@ -16399,7 +16399,7 @@
         <v>0</v>
       </c>
       <c r="I390">
-        <v>0.02851507572815527</v>
+        <v>0.290576</v>
       </c>
       <c r="J390">
         <v>5</v>
@@ -16428,7 +16428,7 @@
         <v>1</v>
       </c>
       <c r="E391">
-        <v>762.5</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F391">
         <v>29.8</v>
@@ -16469,7 +16469,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E392">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F392">
         <v>28.90603758428948</v>
@@ -16481,7 +16481,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I392">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J392">
         <v>4.653057419835943</v>
@@ -16510,7 +16510,7 @@
         <v>1</v>
       </c>
       <c r="E393">
-        <v>751.6</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F393">
         <v>29</v>
@@ -16551,7 +16551,7 @@
         <v>1</v>
       </c>
       <c r="E394">
-        <v>743.6</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F394">
         <v>28.6</v>
@@ -16592,7 +16592,7 @@
         <v>1</v>
       </c>
       <c r="E395">
-        <v>755</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F395">
         <v>28.5</v>
@@ -16633,7 +16633,7 @@
         <v>1</v>
       </c>
       <c r="E396">
-        <v>786.2</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F396">
         <v>28.5</v>
@@ -16674,7 +16674,7 @@
         <v>1</v>
       </c>
       <c r="E397">
-        <v>774</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F397">
         <v>28.84111776447103</v>
@@ -16715,7 +16715,7 @@
         <v>1</v>
       </c>
       <c r="E398">
-        <v>767.3</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F398">
         <v>28.84111776447103</v>
@@ -16756,7 +16756,7 @@
         <v>1</v>
       </c>
       <c r="E399">
-        <v>792.2</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F399">
         <v>28.84111776447103</v>
@@ -16797,7 +16797,7 @@
         <v>1</v>
       </c>
       <c r="E400">
-        <v>749.8</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F400">
         <v>28.84111776447103</v>
@@ -16838,7 +16838,7 @@
         <v>1</v>
       </c>
       <c r="E401">
-        <v>781.4</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F401">
         <v>33.6</v>
@@ -16850,7 +16850,7 @@
         <v>0</v>
       </c>
       <c r="I401">
-        <v>0.05703015145631054</v>
+        <v>0.44704</v>
       </c>
       <c r="J401">
         <v>5</v>
@@ -16879,7 +16879,7 @@
         <v>1</v>
       </c>
       <c r="E402">
-        <v>778.4</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F402">
         <v>31.4</v>
@@ -16920,7 +16920,7 @@
         <v>1</v>
       </c>
       <c r="E403">
-        <v>811.4</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F403">
         <v>29.9</v>
@@ -16961,7 +16961,7 @@
         <v>1</v>
       </c>
       <c r="E404">
-        <v>762</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F404">
         <v>29.4</v>
@@ -17002,7 +17002,7 @@
         <v>1</v>
       </c>
       <c r="E405">
-        <v>766.7</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F405">
         <v>29.1</v>
@@ -17043,7 +17043,7 @@
         <v>1</v>
       </c>
       <c r="E406">
-        <v>753.7</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F406">
         <v>28.8</v>
@@ -17084,7 +17084,7 @@
         <v>1</v>
       </c>
       <c r="E407">
-        <v>744.2</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F407">
         <v>28.6</v>
@@ -17125,7 +17125,7 @@
         <v>1</v>
       </c>
       <c r="E408">
-        <v>854.8</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F408">
         <v>28.8</v>
@@ -17166,7 +17166,7 @@
         <v>1</v>
       </c>
       <c r="E409">
-        <v>747.6</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F409">
         <v>33.2</v>
@@ -17207,7 +17207,7 @@
         <v>1</v>
       </c>
       <c r="E410">
-        <v>735.3</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F410">
         <v>34.5</v>
@@ -17248,7 +17248,7 @@
         <v>1</v>
       </c>
       <c r="E411">
-        <v>812.2</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F411">
         <v>28.84111776447103</v>
@@ -17289,7 +17289,7 @@
         <v>1</v>
       </c>
       <c r="E412">
-        <v>731.1</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F412">
         <v>28.84111776447103</v>
@@ -17330,7 +17330,7 @@
         <v>1</v>
       </c>
       <c r="E413">
-        <v>766.6</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F413">
         <v>34.2</v>
@@ -17371,7 +17371,7 @@
         <v>1</v>
       </c>
       <c r="E414">
-        <v>780.6</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F414">
         <v>31.8</v>
@@ -17412,7 +17412,7 @@
         <v>1</v>
       </c>
       <c r="E415">
-        <v>760.1</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F415">
         <v>30.4</v>
@@ -17453,7 +17453,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E416">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F416">
         <v>28.90603758428948</v>
@@ -17465,7 +17465,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I416">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J416">
         <v>4.653057419835943</v>
@@ -17494,7 +17494,7 @@
         <v>1</v>
       </c>
       <c r="E417">
-        <v>766.8</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F417">
         <v>29.4</v>
@@ -17535,7 +17535,7 @@
         <v>1</v>
       </c>
       <c r="E418">
-        <v>726.9</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F418">
         <v>29.2</v>
@@ -17576,7 +17576,7 @@
         <v>1</v>
       </c>
       <c r="E419">
-        <v>776</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F419">
         <v>28.8</v>
@@ -17617,7 +17617,7 @@
         <v>1</v>
       </c>
       <c r="E420">
-        <v>818.8</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F420">
         <v>28.7</v>
@@ -17658,7 +17658,7 @@
         <v>1</v>
       </c>
       <c r="E421">
-        <v>758.8</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F421">
         <v>28.84111776447103</v>
@@ -17699,7 +17699,7 @@
         <v>1</v>
       </c>
       <c r="E422">
-        <v>772.1</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F422">
         <v>28.84111776447103</v>
@@ -17740,7 +17740,7 @@
         <v>1</v>
       </c>
       <c r="E423">
-        <v>754.1</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F423">
         <v>28.84111776447103</v>
@@ -17781,7 +17781,7 @@
         <v>1</v>
       </c>
       <c r="E424">
-        <v>733.9</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F424">
         <v>28.84111776447103</v>
@@ -17822,7 +17822,7 @@
         <v>1</v>
       </c>
       <c r="E425">
-        <v>798.8</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F425">
         <v>34.4</v>
@@ -17863,7 +17863,7 @@
         <v>1</v>
       </c>
       <c r="E426">
-        <v>781.6</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F426">
         <v>31.4</v>
@@ -17904,7 +17904,7 @@
         <v>1</v>
       </c>
       <c r="E427">
-        <v>740.3</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F427">
         <v>30.6</v>
@@ -17945,7 +17945,7 @@
         <v>1</v>
       </c>
       <c r="E428">
-        <v>763.2</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F428">
         <v>30</v>
@@ -17986,7 +17986,7 @@
         <v>1</v>
       </c>
       <c r="E429">
-        <v>754.8</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F429">
         <v>29.8</v>
@@ -18027,7 +18027,7 @@
         <v>1</v>
       </c>
       <c r="E430">
-        <v>770.9</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F430">
         <v>29.4</v>
@@ -18068,7 +18068,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E431">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F431">
         <v>28.90603758428948</v>
@@ -18080,7 +18080,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I431">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J431">
         <v>4.653057419835943</v>
@@ -18109,7 +18109,7 @@
         <v>1</v>
       </c>
       <c r="E432">
-        <v>751.2</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F432">
         <v>28.8</v>
@@ -18150,7 +18150,7 @@
         <v>1</v>
       </c>
       <c r="E433">
-        <v>766.8</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F433">
         <v>32.9</v>
@@ -18191,7 +18191,7 @@
         <v>1</v>
       </c>
       <c r="E434">
-        <v>783.2</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F434">
         <v>25.3</v>
@@ -18232,7 +18232,7 @@
         <v>1</v>
       </c>
       <c r="E435">
-        <v>778.9</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F435">
         <v>34.5</v>
@@ -18273,7 +18273,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E436">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F436">
         <v>28.90603758428948</v>
@@ -18285,7 +18285,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I436">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J436">
         <v>4.653057419835943</v>
@@ -18314,7 +18314,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E437">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F437">
         <v>28.90603758428948</v>
@@ -18326,7 +18326,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I437">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J437">
         <v>4.653057419835943</v>
@@ -18355,7 +18355,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E438">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F438">
         <v>28.90603758428948</v>
@@ -18367,7 +18367,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I438">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J438">
         <v>4.653057419835943</v>
@@ -18396,7 +18396,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E439">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F439">
         <v>28.90603758428948</v>
@@ -18408,7 +18408,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I439">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J439">
         <v>4.653057419835943</v>
@@ -18437,7 +18437,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E440">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F440">
         <v>28.90603758428948</v>
@@ -18449,7 +18449,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I440">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J440">
         <v>4.653057419835943</v>
@@ -18478,7 +18478,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E441">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F441">
         <v>28.90603758428948</v>
@@ -18490,7 +18490,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I441">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J441">
         <v>4.653057419835943</v>
@@ -18519,7 +18519,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E442">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F442">
         <v>28.90603758428948</v>
@@ -18531,7 +18531,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I442">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J442">
         <v>4.653057419835943</v>
@@ -18560,7 +18560,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E443">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F443">
         <v>28.90603758428948</v>
@@ -18572,7 +18572,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I443">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J443">
         <v>4.653057419835943</v>
@@ -18601,7 +18601,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E444">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F444">
         <v>28.90603758428948</v>
@@ -18613,7 +18613,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I444">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J444">
         <v>4.653057419835943</v>
@@ -18642,7 +18642,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E445">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F445">
         <v>28.90603758428948</v>
@@ -18654,7 +18654,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I445">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J445">
         <v>4.653057419835943</v>
@@ -18683,7 +18683,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E446">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F446">
         <v>28.90603758428948</v>
@@ -18695,7 +18695,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I446">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J446">
         <v>4.653057419835943</v>
@@ -18724,7 +18724,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E447">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F447">
         <v>28.90603758428948</v>
@@ -18736,7 +18736,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I447">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J447">
         <v>4.653057419835943</v>
@@ -18765,7 +18765,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E448">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F448">
         <v>28.90603758428948</v>
@@ -18777,7 +18777,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I448">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J448">
         <v>4.653057419835943</v>
@@ -18806,7 +18806,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E449">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F449">
         <v>28.90603758428948</v>
@@ -18818,7 +18818,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I449">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J449">
         <v>4.653057419835943</v>
@@ -18847,7 +18847,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E450">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F450">
         <v>28.90603758428948</v>
@@ -18859,7 +18859,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I450">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J450">
         <v>4.653057419835943</v>
@@ -18888,7 +18888,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E451">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F451">
         <v>28.90603758428948</v>
@@ -18900,7 +18900,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I451">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J451">
         <v>4.653057419835943</v>
@@ -18929,7 +18929,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E452">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F452">
         <v>28.90603758428948</v>
@@ -18941,7 +18941,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I452">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J452">
         <v>4.653057419835943</v>
@@ -18970,7 +18970,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E453">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F453">
         <v>28.90603758428948</v>
@@ -18982,7 +18982,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I453">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J453">
         <v>4.653057419835943</v>
@@ -19011,7 +19011,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E454">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F454">
         <v>28.90603758428948</v>
@@ -19023,7 +19023,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I454">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J454">
         <v>4.653057419835943</v>
@@ -19052,7 +19052,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E455">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F455">
         <v>28.90603758428948</v>
@@ -19064,7 +19064,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I455">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J455">
         <v>4.653057419835943</v>
@@ -19093,7 +19093,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E456">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F456">
         <v>28.90603758428948</v>
@@ -19105,7 +19105,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I456">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J456">
         <v>4.653057419835943</v>
@@ -19134,7 +19134,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E457">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F457">
         <v>28.90603758428948</v>
@@ -19146,7 +19146,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I457">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J457">
         <v>4.653057419835943</v>
@@ -19175,7 +19175,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E458">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F458">
         <v>28.90603758428948</v>
@@ -19187,7 +19187,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I458">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J458">
         <v>4.653057419835943</v>
@@ -19216,7 +19216,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E459">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F459">
         <v>28.90603758428948</v>
@@ -19228,7 +19228,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I459">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J459">
         <v>4.653057419835943</v>
@@ -19257,7 +19257,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E460">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F460">
         <v>28.90603758428948</v>
@@ -19269,7 +19269,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I460">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J460">
         <v>4.653057419835943</v>
@@ -19298,7 +19298,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E461">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F461">
         <v>28.90603758428948</v>
@@ -19310,7 +19310,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I461">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J461">
         <v>4.653057419835943</v>
@@ -19339,7 +19339,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E462">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F462">
         <v>28.90603758428948</v>
@@ -19351,7 +19351,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I462">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J462">
         <v>4.653057419835943</v>
@@ -19380,7 +19380,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E463">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F463">
         <v>28.90603758428948</v>
@@ -19392,7 +19392,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I463">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J463">
         <v>4.653057419835943</v>
@@ -19421,7 +19421,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E464">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F464">
         <v>28.90603758428948</v>
@@ -19433,7 +19433,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I464">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J464">
         <v>4.653057419835943</v>
@@ -19462,7 +19462,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E465">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F465">
         <v>28.90603758428948</v>
@@ -19474,7 +19474,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I465">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J465">
         <v>4.653057419835943</v>
@@ -19503,7 +19503,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E466">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F466">
         <v>28.90603758428948</v>
@@ -19515,7 +19515,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I466">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J466">
         <v>4.653057419835943</v>
@@ -19544,7 +19544,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E467">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F467">
         <v>28.90603758428948</v>
@@ -19556,7 +19556,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I467">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J467">
         <v>4.653057419835943</v>
@@ -19585,7 +19585,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E468">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F468">
         <v>28.90603758428948</v>
@@ -19597,7 +19597,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I468">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J468">
         <v>4.653057419835943</v>
@@ -19626,7 +19626,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E469">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F469">
         <v>28.90603758428948</v>
@@ -19638,7 +19638,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I469">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J469">
         <v>4.653057419835943</v>
@@ -19667,7 +19667,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E470">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F470">
         <v>28.90603758428948</v>
@@ -19679,7 +19679,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I470">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J470">
         <v>4.653057419835943</v>
@@ -19708,7 +19708,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E471">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F471">
         <v>28.90603758428948</v>
@@ -19720,7 +19720,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I471">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J471">
         <v>4.653057419835943</v>
@@ -19749,7 +19749,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E472">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F472">
         <v>28.90603758428948</v>
@@ -19761,7 +19761,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I472">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J472">
         <v>4.653057419835943</v>
@@ -19790,7 +19790,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E473">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F473">
         <v>28.90603758428948</v>
@@ -19802,7 +19802,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I473">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J473">
         <v>4.653057419835943</v>
@@ -19831,7 +19831,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E474">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F474">
         <v>28.90603758428948</v>
@@ -19843,7 +19843,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I474">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J474">
         <v>4.653057419835943</v>
@@ -19872,7 +19872,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E475">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F475">
         <v>28.90603758428948</v>
@@ -19884,7 +19884,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I475">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J475">
         <v>4.653057419835943</v>
@@ -19913,7 +19913,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E476">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F476">
         <v>28.90603758428948</v>
@@ -19925,7 +19925,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I476">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J476">
         <v>4.653057419835943</v>
@@ -19954,7 +19954,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E477">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F477">
         <v>28.90603758428948</v>
@@ -19966,7 +19966,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I477">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J477">
         <v>4.653057419835943</v>
@@ -19995,7 +19995,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E478">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F478">
         <v>28.90603758428948</v>
@@ -20007,7 +20007,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I478">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J478">
         <v>4.653057419835943</v>
@@ -20036,7 +20036,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E479">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F479">
         <v>28.90603758428948</v>
@@ -20048,7 +20048,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I479">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J479">
         <v>4.653057419835943</v>
@@ -20077,7 +20077,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E480">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F480">
         <v>28.90603758428948</v>
@@ -20089,7 +20089,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I480">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J480">
         <v>4.653057419835943</v>
@@ -20118,7 +20118,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E481">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F481">
         <v>28.90603758428948</v>
@@ -20130,7 +20130,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I481">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J481">
         <v>4.653057419835943</v>
@@ -20159,7 +20159,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E482">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F482">
         <v>28.90603758428948</v>
@@ -20171,7 +20171,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I482">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J482">
         <v>4.653057419835943</v>
@@ -20200,7 +20200,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E483">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F483">
         <v>28.90603758428948</v>
@@ -20212,7 +20212,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I483">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J483">
         <v>4.653057419835943</v>
@@ -20241,7 +20241,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E484">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F484">
         <v>28.90603758428948</v>
@@ -20253,7 +20253,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I484">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J484">
         <v>4.653057419835943</v>
@@ -20282,7 +20282,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E485">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F485">
         <v>28.90603758428948</v>
@@ -20294,7 +20294,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I485">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J485">
         <v>4.653057419835943</v>
@@ -20323,7 +20323,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E486">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F486">
         <v>28.90603758428948</v>
@@ -20335,7 +20335,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I486">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J486">
         <v>4.653057419835943</v>
@@ -20364,7 +20364,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E487">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F487">
         <v>28.90603758428948</v>
@@ -20376,7 +20376,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I487">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J487">
         <v>4.653057419835943</v>
@@ -20405,7 +20405,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E488">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F488">
         <v>28.90603758428948</v>
@@ -20417,7 +20417,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I488">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J488">
         <v>4.653057419835943</v>
@@ -20446,7 +20446,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E489">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F489">
         <v>28.90603758428948</v>
@@ -20458,7 +20458,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I489">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J489">
         <v>4.653057419835943</v>
@@ -20487,7 +20487,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E490">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F490">
         <v>28.90603758428948</v>
@@ -20499,7 +20499,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I490">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J490">
         <v>4.653057419835943</v>
@@ -20528,7 +20528,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E491">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F491">
         <v>28.90603758428948</v>
@@ -20540,7 +20540,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I491">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J491">
         <v>4.653057419835943</v>
@@ -20569,7 +20569,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E492">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F492">
         <v>28.90603758428948</v>
@@ -20581,7 +20581,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I492">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J492">
         <v>4.653057419835943</v>
@@ -20610,7 +20610,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E493">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F493">
         <v>28.90603758428948</v>
@@ -20622,7 +20622,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I493">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J493">
         <v>4.653057419835943</v>
@@ -20651,7 +20651,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E494">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F494">
         <v>28.90603758428948</v>
@@ -20663,7 +20663,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I494">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J494">
         <v>4.653057419835943</v>
@@ -20692,7 +20692,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E495">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F495">
         <v>28.90603758428948</v>
@@ -20704,7 +20704,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I495">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J495">
         <v>4.653057419835943</v>
@@ -20733,7 +20733,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E496">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F496">
         <v>28.90603758428948</v>
@@ -20745,7 +20745,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I496">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J496">
         <v>4.653057419835943</v>
@@ -20774,7 +20774,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E497">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F497">
         <v>28.90603758428948</v>
@@ -20786,7 +20786,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I497">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J497">
         <v>4.653057419835943</v>
@@ -20815,7 +20815,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E498">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F498">
         <v>28.90603758428948</v>
@@ -20827,7 +20827,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I498">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J498">
         <v>4.653057419835943</v>
@@ -20856,7 +20856,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E499">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F499">
         <v>28.90603758428948</v>
@@ -20868,7 +20868,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I499">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J499">
         <v>4.653057419835943</v>
@@ -20897,7 +20897,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E500">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F500">
         <v>28.90603758428948</v>
@@ -20909,7 +20909,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I500">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J500">
         <v>4.653057419835943</v>
@@ -20938,7 +20938,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E501">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F501">
         <v>28.90603758428948</v>
@@ -20950,7 +20950,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I501">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J501">
         <v>4.653057419835943</v>
@@ -20979,7 +20979,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E502">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F502">
         <v>28.90603758428948</v>
@@ -20991,7 +20991,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I502">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J502">
         <v>4.653057419835943</v>
@@ -21020,7 +21020,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E503">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F503">
         <v>28.90603758428948</v>
@@ -21032,7 +21032,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I503">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J503">
         <v>4.653057419835943</v>
@@ -21061,7 +21061,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E504">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F504">
         <v>28.90603758428948</v>
@@ -21073,7 +21073,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I504">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J504">
         <v>4.653057419835943</v>
@@ -21102,7 +21102,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E505">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F505">
         <v>28.90603758428948</v>
@@ -21114,7 +21114,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I505">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J505">
         <v>4.653057419835943</v>
@@ -21143,7 +21143,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E506">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F506">
         <v>28.90603758428948</v>
@@ -21155,7 +21155,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I506">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J506">
         <v>4.653057419835943</v>
@@ -21184,7 +21184,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E507">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F507">
         <v>28.90603758428948</v>
@@ -21196,7 +21196,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I507">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J507">
         <v>4.653057419835943</v>
@@ -21225,7 +21225,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E508">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F508">
         <v>28.90603758428948</v>
@@ -21237,7 +21237,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I508">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J508">
         <v>4.653057419835943</v>
@@ -21266,7 +21266,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E509">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F509">
         <v>28.90603758428948</v>
@@ -21278,7 +21278,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I509">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J509">
         <v>4.653057419835943</v>
@@ -21307,7 +21307,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E510">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F510">
         <v>28.90603758428948</v>
@@ -21319,7 +21319,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I510">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J510">
         <v>4.653057419835943</v>
@@ -21348,7 +21348,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E511">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F511">
         <v>28.90603758428948</v>
@@ -21360,7 +21360,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I511">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J511">
         <v>4.653057419835943</v>
@@ -21389,7 +21389,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E512">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F512">
         <v>28.90603758428948</v>
@@ -21401,7 +21401,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I512">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J512">
         <v>4.653057419835943</v>
@@ -21430,7 +21430,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E513">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F513">
         <v>28.90603758428948</v>
@@ -21442,7 +21442,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I513">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J513">
         <v>4.653057419835943</v>
@@ -21471,7 +21471,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E514">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F514">
         <v>28.90603758428948</v>
@@ -21483,7 +21483,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I514">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J514">
         <v>4.653057419835943</v>
@@ -21512,7 +21512,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E515">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F515">
         <v>28.90603758428948</v>
@@ -21524,7 +21524,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I515">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J515">
         <v>4.653057419835943</v>
@@ -21553,7 +21553,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E516">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F516">
         <v>28.90603758428948</v>
@@ -21565,7 +21565,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I516">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J516">
         <v>4.653057419835943</v>
@@ -21594,7 +21594,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E517">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F517">
         <v>28.90603758428948</v>
@@ -21606,7 +21606,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I517">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J517">
         <v>4.653057419835943</v>
@@ -21635,7 +21635,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E518">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F518">
         <v>28.90603758428948</v>
@@ -21647,7 +21647,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I518">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J518">
         <v>4.653057419835943</v>
@@ -21676,7 +21676,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E519">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F519">
         <v>28.90603758428948</v>
@@ -21688,7 +21688,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I519">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J519">
         <v>4.653057419835943</v>
@@ -21717,7 +21717,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E520">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F520">
         <v>28.90603758428948</v>
@@ -21729,7 +21729,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I520">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J520">
         <v>4.653057419835943</v>
@@ -21758,7 +21758,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E521">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F521">
         <v>28.90603758428948</v>
@@ -21770,7 +21770,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I521">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J521">
         <v>4.653057419835943</v>
@@ -21799,7 +21799,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E522">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F522">
         <v>28.90603758428948</v>
@@ -21811,7 +21811,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I522">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J522">
         <v>4.653057419835943</v>
@@ -21840,7 +21840,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E523">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F523">
         <v>28.90603758428948</v>
@@ -21852,7 +21852,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I523">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J523">
         <v>4.653057419835943</v>
@@ -21881,7 +21881,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E524">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F524">
         <v>28.90603758428948</v>
@@ -21893,7 +21893,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I524">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J524">
         <v>4.653057419835943</v>
@@ -21922,7 +21922,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E525">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F525">
         <v>28.90603758428948</v>
@@ -21934,7 +21934,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I525">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J525">
         <v>4.653057419835943</v>
@@ -21963,7 +21963,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E526">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F526">
         <v>28.90603758428948</v>
@@ -21975,7 +21975,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I526">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J526">
         <v>4.653057419835943</v>
@@ -22004,7 +22004,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E527">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F527">
         <v>28.90603758428948</v>
@@ -22016,7 +22016,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I527">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J527">
         <v>4.653057419835943</v>
@@ -22045,7 +22045,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E528">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F528">
         <v>28.90603758428948</v>
@@ -22057,7 +22057,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I528">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J528">
         <v>4.653057419835943</v>
@@ -22086,7 +22086,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E529">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F529">
         <v>28.90603758428948</v>
@@ -22098,7 +22098,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I529">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J529">
         <v>4.653057419835943</v>
@@ -22127,7 +22127,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E530">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F530">
         <v>28.90603758428948</v>
@@ -22139,7 +22139,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I530">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J530">
         <v>4.653057419835943</v>
@@ -22168,7 +22168,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E531">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F531">
         <v>28.90603758428948</v>
@@ -22180,7 +22180,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I531">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J531">
         <v>4.653057419835943</v>
@@ -22209,7 +22209,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E532">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F532">
         <v>28.90603758428948</v>
@@ -22221,7 +22221,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I532">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J532">
         <v>4.653057419835943</v>
@@ -22250,7 +22250,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E533">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F533">
         <v>28.90603758428948</v>
@@ -22262,7 +22262,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I533">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J533">
         <v>4.653057419835943</v>
@@ -22291,7 +22291,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E534">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F534">
         <v>28.90603758428948</v>
@@ -22303,7 +22303,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I534">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J534">
         <v>4.653057419835943</v>
@@ -22332,7 +22332,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E535">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F535">
         <v>28.90603758428948</v>
@@ -22344,7 +22344,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I535">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J535">
         <v>4.653057419835943</v>
@@ -22373,7 +22373,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E536">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F536">
         <v>28.90603758428948</v>
@@ -22385,7 +22385,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I536">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J536">
         <v>4.653057419835943</v>
@@ -22414,7 +22414,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E537">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F537">
         <v>28.90603758428948</v>
@@ -22426,7 +22426,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I537">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J537">
         <v>4.653057419835943</v>
@@ -22455,7 +22455,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E538">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F538">
         <v>28.90603758428948</v>
@@ -22467,7 +22467,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I538">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J538">
         <v>4.653057419835943</v>
@@ -22496,7 +22496,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E539">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F539">
         <v>28.90603758428948</v>
@@ -22508,7 +22508,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I539">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J539">
         <v>4.653057419835943</v>
@@ -22537,7 +22537,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E540">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F540">
         <v>28.90603758428948</v>
@@ -22549,7 +22549,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I540">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J540">
         <v>4.653057419835943</v>
@@ -22578,7 +22578,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E541">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F541">
         <v>28.90603758428948</v>
@@ -22590,7 +22590,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I541">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J541">
         <v>4.653057419835943</v>
@@ -22619,7 +22619,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E542">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F542">
         <v>28.90603758428948</v>
@@ -22631,7 +22631,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I542">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J542">
         <v>4.653057419835943</v>
@@ -22660,7 +22660,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E543">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F543">
         <v>28.90603758428948</v>
@@ -22672,7 +22672,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I543">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J543">
         <v>4.653057419835943</v>
@@ -22701,7 +22701,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E544">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F544">
         <v>28.90603758428948</v>
@@ -22713,7 +22713,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I544">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J544">
         <v>4.653057419835943</v>
@@ -22742,7 +22742,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E545">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F545">
         <v>28.90603758428948</v>
@@ -22754,7 +22754,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I545">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J545">
         <v>4.653057419835943</v>
@@ -22783,7 +22783,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E546">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F546">
         <v>28.90603758428948</v>
@@ -22795,7 +22795,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I546">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J546">
         <v>4.653057419835943</v>
@@ -22824,7 +22824,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E547">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F547">
         <v>28.90603758428948</v>
@@ -22836,7 +22836,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I547">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J547">
         <v>4.653057419835943</v>
@@ -22865,7 +22865,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E548">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F548">
         <v>28.90603758428948</v>
@@ -22877,7 +22877,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I548">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J548">
         <v>4.653057419835943</v>
@@ -22906,7 +22906,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E549">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F549">
         <v>28.90603758428948</v>
@@ -22918,7 +22918,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I549">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J549">
         <v>4.653057419835943</v>
@@ -22947,7 +22947,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E550">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F550">
         <v>28.90603758428948</v>
@@ -22959,7 +22959,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I550">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J550">
         <v>4.653057419835943</v>
@@ -22988,7 +22988,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E551">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F551">
         <v>28.90603758428948</v>
@@ -23000,7 +23000,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I551">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J551">
         <v>4.653057419835943</v>
@@ -23029,7 +23029,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E552">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F552">
         <v>28.90603758428948</v>
@@ -23041,7 +23041,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I552">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J552">
         <v>4.653057419835943</v>
@@ -23070,7 +23070,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E553">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F553">
         <v>28.90603758428948</v>
@@ -23082,7 +23082,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I553">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J553">
         <v>4.653057419835943</v>
@@ -23111,7 +23111,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E554">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F554">
         <v>28.90603758428948</v>
@@ -23123,7 +23123,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I554">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J554">
         <v>4.653057419835943</v>
@@ -23152,7 +23152,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E555">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F555">
         <v>28.90603758428948</v>
@@ -23164,7 +23164,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I555">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J555">
         <v>4.653057419835943</v>
@@ -23193,7 +23193,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E556">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F556">
         <v>28.90603758428948</v>
@@ -23205,7 +23205,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I556">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J556">
         <v>4.653057419835943</v>
@@ -23234,7 +23234,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E557">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F557">
         <v>28.90603758428948</v>
@@ -23246,7 +23246,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I557">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J557">
         <v>4.653057419835943</v>
@@ -23275,7 +23275,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E558">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F558">
         <v>28.90603758428948</v>
@@ -23287,7 +23287,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I558">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J558">
         <v>4.653057419835943</v>
@@ -23316,7 +23316,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E559">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F559">
         <v>28.90603758428948</v>
@@ -23328,7 +23328,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I559">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J559">
         <v>4.653057419835943</v>
@@ -23357,7 +23357,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E560">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F560">
         <v>28.90603758428948</v>
@@ -23369,7 +23369,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I560">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J560">
         <v>4.653057419835943</v>
@@ -23398,7 +23398,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E561">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F561">
         <v>28.90603758428948</v>
@@ -23410,7 +23410,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I561">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J561">
         <v>4.653057419835943</v>
@@ -23439,7 +23439,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E562">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F562">
         <v>28.90603758428948</v>
@@ -23451,7 +23451,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I562">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J562">
         <v>4.653057419835943</v>
@@ -23480,7 +23480,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E563">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F563">
         <v>28.90603758428948</v>
@@ -23492,7 +23492,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I563">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J563">
         <v>4.653057419835943</v>
@@ -23521,7 +23521,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E564">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F564">
         <v>28.90603758428948</v>
@@ -23533,7 +23533,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I564">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J564">
         <v>4.653057419835943</v>
@@ -23562,7 +23562,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E565">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F565">
         <v>28.90603758428948</v>
@@ -23574,7 +23574,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I565">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J565">
         <v>4.653057419835943</v>
@@ -23603,7 +23603,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E566">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F566">
         <v>28.90603758428948</v>
@@ -23615,7 +23615,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I566">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J566">
         <v>4.653057419835943</v>
@@ -23644,7 +23644,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E567">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F567">
         <v>28.90603758428948</v>
@@ -23656,7 +23656,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I567">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J567">
         <v>4.653057419835943</v>
@@ -23685,7 +23685,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E568">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F568">
         <v>28.90603758428948</v>
@@ -23697,7 +23697,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I568">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J568">
         <v>4.653057419835943</v>
@@ -23726,7 +23726,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E569">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F569">
         <v>28.90603758428948</v>
@@ -23738,7 +23738,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I569">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J569">
         <v>4.653057419835943</v>
@@ -23767,7 +23767,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E570">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F570">
         <v>28.90603758428948</v>
@@ -23779,7 +23779,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I570">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J570">
         <v>4.653057419835943</v>
@@ -23808,7 +23808,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E571">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F571">
         <v>28.90603758428948</v>
@@ -23820,7 +23820,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I571">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J571">
         <v>4.653057419835943</v>
@@ -23849,7 +23849,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E572">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F572">
         <v>28.90603758428948</v>
@@ -23861,7 +23861,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I572">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J572">
         <v>4.653057419835943</v>
@@ -23890,7 +23890,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E573">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F573">
         <v>28.90603758428948</v>
@@ -23902,7 +23902,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I573">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J573">
         <v>4.653057419835943</v>
@@ -23931,7 +23931,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E574">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F574">
         <v>28.90603758428948</v>
@@ -23943,7 +23943,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I574">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J574">
         <v>4.653057419835943</v>
@@ -23972,7 +23972,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E575">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F575">
         <v>28.90603758428948</v>
@@ -23984,7 +23984,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I575">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J575">
         <v>4.653057419835943</v>
@@ -24013,7 +24013,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E576">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F576">
         <v>28.90603758428948</v>
@@ -24025,7 +24025,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I576">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J576">
         <v>4.653057419835943</v>
@@ -24054,7 +24054,7 @@
         <v>0</v>
       </c>
       <c r="E577">
-        <v>424.75</v>
+        <v>298.5548632218844</v>
       </c>
       <c r="F577">
         <v>28.84111776447103</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="E578">
-        <v>435.9333333333333</v>
+        <v>328.7064842958459</v>
       </c>
       <c r="F578">
         <v>30.16074517631402</v>
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="E581">
-        <v>494.3</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F581">
         <v>32.6</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="E582">
-        <v>642.65</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F582">
         <v>29.45</v>
@@ -24300,7 +24300,7 @@
         <v>0</v>
       </c>
       <c r="E583">
-        <v>483.4</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F583">
         <v>28.6</v>
@@ -24341,7 +24341,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E584">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F584">
         <v>28.90603758428948</v>
@@ -24353,7 +24353,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I584">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J584">
         <v>4.653057419835943</v>
@@ -24382,7 +24382,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E585">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F585">
         <v>28.90603758428948</v>
@@ -24394,7 +24394,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I585">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J585">
         <v>4.653057419835943</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="E586">
-        <v>454</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F586">
         <v>27.8</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="E588">
-        <v>426.35</v>
+        <v>340.4548632218844</v>
       </c>
       <c r="F588">
         <v>26.75</v>
@@ -24546,7 +24546,7 @@
         <v>0</v>
       </c>
       <c r="E589">
-        <v>416.5</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F589">
         <v>28.8</v>
@@ -24587,7 +24587,7 @@
         <v>1</v>
       </c>
       <c r="E590">
-        <v>770.6</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F590">
         <v>28.84111776447103</v>
@@ -24628,7 +24628,7 @@
         <v>0</v>
       </c>
       <c r="E591">
-        <v>616.75</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F591">
         <v>30.9</v>
@@ -24669,7 +24669,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E592">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F592">
         <v>28.90603758428948</v>
@@ -24681,7 +24681,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I592">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J592">
         <v>4.653057419835943</v>
@@ -24710,7 +24710,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E593">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F593">
         <v>28.90603758428948</v>
@@ -24722,7 +24722,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I593">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J593">
         <v>4.653057419835943</v>
@@ -24751,7 +24751,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E594">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F594">
         <v>28.90603758428948</v>
@@ -24763,7 +24763,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I594">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J594">
         <v>4.653057419835943</v>
@@ -24833,7 +24833,7 @@
         <v>0</v>
       </c>
       <c r="E596">
-        <v>303.9</v>
+        <v>243.0048632218844</v>
       </c>
       <c r="F596">
         <v>28</v>
@@ -24874,7 +24874,7 @@
         <v>0</v>
       </c>
       <c r="E597">
-        <v>465.5</v>
+        <v>353.2548632218844</v>
       </c>
       <c r="F597">
         <v>27.6</v>
@@ -24915,7 +24915,7 @@
         <v>0</v>
       </c>
       <c r="E598">
-        <v>508.8</v>
+        <v>263.5731509625126</v>
       </c>
       <c r="F598">
         <v>27.43333333333333</v>
@@ -24956,7 +24956,7 @@
         <v>0</v>
       </c>
       <c r="E599">
-        <v>450.95</v>
+        <v>346.1048632218844</v>
       </c>
       <c r="F599">
         <v>27.35</v>
@@ -24997,7 +24997,7 @@
         <v>0</v>
       </c>
       <c r="E600">
-        <v>449.2</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F600">
         <v>26.9</v>
@@ -25038,7 +25038,7 @@
         <v>0</v>
       </c>
       <c r="E601">
-        <v>776.1</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F601">
         <v>35.3</v>
@@ -25079,7 +25079,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E602">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F602">
         <v>28.90603758428948</v>
@@ -25091,7 +25091,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I602">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J602">
         <v>4.653057419835943</v>
@@ -25202,7 +25202,7 @@
         <v>0</v>
       </c>
       <c r="E605">
-        <v>521.9</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F605">
         <v>26.8</v>
@@ -25243,7 +25243,7 @@
         <v>0</v>
       </c>
       <c r="E606">
-        <v>508.3333333333333</v>
+        <v>254.4731509625125</v>
       </c>
       <c r="F606">
         <v>27.23333333333333</v>
@@ -25284,7 +25284,7 @@
         <v>0</v>
       </c>
       <c r="E607">
-        <v>616.45</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F607">
         <v>27.5</v>
@@ -25325,7 +25325,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E608">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F608">
         <v>28.90603758428948</v>
@@ -25337,7 +25337,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I608">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J608">
         <v>4.653057419835943</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="E609">
-        <v>779.5</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F609">
         <v>27.5</v>
@@ -25407,7 +25407,7 @@
         <v>0</v>
       </c>
       <c r="E610">
-        <v>466.6</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F610">
         <v>27.3</v>
@@ -25489,7 +25489,7 @@
         <v>0</v>
       </c>
       <c r="E612">
-        <v>427.3</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F612">
         <v>26.3</v>
@@ -25530,7 +25530,7 @@
         <v>0</v>
       </c>
       <c r="E613">
-        <v>471.75</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F613">
         <v>28.57055888223552</v>
@@ -25571,7 +25571,7 @@
         <v>0.5</v>
       </c>
       <c r="E614">
-        <v>480.6</v>
+        <v>236.4548632218844</v>
       </c>
       <c r="F614">
         <v>28.84111776447103</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="E615">
-        <v>351.7666666666667</v>
+        <v>282.5699088145896</v>
       </c>
       <c r="F615">
         <v>31.91370592149034</v>
@@ -25624,7 +25624,7 @@
         <v>0</v>
       </c>
       <c r="I615">
-        <v>0.06371405048543685</v>
+        <v>0.2384213333333333</v>
       </c>
       <c r="J615">
         <v>5.333333333333333</v>
@@ -25653,7 +25653,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E616">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F616">
         <v>28.90603758428948</v>
@@ -25665,7 +25665,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I616">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J616">
         <v>4.653057419835943</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="E617">
-        <v>470.05</v>
+        <v>234.8548632218844</v>
       </c>
       <c r="F617">
         <v>29.92055888223551</v>
@@ -25735,7 +25735,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E618">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F618">
         <v>28.90603758428948</v>
@@ -25747,7 +25747,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I618">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J618">
         <v>4.653057419835943</v>
@@ -25776,7 +25776,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E619">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F619">
         <v>28.90603758428948</v>
@@ -25788,7 +25788,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I619">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J619">
         <v>4.653057419835943</v>
@@ -25817,7 +25817,7 @@
         <v>0</v>
       </c>
       <c r="E620">
-        <v>313.6</v>
+        <v>247.1048632218844</v>
       </c>
       <c r="F620">
         <v>25.9</v>
@@ -25829,7 +25829,7 @@
         <v>0</v>
       </c>
       <c r="I620">
-        <v>0.02851507572815527</v>
+        <v>0.290576</v>
       </c>
       <c r="J620">
         <v>6</v>
@@ -25858,7 +25858,7 @@
         <v>0</v>
       </c>
       <c r="E621">
-        <v>416.9</v>
+        <v>306.6032421479229</v>
       </c>
       <c r="F621">
         <v>25.36666666666666</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="I621">
-        <v>0.0380201009708737</v>
+        <v>0.8344746666666666</v>
       </c>
       <c r="J621">
         <v>5.666666666666667</v>
@@ -25899,7 +25899,7 @@
         <v>0</v>
       </c>
       <c r="E622">
-        <v>742.7</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F622">
         <v>25.3</v>
@@ -25940,7 +25940,7 @@
         <v>0</v>
       </c>
       <c r="E623">
-        <v>470.05</v>
+        <v>305.9798632218844</v>
       </c>
       <c r="F623">
         <v>25.575</v>
@@ -25981,7 +25981,7 @@
         <v>0</v>
       </c>
       <c r="E624">
-        <v>429.2</v>
+        <v>340.7048632218844</v>
       </c>
       <c r="F624">
         <v>25.55</v>
@@ -26022,7 +26022,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E625">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F625">
         <v>28.90603758428948</v>
@@ -26034,7 +26034,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I625">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J625">
         <v>4.653057419835943</v>
@@ -26063,7 +26063,7 @@
         <v>0</v>
       </c>
       <c r="E626">
-        <v>341.7333333333333</v>
+        <v>272.8032421479229</v>
       </c>
       <c r="F626">
         <v>32.01370592149034</v>
@@ -26145,7 +26145,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E628">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F628">
         <v>28.90603758428948</v>
@@ -26157,7 +26157,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I628">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J628">
         <v>4.653057419835943</v>
@@ -26227,7 +26227,7 @@
         <v>0</v>
       </c>
       <c r="E630">
-        <v>773.3</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F630">
         <v>28.8</v>
@@ -26268,7 +26268,7 @@
         <v>0</v>
       </c>
       <c r="E631">
-        <v>800.6</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F631">
         <v>28.1</v>
@@ -26309,7 +26309,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E632">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F632">
         <v>28.90603758428948</v>
@@ -26321,7 +26321,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I632">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J632">
         <v>4.653057419835943</v>
@@ -26350,7 +26350,7 @@
         <v>0</v>
       </c>
       <c r="E633">
-        <v>774.8</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F633">
         <v>27.5</v>
@@ -26391,7 +26391,7 @@
         <v>0</v>
       </c>
       <c r="E634">
-        <v>764.8</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F634">
         <v>27</v>
@@ -26432,7 +26432,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E635">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F635">
         <v>28.90603758428948</v>
@@ -26444,7 +26444,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I635">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J635">
         <v>4.653057419835943</v>
@@ -26473,7 +26473,7 @@
         <v>0</v>
       </c>
       <c r="E636">
-        <v>820.6</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F636">
         <v>27.3</v>
@@ -26514,7 +26514,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E637">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F637">
         <v>28.90603758428948</v>
@@ -26526,7 +26526,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I637">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J637">
         <v>4.653057419835943</v>
@@ -26555,7 +26555,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E638">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F638">
         <v>28.90603758428948</v>
@@ -26567,7 +26567,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I638">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J638">
         <v>4.653057419835943</v>
@@ -26596,7 +26596,7 @@
         <v>0</v>
       </c>
       <c r="E639">
-        <v>721.6</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F639">
         <v>32.4</v>
@@ -26608,7 +26608,7 @@
         <v>2.54</v>
       </c>
       <c r="I639">
-        <v>0.05703015145631054</v>
+        <v>0.715264</v>
       </c>
       <c r="J639">
         <v>4</v>
@@ -26637,7 +26637,7 @@
         <v>0</v>
       </c>
       <c r="E640">
-        <v>777.1</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F640">
         <v>30.6</v>
@@ -26678,7 +26678,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E641">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F641">
         <v>28.90603758428948</v>
@@ -26690,7 +26690,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I641">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J641">
         <v>4.653057419835943</v>
@@ -26719,7 +26719,7 @@
         <v>0</v>
       </c>
       <c r="E642">
-        <v>828.8</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F642">
         <v>26.8</v>
@@ -26760,7 +26760,7 @@
         <v>0</v>
       </c>
       <c r="E643">
-        <v>758</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F643">
         <v>26.8</v>
@@ -26801,7 +26801,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E644">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F644">
         <v>28.90603758428948</v>
@@ -26813,7 +26813,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I644">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J644">
         <v>4.653057419835943</v>
@@ -26842,7 +26842,7 @@
         <v>0</v>
       </c>
       <c r="E645">
-        <v>813.8</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F645">
         <v>26.4</v>
@@ -26883,7 +26883,7 @@
         <v>0</v>
       </c>
       <c r="E646">
-        <v>751.1</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F646">
         <v>26.3</v>
@@ -26924,7 +26924,7 @@
         <v>0</v>
       </c>
       <c r="E647">
-        <v>731.2</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F647">
         <v>25.9</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="E648">
-        <v>786.3</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F648">
         <v>25.9</v>
@@ -27006,7 +27006,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E649">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F649">
         <v>28.90603758428948</v>
@@ -27018,7 +27018,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I649">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J649">
         <v>4.653057419835943</v>
@@ -27047,7 +27047,7 @@
         <v>0</v>
       </c>
       <c r="E650">
-        <v>758.5</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F650">
         <v>28.1</v>
@@ -27088,7 +27088,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E651">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F651">
         <v>28.90603758428948</v>
@@ -27100,7 +27100,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I651">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J651">
         <v>4.653057419835943</v>
@@ -27129,7 +27129,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E652">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F652">
         <v>28.90603758428948</v>
@@ -27141,7 +27141,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I652">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J652">
         <v>4.653057419835943</v>
@@ -27170,7 +27170,7 @@
         <v>0</v>
       </c>
       <c r="E653">
-        <v>733.1</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F653">
         <v>28.7</v>
@@ -27211,7 +27211,7 @@
         <v>0</v>
       </c>
       <c r="E654">
-        <v>766.8</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F654">
         <v>27.1</v>
@@ -27252,7 +27252,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E655">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F655">
         <v>28.90603758428948</v>
@@ -27264,7 +27264,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I655">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J655">
         <v>4.653057419835943</v>
@@ -27293,7 +27293,7 @@
         <v>0</v>
       </c>
       <c r="E656">
-        <v>760.2</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F656">
         <v>26.6</v>
@@ -27334,7 +27334,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E657">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F657">
         <v>28.90603758428948</v>
@@ -27346,7 +27346,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I657">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J657">
         <v>4.653057419835943</v>
@@ -27375,7 +27375,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E658">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F658">
         <v>28.90603758428948</v>
@@ -27387,7 +27387,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I658">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J658">
         <v>4.653057419835943</v>
@@ -27416,7 +27416,7 @@
         <v>0</v>
       </c>
       <c r="E659">
-        <v>718.5</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F659">
         <v>23.4</v>
@@ -27457,7 +27457,7 @@
         <v>0</v>
       </c>
       <c r="E660">
-        <v>700.5</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F660">
         <v>23.9</v>
@@ -27498,7 +27498,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E661">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F661">
         <v>28.90603758428948</v>
@@ -27510,7 +27510,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I661">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J661">
         <v>4.653057419835943</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="E662">
-        <v>798.7</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F662">
         <v>34.2</v>
@@ -27580,7 +27580,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E663">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F663">
         <v>28.90603758428948</v>
@@ -27592,7 +27592,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I663">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J663">
         <v>4.653057419835943</v>
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="E664">
-        <v>769.4</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F664">
         <v>33.9</v>
@@ -27662,7 +27662,7 @@
         <v>0</v>
       </c>
       <c r="E665">
-        <v>776.5</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F665">
         <v>30.5</v>
@@ -27703,7 +27703,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E666">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F666">
         <v>28.90603758428948</v>
@@ -27715,7 +27715,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I666">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J666">
         <v>4.653057419835943</v>
@@ -27744,7 +27744,7 @@
         <v>0</v>
       </c>
       <c r="E667">
-        <v>790.2</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F667">
         <v>27.4</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="E668">
-        <v>749.9</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F668">
         <v>27.6</v>
@@ -27826,7 +27826,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E669">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F669">
         <v>28.90603758428948</v>
@@ -27838,7 +27838,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I669">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J669">
         <v>4.653057419835943</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="E670">
-        <v>765.5</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F670">
         <v>27</v>
@@ -27908,7 +27908,7 @@
         <v>0</v>
       </c>
       <c r="E671">
-        <v>768.6</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F671">
         <v>27</v>
@@ -27949,7 +27949,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E672">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F672">
         <v>28.90603758428948</v>
@@ -27961,7 +27961,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I672">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J672">
         <v>4.653057419835943</v>
@@ -27990,7 +27990,7 @@
         <v>0</v>
       </c>
       <c r="E673">
-        <v>740.4</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F673">
         <v>24.6</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="E674">
-        <v>758.8</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F674">
         <v>25</v>
@@ -28072,7 +28072,7 @@
         <v>0</v>
       </c>
       <c r="E675">
-        <v>809</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F675">
         <v>27.1</v>
@@ -28113,7 +28113,7 @@
         <v>0</v>
       </c>
       <c r="E676">
-        <v>771.6</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F676">
         <v>27.1</v>
@@ -28154,7 +28154,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E677">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F677">
         <v>28.90603758428948</v>
@@ -28166,7 +28166,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I677">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J677">
         <v>4.653057419835943</v>
@@ -28195,7 +28195,7 @@
         <v>0</v>
       </c>
       <c r="E678">
-        <v>814.4</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F678">
         <v>25.5</v>
@@ -28236,7 +28236,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E679">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F679">
         <v>28.90603758428948</v>
@@ -28248,7 +28248,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I679">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J679">
         <v>4.653057419835943</v>
@@ -28277,7 +28277,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E680">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F680">
         <v>28.90603758428948</v>
@@ -28289,7 +28289,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I680">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J680">
         <v>4.653057419835943</v>
@@ -28318,7 +28318,7 @@
         <v>0</v>
       </c>
       <c r="E681">
-        <v>784.9</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F681">
         <v>25.3</v>
@@ -28359,7 +28359,7 @@
         <v>0</v>
       </c>
       <c r="E682">
-        <v>772.8</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F682">
         <v>25.2</v>
@@ -28400,7 +28400,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E683">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F683">
         <v>28.90603758428948</v>
@@ -28412,7 +28412,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I683">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J683">
         <v>4.653057419835943</v>
@@ -28441,7 +28441,7 @@
         <v>0</v>
       </c>
       <c r="E684">
-        <v>767.6</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F684">
         <v>26.1</v>
@@ -28482,7 +28482,7 @@
         <v>0</v>
       </c>
       <c r="E685">
-        <v>772.2</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F685">
         <v>33.2</v>
@@ -28523,7 +28523,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E686">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F686">
         <v>28.90603758428948</v>
@@ -28535,7 +28535,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I686">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J686">
         <v>4.653057419835943</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="E687">
-        <v>755</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F687">
         <v>33.6</v>
@@ -28605,7 +28605,7 @@
         <v>0</v>
       </c>
       <c r="E688">
-        <v>772.3</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F688">
         <v>32.7</v>
@@ -28646,7 +28646,7 @@
         <v>0</v>
       </c>
       <c r="E689">
-        <v>776.8</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F689">
         <v>30.4</v>
@@ -28687,7 +28687,7 @@
         <v>0</v>
       </c>
       <c r="E690">
-        <v>800.6</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F690">
         <v>27.9</v>
@@ -28728,7 +28728,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E691">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F691">
         <v>28.90603758428948</v>
@@ -28740,7 +28740,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I691">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J691">
         <v>4.653057419835943</v>
@@ -28769,7 +28769,7 @@
         <v>0</v>
       </c>
       <c r="E692">
-        <v>782.5</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F692">
         <v>27.4</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="E693">
-        <v>785.2</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F693">
         <v>27.4</v>
@@ -28851,7 +28851,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E694">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F694">
         <v>28.90603758428948</v>
@@ -28863,7 +28863,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I694">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J694">
         <v>4.653057419835943</v>
@@ -28892,7 +28892,7 @@
         <v>0</v>
       </c>
       <c r="E695">
-        <v>767.5</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F695">
         <v>26.7</v>
@@ -28933,7 +28933,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E696">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F696">
         <v>28.90603758428948</v>
@@ -28945,7 +28945,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I696">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J696">
         <v>4.653057419835943</v>
@@ -28974,7 +28974,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E697">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F697">
         <v>28.90603758428948</v>
@@ -28986,7 +28986,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I697">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J697">
         <v>4.653057419835943</v>
@@ -29015,7 +29015,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E698">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F698">
         <v>28.90603758428948</v>
@@ -29027,7 +29027,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I698">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J698">
         <v>4.653057419835943</v>
@@ -29056,7 +29056,7 @@
         <v>0</v>
       </c>
       <c r="E699">
-        <v>799.3</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F699">
         <v>33.6</v>
@@ -29097,7 +29097,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E700">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F700">
         <v>28.90603758428948</v>
@@ -29109,7 +29109,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I700">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J700">
         <v>4.653057419835943</v>
@@ -29138,7 +29138,7 @@
         <v>0</v>
       </c>
       <c r="E701">
-        <v>757.3</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F701">
         <v>25.4</v>
@@ -29179,7 +29179,7 @@
         <v>0</v>
       </c>
       <c r="E702">
-        <v>741</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F702">
         <v>25.1</v>
@@ -29220,7 +29220,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E703">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F703">
         <v>28.90603758428948</v>
@@ -29232,7 +29232,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I703">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J703">
         <v>4.653057419835943</v>
@@ -29261,7 +29261,7 @@
         <v>0</v>
       </c>
       <c r="E704">
-        <v>783.7</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F704">
         <v>25.5</v>
@@ -29302,7 +29302,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E705">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F705">
         <v>28.90603758428948</v>
@@ -29314,7 +29314,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I705">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J705">
         <v>4.653057419835943</v>
@@ -29343,7 +29343,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E706">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F706">
         <v>28.90603758428948</v>
@@ -29355,7 +29355,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I706">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J706">
         <v>4.653057419835943</v>
@@ -29384,7 +29384,7 @@
         <v>0</v>
       </c>
       <c r="E707">
-        <v>769.3</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F707">
         <v>25.1</v>
@@ -29425,7 +29425,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E708">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F708">
         <v>28.90603758428948</v>
@@ -29437,7 +29437,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I708">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J708">
         <v>4.653057419835943</v>
@@ -29466,7 +29466,7 @@
         <v>0</v>
       </c>
       <c r="E709">
-        <v>800.3</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F709">
         <v>32.3</v>
@@ -29507,7 +29507,7 @@
         <v>0</v>
       </c>
       <c r="E710">
-        <v>803.5</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F710">
         <v>28.84111776447103</v>
@@ -29548,7 +29548,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E711">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F711">
         <v>28.90603758428948</v>
@@ -29560,7 +29560,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I711">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J711">
         <v>4.653057419835943</v>
@@ -29589,7 +29589,7 @@
         <v>0</v>
       </c>
       <c r="E712">
-        <v>769.9</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F712">
         <v>34</v>
@@ -29630,7 +29630,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E713">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F713">
         <v>28.90603758428948</v>
@@ -29642,7 +29642,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I713">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J713">
         <v>4.653057419835943</v>
@@ -29671,7 +29671,7 @@
         <v>0.1656226696495153</v>
       </c>
       <c r="E714">
-        <v>589.402505592841</v>
+        <v>295.2875440306376</v>
       </c>
       <c r="F714">
         <v>28.90603758428948</v>
@@ -29683,7 +29683,7 @@
         <v>4.010168405406292</v>
       </c>
       <c r="I714">
-        <v>0.05069735504036257</v>
+        <v>0.09401674571215531</v>
       </c>
       <c r="J714">
         <v>4.653057419835943</v>
@@ -29712,7 +29712,7 @@
         <v>0</v>
       </c>
       <c r="E715">
-        <v>770.4</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F715">
         <v>28</v>
@@ -29753,7 +29753,7 @@
         <v>0</v>
       </c>
       <c r="E716">
-        <v>511.9</v>
+        <v>294.8097264437688</v>
       </c>
       <c r="F716">
         <v>27.6</v>
